--- a/GasDist/Examples/Автотор V8.xlsx
+++ b/GasDist/Examples/Автотор V8.xlsx
@@ -1,25 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arthur\source\repos\avasaris\GasDistribution\GasDist\Examples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code PET\repos\GasDistribution\GasDist\Examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1E07773-9A3B-4915-9421-F792E43962CB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11400" windowHeight="5895" tabRatio="423" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11400" windowHeight="5895" tabRatio="423" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="04.2019" sheetId="1" r:id="rId1"/>
     <sheet name="Автотор-энерго v.6" sheetId="2" r:id="rId2"/>
     <sheet name="Автотор-энерго v.7" sheetId="4" r:id="rId3"/>
     <sheet name="Автотор-энерго v.8" sheetId="5" r:id="rId4"/>
-    <sheet name="Автотор-энерго v.8 (2)" sheetId="6" r:id="rId5"/>
+    <sheet name="Автотор-энерго v.8 (2)" sheetId="7" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913" refMode="R1C1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="77">
   <si>
     <t>Потребитель</t>
   </si>
@@ -267,7 +266,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -742,7 +741,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -936,6 +935,23 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -981,9 +997,6 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1005,23 +1018,12 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="16" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -3042,6 +3044,579 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>21167</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>249767</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="18700750" y="2002367"/>
+          <a:ext cx="304800" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>42333</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>492125</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>270933</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Рисунок 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="18065750" y="2023533"/>
+          <a:ext cx="333375" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>52917</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>262467</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Рисунок 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="18097500" y="2319867"/>
+          <a:ext cx="304800" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>42333</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>460375</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>242358</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Рисунок 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="18700750" y="2309283"/>
+          <a:ext cx="333375" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>21167</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>249767</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Рисунок 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="20567650" y="2002367"/>
+          <a:ext cx="304800" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>42333</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>492125</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>270933</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Рисунок 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="19932650" y="2023533"/>
+          <a:ext cx="333375" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>52917</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>262467</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Рисунок 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="19964400" y="2319867"/>
+          <a:ext cx="304800" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>42333</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>460375</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>242358</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Рисунок 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="20567650" y="2309283"/>
+          <a:ext cx="333375" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
@@ -3118,23 +3693,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -3170,23 +3728,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -3362,7 +3903,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0"/>
@@ -5017,7 +5558,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BP49"/>
   <sheetViews>
     <sheetView topLeftCell="AK1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
@@ -5042,41 +5583,41 @@
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="91" t="s">
+      <c r="B1" s="100" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="92"/>
-      <c r="M1" s="93"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="101"/>
+      <c r="I1" s="101"/>
+      <c r="J1" s="101"/>
+      <c r="K1" s="101"/>
+      <c r="L1" s="101"/>
+      <c r="M1" s="102"/>
       <c r="AS1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="AT1" s="97" t="s">
+      <c r="AT1" s="106" t="s">
         <v>43</v>
       </c>
-      <c r="AU1" s="97"/>
-      <c r="AV1" s="97"/>
-      <c r="AW1" s="97"/>
-      <c r="AX1" s="97"/>
-      <c r="AY1" s="97"/>
-      <c r="AZ1" s="97"/>
-      <c r="BA1" s="97"/>
-      <c r="BB1" s="97"/>
-      <c r="BC1" s="97"/>
-      <c r="BD1" s="97"/>
-      <c r="BE1" s="97"/>
-      <c r="BF1" s="97"/>
-      <c r="BG1" s="97"/>
-      <c r="BH1" s="97"/>
-      <c r="BI1" s="97"/>
+      <c r="AU1" s="106"/>
+      <c r="AV1" s="106"/>
+      <c r="AW1" s="106"/>
+      <c r="AX1" s="106"/>
+      <c r="AY1" s="106"/>
+      <c r="AZ1" s="106"/>
+      <c r="BA1" s="106"/>
+      <c r="BB1" s="106"/>
+      <c r="BC1" s="106"/>
+      <c r="BD1" s="106"/>
+      <c r="BE1" s="106"/>
+      <c r="BF1" s="106"/>
+      <c r="BG1" s="106"/>
+      <c r="BH1" s="106"/>
+      <c r="BI1" s="106"/>
       <c r="BJ1" s="49"/>
     </row>
     <row r="2" spans="1:68" x14ac:dyDescent="0.2">
@@ -5328,31 +5869,31 @@
       <c r="AS4" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="AT4" s="98" t="s">
+      <c r="AT4" s="107" t="s">
         <v>45</v>
       </c>
-      <c r="AU4" s="98"/>
-      <c r="AV4" s="98"/>
-      <c r="AW4" s="98"/>
-      <c r="AX4" s="98" t="s">
+      <c r="AU4" s="107"/>
+      <c r="AV4" s="107"/>
+      <c r="AW4" s="107"/>
+      <c r="AX4" s="107" t="s">
         <v>53</v>
       </c>
-      <c r="AY4" s="98"/>
-      <c r="AZ4" s="98"/>
-      <c r="BA4" s="98"/>
-      <c r="BB4" s="98"/>
-      <c r="BC4" s="98" t="s">
+      <c r="AY4" s="107"/>
+      <c r="AZ4" s="107"/>
+      <c r="BA4" s="107"/>
+      <c r="BB4" s="107"/>
+      <c r="BC4" s="107" t="s">
         <v>45</v>
       </c>
-      <c r="BD4" s="98"/>
-      <c r="BE4" s="98"/>
-      <c r="BF4" s="98"/>
-      <c r="BG4" s="98" t="s">
+      <c r="BD4" s="107"/>
+      <c r="BE4" s="107"/>
+      <c r="BF4" s="107"/>
+      <c r="BG4" s="107" t="s">
         <v>53</v>
       </c>
-      <c r="BH4" s="98"/>
-      <c r="BI4" s="98"/>
-      <c r="BJ4" s="98"/>
+      <c r="BH4" s="107"/>
+      <c r="BI4" s="107"/>
+      <c r="BJ4" s="107"/>
       <c r="BL4" s="18"/>
       <c r="BM4" s="18"/>
       <c r="BO4" s="18"/>
@@ -5534,27 +6075,27 @@
       <c r="AS6" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="AT6" s="99">
+      <c r="AT6" s="108">
         <v>3</v>
       </c>
-      <c r="AU6" s="99"/>
-      <c r="AV6" s="99"/>
-      <c r="AW6" s="99"/>
-      <c r="AX6" s="99"/>
-      <c r="AY6" s="99"/>
-      <c r="AZ6" s="99"/>
-      <c r="BA6" s="99"/>
-      <c r="BB6" s="99"/>
-      <c r="BC6" s="99">
+      <c r="AU6" s="108"/>
+      <c r="AV6" s="108"/>
+      <c r="AW6" s="108"/>
+      <c r="AX6" s="108"/>
+      <c r="AY6" s="108"/>
+      <c r="AZ6" s="108"/>
+      <c r="BA6" s="108"/>
+      <c r="BB6" s="108"/>
+      <c r="BC6" s="108">
         <v>4</v>
       </c>
-      <c r="BD6" s="99"/>
-      <c r="BE6" s="99"/>
-      <c r="BF6" s="99"/>
-      <c r="BG6" s="99"/>
-      <c r="BH6" s="99"/>
-      <c r="BI6" s="99"/>
-      <c r="BJ6" s="99"/>
+      <c r="BD6" s="108"/>
+      <c r="BE6" s="108"/>
+      <c r="BF6" s="108"/>
+      <c r="BG6" s="108"/>
+      <c r="BH6" s="108"/>
+      <c r="BI6" s="108"/>
+      <c r="BJ6" s="108"/>
       <c r="BL6" s="18"/>
       <c r="BM6" s="18"/>
       <c r="BO6" s="18"/>
@@ -5617,27 +6158,27 @@
       <c r="AS7" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="AT7" s="99">
+      <c r="AT7" s="108">
         <v>4</v>
       </c>
-      <c r="AU7" s="99"/>
-      <c r="AV7" s="99"/>
-      <c r="AW7" s="99"/>
-      <c r="AX7" s="99"/>
-      <c r="AY7" s="99"/>
-      <c r="AZ7" s="99"/>
-      <c r="BA7" s="99"/>
-      <c r="BB7" s="99"/>
-      <c r="BC7" s="99">
+      <c r="AU7" s="108"/>
+      <c r="AV7" s="108"/>
+      <c r="AW7" s="108"/>
+      <c r="AX7" s="108"/>
+      <c r="AY7" s="108"/>
+      <c r="AZ7" s="108"/>
+      <c r="BA7" s="108"/>
+      <c r="BB7" s="108"/>
+      <c r="BC7" s="108">
         <v>3</v>
       </c>
-      <c r="BD7" s="99"/>
-      <c r="BE7" s="99"/>
-      <c r="BF7" s="99"/>
-      <c r="BG7" s="99"/>
-      <c r="BH7" s="99"/>
-      <c r="BI7" s="99"/>
-      <c r="BJ7" s="99"/>
+      <c r="BD7" s="108"/>
+      <c r="BE7" s="108"/>
+      <c r="BF7" s="108"/>
+      <c r="BG7" s="108"/>
+      <c r="BH7" s="108"/>
+      <c r="BI7" s="108"/>
+      <c r="BJ7" s="108"/>
       <c r="BL7" s="18"/>
       <c r="BM7" s="18"/>
       <c r="BO7" s="18"/>
@@ -5748,48 +6289,48 @@
       <c r="A9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="94" t="s">
+      <c r="B9" s="103" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="95"/>
-      <c r="D9" s="95"/>
-      <c r="E9" s="95"/>
-      <c r="F9" s="95"/>
-      <c r="G9" s="96"/>
-      <c r="H9" s="94" t="s">
+      <c r="C9" s="104"/>
+      <c r="D9" s="104"/>
+      <c r="E9" s="104"/>
+      <c r="F9" s="104"/>
+      <c r="G9" s="105"/>
+      <c r="H9" s="103" t="s">
         <v>56</v>
       </c>
-      <c r="I9" s="95"/>
-      <c r="J9" s="95"/>
-      <c r="K9" s="95"/>
-      <c r="L9" s="95"/>
-      <c r="M9" s="96"/>
+      <c r="I9" s="104"/>
+      <c r="J9" s="104"/>
+      <c r="K9" s="104"/>
+      <c r="L9" s="104"/>
+      <c r="M9" s="105"/>
       <c r="O9" s="18"/>
       <c r="P9" s="18"/>
       <c r="AS9" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="AT9" s="98" t="s">
+      <c r="AT9" s="107" t="s">
         <v>48</v>
       </c>
-      <c r="AU9" s="98"/>
-      <c r="AV9" s="98"/>
-      <c r="AW9" s="98"/>
-      <c r="AX9" s="98"/>
-      <c r="AY9" s="98"/>
-      <c r="AZ9" s="98"/>
-      <c r="BA9" s="98"/>
-      <c r="BB9" s="98"/>
-      <c r="BC9" s="98" t="s">
+      <c r="AU9" s="107"/>
+      <c r="AV9" s="107"/>
+      <c r="AW9" s="107"/>
+      <c r="AX9" s="107"/>
+      <c r="AY9" s="107"/>
+      <c r="AZ9" s="107"/>
+      <c r="BA9" s="107"/>
+      <c r="BB9" s="107"/>
+      <c r="BC9" s="107" t="s">
         <v>56</v>
       </c>
-      <c r="BD9" s="98"/>
-      <c r="BE9" s="98"/>
-      <c r="BF9" s="98"/>
-      <c r="BG9" s="98"/>
-      <c r="BH9" s="98"/>
-      <c r="BI9" s="98"/>
-      <c r="BJ9" s="98"/>
+      <c r="BD9" s="107"/>
+      <c r="BE9" s="107"/>
+      <c r="BF9" s="107"/>
+      <c r="BG9" s="107"/>
+      <c r="BH9" s="107"/>
+      <c r="BI9" s="107"/>
+      <c r="BJ9" s="107"/>
       <c r="BL9" s="18"/>
       <c r="BM9" s="18"/>
       <c r="BO9" s="18"/>
@@ -12925,7 +13466,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI52"/>
   <sheetViews>
     <sheetView topLeftCell="F7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
@@ -12947,20 +13488,20 @@
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="100" t="s">
+      <c r="B1" s="109" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
-      <c r="K1" s="101"/>
-      <c r="L1" s="101"/>
-      <c r="M1" s="102"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="110"/>
+      <c r="M1" s="111"/>
       <c r="N1"/>
       <c r="Q1"/>
       <c r="X1" s="28"/>
@@ -13433,22 +13974,22 @@
       <c r="A9" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="103" t="s">
+      <c r="B9" s="112" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="104"/>
-      <c r="D9" s="104"/>
-      <c r="E9" s="104"/>
-      <c r="F9" s="104"/>
-      <c r="G9" s="105"/>
-      <c r="H9" s="103" t="s">
+      <c r="C9" s="113"/>
+      <c r="D9" s="113"/>
+      <c r="E9" s="113"/>
+      <c r="F9" s="113"/>
+      <c r="G9" s="114"/>
+      <c r="H9" s="112" t="s">
         <v>56</v>
       </c>
-      <c r="I9" s="104"/>
-      <c r="J9" s="104"/>
-      <c r="K9" s="104"/>
-      <c r="L9" s="104"/>
-      <c r="M9" s="105"/>
+      <c r="I9" s="113"/>
+      <c r="J9" s="113"/>
+      <c r="K9" s="113"/>
+      <c r="L9" s="113"/>
+      <c r="M9" s="114"/>
       <c r="N9"/>
       <c r="O9" s="30"/>
       <c r="P9" s="30"/>
@@ -17257,11 +17798,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BH53"/>
   <sheetViews>
-    <sheetView topLeftCell="AC10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="BH14" sqref="BH14"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -17279,49 +17820,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:60" x14ac:dyDescent="0.2">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="115" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="109"/>
-      <c r="K1" s="110" t="s">
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="117"/>
+      <c r="K1" s="118" t="s">
         <v>70</v>
       </c>
-      <c r="L1" s="111"/>
-      <c r="M1" s="111"/>
-      <c r="N1" s="112"/>
-      <c r="P1" s="110" t="s">
+      <c r="L1" s="119"/>
+      <c r="M1" s="119"/>
+      <c r="N1" s="120"/>
+      <c r="P1" s="118" t="s">
         <v>71</v>
       </c>
-      <c r="Q1" s="111"/>
-      <c r="R1" s="111"/>
-      <c r="S1" s="111"/>
-      <c r="T1" s="111"/>
-      <c r="U1" s="111"/>
-      <c r="V1" s="111"/>
-      <c r="W1" s="112"/>
-      <c r="Y1" s="110" t="s">
+      <c r="Q1" s="119"/>
+      <c r="R1" s="119"/>
+      <c r="S1" s="119"/>
+      <c r="T1" s="119"/>
+      <c r="U1" s="119"/>
+      <c r="V1" s="119"/>
+      <c r="W1" s="120"/>
+      <c r="Y1" s="118" t="s">
         <v>72</v>
       </c>
-      <c r="Z1" s="111"/>
-      <c r="AA1" s="112"/>
-      <c r="AC1" s="117" t="s">
+      <c r="Z1" s="119"/>
+      <c r="AA1" s="120"/>
+      <c r="AC1" s="122" t="s">
         <v>73</v>
       </c>
-      <c r="AD1" s="111"/>
-      <c r="AE1" s="112"/>
-      <c r="AG1" s="117" t="s">
+      <c r="AD1" s="119"/>
+      <c r="AE1" s="120"/>
+      <c r="AG1" s="122" t="s">
         <v>76</v>
       </c>
-      <c r="AH1" s="111"/>
-      <c r="AI1" s="111"/>
-      <c r="AJ1" s="112"/>
+      <c r="AH1" s="119"/>
+      <c r="AI1" s="119"/>
+      <c r="AJ1" s="120"/>
     </row>
     <row r="2" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A2" s="67"/>
@@ -17360,16 +17901,16 @@
       <c r="A3" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="97" t="s">
+      <c r="B3" s="106" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="97"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="97"/>
-      <c r="I3" s="113"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="106"/>
+      <c r="F3" s="106"/>
+      <c r="G3" s="106"/>
+      <c r="H3" s="106"/>
+      <c r="I3" s="121"/>
       <c r="K3" s="58"/>
       <c r="L3" s="18"/>
       <c r="M3" s="18"/>
@@ -17395,23 +17936,23 @@
       <c r="AL3" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="AM3" s="97" t="s">
+      <c r="AM3" s="106" t="s">
         <v>43</v>
       </c>
-      <c r="AN3" s="97"/>
-      <c r="AO3" s="97"/>
-      <c r="AP3" s="97"/>
-      <c r="AQ3" s="97"/>
-      <c r="AR3" s="97"/>
-      <c r="AS3" s="97"/>
-      <c r="AT3" s="97"/>
-      <c r="AU3" s="97"/>
-      <c r="AV3" s="97"/>
-      <c r="AW3" s="97"/>
-      <c r="AX3" s="97"/>
-      <c r="AY3" s="97"/>
-      <c r="AZ3" s="97"/>
-      <c r="BA3" s="97"/>
+      <c r="AN3" s="106"/>
+      <c r="AO3" s="106"/>
+      <c r="AP3" s="106"/>
+      <c r="AQ3" s="106"/>
+      <c r="AR3" s="106"/>
+      <c r="AS3" s="106"/>
+      <c r="AT3" s="106"/>
+      <c r="AU3" s="106"/>
+      <c r="AV3" s="106"/>
+      <c r="AW3" s="106"/>
+      <c r="AX3" s="106"/>
+      <c r="AY3" s="106"/>
+      <c r="AZ3" s="106"/>
+      <c r="BA3" s="106"/>
       <c r="BB3" s="49"/>
     </row>
     <row r="4" spans="1:60" x14ac:dyDescent="0.2">
@@ -17671,30 +18212,30 @@
       <c r="AL6" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="AM6" s="98" t="s">
+      <c r="AM6" s="107" t="s">
         <v>45</v>
       </c>
-      <c r="AN6" s="98"/>
-      <c r="AO6" s="98"/>
-      <c r="AP6" s="98"/>
-      <c r="AQ6" s="98" t="s">
+      <c r="AN6" s="107"/>
+      <c r="AO6" s="107"/>
+      <c r="AP6" s="107"/>
+      <c r="AQ6" s="107" t="s">
         <v>53</v>
       </c>
-      <c r="AR6" s="98"/>
-      <c r="AS6" s="98"/>
-      <c r="AT6" s="98"/>
-      <c r="AU6" s="98" t="s">
+      <c r="AR6" s="107"/>
+      <c r="AS6" s="107"/>
+      <c r="AT6" s="107"/>
+      <c r="AU6" s="107" t="s">
         <v>45</v>
       </c>
-      <c r="AV6" s="98"/>
-      <c r="AW6" s="98"/>
-      <c r="AX6" s="98"/>
-      <c r="AY6" s="98" t="s">
+      <c r="AV6" s="107"/>
+      <c r="AW6" s="107"/>
+      <c r="AX6" s="107"/>
+      <c r="AY6" s="107" t="s">
         <v>53</v>
       </c>
-      <c r="AZ6" s="98"/>
-      <c r="BA6" s="98"/>
-      <c r="BB6" s="98"/>
+      <c r="AZ6" s="107"/>
+      <c r="BA6" s="107"/>
+      <c r="BB6" s="107"/>
       <c r="BD6" s="18"/>
       <c r="BE6" s="18"/>
       <c r="BG6" s="18"/>
@@ -17861,10 +18402,10 @@
       <c r="AD8" s="3">
         <v>3</v>
       </c>
-      <c r="AE8" s="114">
+      <c r="AE8" s="92">
         <v>4</v>
       </c>
-      <c r="AG8" s="118">
+      <c r="AG8" s="95">
         <v>3</v>
       </c>
       <c r="AH8" s="3">
@@ -17875,26 +18416,26 @@
       <c r="AL8" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="AM8" s="99">
+      <c r="AM8" s="108">
         <v>3</v>
       </c>
-      <c r="AN8" s="99"/>
-      <c r="AO8" s="99"/>
-      <c r="AP8" s="99"/>
-      <c r="AQ8" s="99"/>
-      <c r="AR8" s="99"/>
-      <c r="AS8" s="99"/>
-      <c r="AT8" s="99"/>
-      <c r="AU8" s="99">
+      <c r="AN8" s="108"/>
+      <c r="AO8" s="108"/>
+      <c r="AP8" s="108"/>
+      <c r="AQ8" s="108"/>
+      <c r="AR8" s="108"/>
+      <c r="AS8" s="108"/>
+      <c r="AT8" s="108"/>
+      <c r="AU8" s="108">
         <v>4</v>
       </c>
-      <c r="AV8" s="99"/>
-      <c r="AW8" s="99"/>
-      <c r="AX8" s="99"/>
-      <c r="AY8" s="99"/>
-      <c r="AZ8" s="99"/>
-      <c r="BA8" s="99"/>
-      <c r="BB8" s="99"/>
+      <c r="AV8" s="108"/>
+      <c r="AW8" s="108"/>
+      <c r="AX8" s="108"/>
+      <c r="AY8" s="108"/>
+      <c r="AZ8" s="108"/>
+      <c r="BA8" s="108"/>
+      <c r="BB8" s="108"/>
       <c r="BD8" s="18"/>
       <c r="BE8" s="18"/>
       <c r="BG8" s="18"/>
@@ -17947,10 +18488,10 @@
       <c r="AD9" s="3">
         <v>4</v>
       </c>
-      <c r="AE9" s="114">
+      <c r="AE9" s="92">
         <v>3</v>
       </c>
-      <c r="AG9" s="118">
+      <c r="AG9" s="95">
         <v>4</v>
       </c>
       <c r="AH9" s="3">
@@ -17961,26 +18502,26 @@
       <c r="AL9" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="AM9" s="99">
+      <c r="AM9" s="108">
         <v>4</v>
       </c>
-      <c r="AN9" s="99"/>
-      <c r="AO9" s="99"/>
-      <c r="AP9" s="99"/>
-      <c r="AQ9" s="99"/>
-      <c r="AR9" s="99"/>
-      <c r="AS9" s="99"/>
-      <c r="AT9" s="99"/>
-      <c r="AU9" s="99">
+      <c r="AN9" s="108"/>
+      <c r="AO9" s="108"/>
+      <c r="AP9" s="108"/>
+      <c r="AQ9" s="108"/>
+      <c r="AR9" s="108"/>
+      <c r="AS9" s="108"/>
+      <c r="AT9" s="108"/>
+      <c r="AU9" s="108">
         <v>3</v>
       </c>
-      <c r="AV9" s="99"/>
-      <c r="AW9" s="99"/>
-      <c r="AX9" s="99"/>
-      <c r="AY9" s="99"/>
-      <c r="AZ9" s="99"/>
-      <c r="BA9" s="99"/>
-      <c r="BB9" s="99"/>
+      <c r="AV9" s="108"/>
+      <c r="AW9" s="108"/>
+      <c r="AX9" s="108"/>
+      <c r="AY9" s="108"/>
+      <c r="AZ9" s="108"/>
+      <c r="BA9" s="108"/>
+      <c r="BB9" s="108"/>
       <c r="BD9" s="18"/>
       <c r="BE9" s="18"/>
       <c r="BG9" s="18"/>
@@ -18096,18 +18637,18 @@
       <c r="A11" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="98" t="s">
+      <c r="B11" s="107" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="98"/>
-      <c r="D11" s="98"/>
-      <c r="E11" s="98"/>
-      <c r="F11" s="98" t="s">
+      <c r="C11" s="107"/>
+      <c r="D11" s="107"/>
+      <c r="E11" s="107"/>
+      <c r="F11" s="107" t="s">
         <v>56</v>
       </c>
-      <c r="G11" s="98"/>
-      <c r="H11" s="98"/>
-      <c r="I11" s="106"/>
+      <c r="G11" s="107"/>
+      <c r="H11" s="107"/>
+      <c r="I11" s="123"/>
       <c r="K11" s="58"/>
       <c r="L11" s="18"/>
       <c r="M11" s="18"/>
@@ -18133,26 +18674,26 @@
       <c r="AL11" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="AM11" s="98" t="s">
+      <c r="AM11" s="107" t="s">
         <v>48</v>
       </c>
-      <c r="AN11" s="98"/>
-      <c r="AO11" s="98"/>
-      <c r="AP11" s="98"/>
-      <c r="AQ11" s="98"/>
-      <c r="AR11" s="98"/>
-      <c r="AS11" s="98"/>
-      <c r="AT11" s="98"/>
-      <c r="AU11" s="98" t="s">
+      <c r="AN11" s="107"/>
+      <c r="AO11" s="107"/>
+      <c r="AP11" s="107"/>
+      <c r="AQ11" s="107"/>
+      <c r="AR11" s="107"/>
+      <c r="AS11" s="107"/>
+      <c r="AT11" s="107"/>
+      <c r="AU11" s="107" t="s">
         <v>56</v>
       </c>
-      <c r="AV11" s="98"/>
-      <c r="AW11" s="98"/>
-      <c r="AX11" s="98"/>
-      <c r="AY11" s="98"/>
-      <c r="AZ11" s="98"/>
-      <c r="BA11" s="98"/>
-      <c r="BB11" s="98"/>
+      <c r="AV11" s="107"/>
+      <c r="AW11" s="107"/>
+      <c r="AX11" s="107"/>
+      <c r="AY11" s="107"/>
+      <c r="AZ11" s="107"/>
+      <c r="BA11" s="107"/>
+      <c r="BB11" s="107"/>
       <c r="BD11" s="18"/>
       <c r="BE11" s="18"/>
       <c r="BG11" s="18"/>
@@ -18476,7 +19017,7 @@
         <f>SUMIFS($P14:$W14,$P$13:$W$13,AA$13)</f>
         <v>19.937000000000001</v>
       </c>
-      <c r="AC14" s="115" t="str">
+      <c r="AC14" s="93" t="str">
         <f>IF(AA14&gt;Z14,"2.1",IF(AA14&gt;Y14,"2.2","2.3"))</f>
         <v>2.1</v>
       </c>
@@ -18665,7 +19206,7 @@
         <f t="shared" si="14"/>
         <v>18.311</v>
       </c>
-      <c r="AC15" s="115" t="str">
+      <c r="AC15" s="93" t="str">
         <f t="shared" ref="AC15:AC43" si="15">IF(AA15&gt;Z15,"2.1",IF(AA15&gt;Y15,"2.2","2.3"))</f>
         <v>2.1</v>
       </c>
@@ -18854,7 +19395,7 @@
         <f t="shared" si="14"/>
         <v>16.350999999999999</v>
       </c>
-      <c r="AC16" s="115" t="str">
+      <c r="AC16" s="93" t="str">
         <f t="shared" si="15"/>
         <v>2.3</v>
       </c>
@@ -19043,7 +19584,7 @@
         <f t="shared" si="14"/>
         <v>15.475</v>
       </c>
-      <c r="AC17" s="115" t="str">
+      <c r="AC17" s="93" t="str">
         <f t="shared" si="15"/>
         <v>2.3</v>
       </c>
@@ -19232,7 +19773,7 @@
         <f t="shared" si="14"/>
         <v>14.922000000000001</v>
       </c>
-      <c r="AC18" s="115" t="str">
+      <c r="AC18" s="93" t="str">
         <f t="shared" si="15"/>
         <v>2.3</v>
       </c>
@@ -19421,7 +19962,7 @@
         <f t="shared" si="14"/>
         <v>14.420999999999999</v>
       </c>
-      <c r="AC19" s="115" t="str">
+      <c r="AC19" s="93" t="str">
         <f t="shared" si="15"/>
         <v>2.3</v>
       </c>
@@ -19610,7 +20151,7 @@
         <f t="shared" si="14"/>
         <v>13.941000000000001</v>
       </c>
-      <c r="AC20" s="115" t="str">
+      <c r="AC20" s="93" t="str">
         <f t="shared" si="15"/>
         <v>2.3</v>
       </c>
@@ -19799,7 +20340,7 @@
         <f t="shared" si="14"/>
         <v>17.061999999999998</v>
       </c>
-      <c r="AC21" s="115" t="str">
+      <c r="AC21" s="93" t="str">
         <f t="shared" si="15"/>
         <v>2.3</v>
       </c>
@@ -19988,7 +20529,7 @@
         <f t="shared" si="14"/>
         <v>19.471</v>
       </c>
-      <c r="AC22" s="115" t="str">
+      <c r="AC22" s="93" t="str">
         <f t="shared" si="15"/>
         <v>2.1</v>
       </c>
@@ -20177,7 +20718,7 @@
         <f t="shared" si="14"/>
         <v>20.395</v>
       </c>
-      <c r="AC23" s="115" t="str">
+      <c r="AC23" s="93" t="str">
         <f t="shared" si="15"/>
         <v>2.1</v>
       </c>
@@ -20366,7 +20907,7 @@
         <f t="shared" si="14"/>
         <v>21.295000000000002</v>
       </c>
-      <c r="AC24" s="115" t="str">
+      <c r="AC24" s="93" t="str">
         <f t="shared" si="15"/>
         <v>2.1</v>
       </c>
@@ -20555,7 +21096,7 @@
         <f t="shared" si="14"/>
         <v>21.606999999999999</v>
       </c>
-      <c r="AC25" s="115" t="str">
+      <c r="AC25" s="93" t="str">
         <f t="shared" si="15"/>
         <v>2.1</v>
       </c>
@@ -20744,7 +21285,7 @@
         <f t="shared" si="14"/>
         <v>20.440000000000001</v>
       </c>
-      <c r="AC26" s="115" t="str">
+      <c r="AC26" s="93" t="str">
         <f t="shared" si="15"/>
         <v>2.1</v>
       </c>
@@ -20933,7 +21474,7 @@
         <f t="shared" si="14"/>
         <v>18.704000000000001</v>
       </c>
-      <c r="AC27" s="115" t="str">
+      <c r="AC27" s="93" t="str">
         <f t="shared" si="15"/>
         <v>2.1</v>
       </c>
@@ -21122,7 +21663,7 @@
         <f t="shared" si="14"/>
         <v>18.68</v>
       </c>
-      <c r="AC28" s="115" t="str">
+      <c r="AC28" s="93" t="str">
         <f t="shared" si="15"/>
         <v>2.1</v>
       </c>
@@ -21311,7 +21852,7 @@
         <f t="shared" si="14"/>
         <v>18.234000000000002</v>
       </c>
-      <c r="AC29" s="115" t="str">
+      <c r="AC29" s="93" t="str">
         <f t="shared" si="15"/>
         <v>2.1</v>
       </c>
@@ -21500,7 +22041,7 @@
         <f t="shared" si="14"/>
         <v>15.548</v>
       </c>
-      <c r="AC30" s="115" t="str">
+      <c r="AC30" s="93" t="str">
         <f t="shared" si="15"/>
         <v>2.3</v>
       </c>
@@ -21689,7 +22230,7 @@
         <f t="shared" si="14"/>
         <v>18.53</v>
       </c>
-      <c r="AC31" s="115" t="str">
+      <c r="AC31" s="93" t="str">
         <f t="shared" si="15"/>
         <v>2.1</v>
       </c>
@@ -21878,7 +22419,7 @@
         <f t="shared" si="14"/>
         <v>12.770999999999999</v>
       </c>
-      <c r="AC32" s="115" t="str">
+      <c r="AC32" s="93" t="str">
         <f t="shared" si="15"/>
         <v>2.3</v>
       </c>
@@ -22067,7 +22608,7 @@
         <f t="shared" si="14"/>
         <v>13.302999999999999</v>
       </c>
-      <c r="AC33" s="115" t="str">
+      <c r="AC33" s="93" t="str">
         <f t="shared" si="15"/>
         <v>2.3</v>
       </c>
@@ -22256,7 +22797,7 @@
         <f t="shared" si="14"/>
         <v>13.158000000000001</v>
       </c>
-      <c r="AC34" s="115" t="str">
+      <c r="AC34" s="93" t="str">
         <f t="shared" si="15"/>
         <v>2.3</v>
       </c>
@@ -22445,7 +22986,7 @@
         <f t="shared" si="14"/>
         <v>11.655000000000001</v>
       </c>
-      <c r="AC35" s="115" t="str">
+      <c r="AC35" s="93" t="str">
         <f t="shared" si="15"/>
         <v>2.3</v>
       </c>
@@ -22634,7 +23175,7 @@
         <f t="shared" si="14"/>
         <v>10.398</v>
       </c>
-      <c r="AC36" s="115" t="str">
+      <c r="AC36" s="93" t="str">
         <f t="shared" si="15"/>
         <v>2.3</v>
       </c>
@@ -22823,7 +23364,7 @@
         <f t="shared" si="14"/>
         <v>11.798000000000002</v>
       </c>
-      <c r="AC37" s="115" t="str">
+      <c r="AC37" s="93" t="str">
         <f t="shared" si="15"/>
         <v>2.3</v>
       </c>
@@ -23012,7 +23553,7 @@
         <f t="shared" si="14"/>
         <v>5.617</v>
       </c>
-      <c r="AC38" s="115" t="str">
+      <c r="AC38" s="93" t="str">
         <f t="shared" si="15"/>
         <v>2.3</v>
       </c>
@@ -23201,7 +23742,7 @@
         <f t="shared" si="14"/>
         <v>6.9750000000000005</v>
       </c>
-      <c r="AC39" s="115" t="str">
+      <c r="AC39" s="93" t="str">
         <f t="shared" si="15"/>
         <v>2.3</v>
       </c>
@@ -23390,7 +23931,7 @@
         <f t="shared" si="14"/>
         <v>5.673</v>
       </c>
-      <c r="AC40" s="115" t="str">
+      <c r="AC40" s="93" t="str">
         <f t="shared" si="15"/>
         <v>2.3</v>
       </c>
@@ -23579,7 +24120,7 @@
         <f t="shared" si="14"/>
         <v>6.6050000000000004</v>
       </c>
-      <c r="AC41" s="115" t="str">
+      <c r="AC41" s="93" t="str">
         <f t="shared" si="15"/>
         <v>2.3</v>
       </c>
@@ -23768,7 +24309,7 @@
         <f t="shared" si="14"/>
         <v>6.7780000000000005</v>
       </c>
-      <c r="AC42" s="115" t="str">
+      <c r="AC42" s="93" t="str">
         <f t="shared" si="15"/>
         <v>2.3</v>
       </c>
@@ -23957,7 +24498,7 @@
         <f t="shared" si="14"/>
         <v>5.5449999999999999</v>
       </c>
-      <c r="AC43" s="115" t="str">
+      <c r="AC43" s="93" t="str">
         <f t="shared" si="15"/>
         <v>2.3</v>
       </c>
@@ -24128,7 +24669,7 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AC44" s="115"/>
+      <c r="AC44" s="93"/>
       <c r="AD44" s="18"/>
       <c r="AE44" s="59"/>
       <c r="AG44" s="58"/>
@@ -24389,7 +24930,7 @@
         <f t="shared" ref="AA46" si="36">SUM(AA14:AA44)</f>
         <v>433.60000000000014</v>
       </c>
-      <c r="AC46" s="116"/>
+      <c r="AC46" s="94"/>
       <c r="AD46" s="62">
         <f>SUM(AD14:AD44)</f>
         <v>320.16399999999993</v>
@@ -24407,69 +24948,75 @@
         <f t="shared" si="37"/>
         <v>84.999999999999986</v>
       </c>
-      <c r="AI46" s="119"/>
-      <c r="AJ46" s="120"/>
+      <c r="AI46" s="96"/>
+      <c r="AJ46" s="97"/>
     </row>
     <row r="50" spans="29:34" x14ac:dyDescent="0.2">
-      <c r="AC50" s="121" t="s">
+      <c r="AC50" s="98" t="s">
         <v>74</v>
       </c>
-      <c r="AD50" s="121"/>
-      <c r="AG50" s="121" t="s">
+      <c r="AD50" s="98"/>
+      <c r="AG50" s="98" t="s">
         <v>75</v>
       </c>
-      <c r="AH50" s="121"/>
+      <c r="AH50" s="98"/>
     </row>
     <row r="51" spans="29:34" x14ac:dyDescent="0.2">
-      <c r="AC51" s="122" t="s">
+      <c r="AC51" s="99" t="s">
         <v>57</v>
       </c>
-      <c r="AD51" s="121" t="b">
+      <c r="AD51" s="98" t="b">
         <f>AD46&gt;P46</f>
         <v>0</v>
       </c>
-      <c r="AG51" s="122" t="s">
+      <c r="AG51" s="99" t="s">
         <v>57</v>
       </c>
-      <c r="AH51" s="121" t="b">
+      <c r="AH51" s="98" t="b">
         <f>AG46&gt;P46</f>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="29:34" x14ac:dyDescent="0.2">
-      <c r="AC52" s="121" t="s">
+      <c r="AC52" s="98" t="s">
         <v>58</v>
       </c>
-      <c r="AD52" s="121" t="b">
+      <c r="AD52" s="98" t="b">
         <f>AND(AE46&gt;T46,AD46&lt;P46)</f>
         <v>1</v>
       </c>
-      <c r="AG52" s="121" t="s">
+      <c r="AG52" s="98" t="s">
         <v>58</v>
       </c>
-      <c r="AH52" s="121" t="b">
+      <c r="AH52" s="98" t="b">
         <f>AND(AH46&gt;T46,AG46&lt;P46)</f>
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="29:34" x14ac:dyDescent="0.2">
-      <c r="AC53" s="121" t="s">
+      <c r="AC53" s="98" t="s">
         <v>59</v>
       </c>
-      <c r="AD53" s="121" t="b">
+      <c r="AD53" s="98" t="b">
         <f>AND(AE46&lt;T46,AD46&gt;0)</f>
         <v>0</v>
       </c>
-      <c r="AG53" s="121" t="s">
+      <c r="AG53" s="98" t="s">
         <v>59</v>
       </c>
-      <c r="AH53" s="121" t="b">
+      <c r="AH53" s="98" t="b">
         <f>AND(AH46&lt;T46,AG46&gt;0)</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="AM9:AT9"/>
+    <mergeCell ref="AU9:BB9"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="AM11:AT11"/>
+    <mergeCell ref="AU11:BB11"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="K1:N1"/>
     <mergeCell ref="P1:W1"/>
@@ -24484,12 +25031,6 @@
     <mergeCell ref="AC1:AE1"/>
     <mergeCell ref="AG1:AJ1"/>
     <mergeCell ref="AU8:BB8"/>
-    <mergeCell ref="AM9:AT9"/>
-    <mergeCell ref="AU9:BB9"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="AM11:AT11"/>
-    <mergeCell ref="AU11:BB11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -24498,89 +25039,164 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BD75240-500F-4F41-8B1F-6A14F679D479}">
-  <dimension ref="A1:O45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BH53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="T16" sqref="T16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.6640625" customWidth="1"/>
-    <col min="2" max="7" width="12.1640625" customWidth="1"/>
-    <col min="9" max="9" width="12.6640625" customWidth="1"/>
-    <col min="10" max="15" width="12.1640625" customWidth="1"/>
-    <col min="28" max="29" width="11.6640625" customWidth="1"/>
-    <col min="31" max="34" width="11.6640625" customWidth="1"/>
-    <col min="36" max="36" width="13.83203125" customWidth="1"/>
-    <col min="54" max="54" width="11.1640625" customWidth="1"/>
-    <col min="55" max="55" width="12.5" customWidth="1"/>
-    <col min="57" max="57" width="11.1640625" customWidth="1"/>
-    <col min="58" max="58" width="12.5" customWidth="1"/>
+    <col min="2" max="9" width="12.1640625" customWidth="1"/>
+    <col min="11" max="14" width="13.5" customWidth="1"/>
+    <col min="30" max="31" width="11.6640625" customWidth="1"/>
+    <col min="33" max="36" width="11.6640625" customWidth="1"/>
+    <col min="38" max="38" width="13.83203125" customWidth="1"/>
+    <col min="56" max="56" width="11.1640625" customWidth="1"/>
+    <col min="57" max="57" width="12.5" customWidth="1"/>
+    <col min="59" max="59" width="11.1640625" customWidth="1"/>
+    <col min="60" max="60" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1" s="107" t="s">
+    <row r="1" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="A1" s="115" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="109"/>
-      <c r="I1" s="107" t="s">
-        <v>69</v>
-      </c>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="108"/>
-      <c r="N1" s="108"/>
-      <c r="O1" s="109"/>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="117"/>
+      <c r="K1" s="118" t="s">
+        <v>70</v>
+      </c>
+      <c r="L1" s="119"/>
+      <c r="M1" s="119"/>
+      <c r="N1" s="120"/>
+      <c r="P1" s="118" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q1" s="119"/>
+      <c r="R1" s="119"/>
+      <c r="S1" s="119"/>
+      <c r="T1" s="119"/>
+      <c r="U1" s="119"/>
+      <c r="V1" s="119"/>
+      <c r="W1" s="120"/>
+      <c r="Y1" s="118" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z1" s="119"/>
+      <c r="AA1" s="120"/>
+      <c r="AC1" s="122" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD1" s="119"/>
+      <c r="AE1" s="120"/>
+      <c r="AG1" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH1" s="119"/>
+      <c r="AI1" s="119"/>
+      <c r="AJ1" s="120"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A2" s="67"/>
       <c r="B2" s="56"/>
       <c r="C2" s="56"/>
       <c r="D2" s="56"/>
       <c r="E2" s="56"/>
       <c r="F2" s="56"/>
-      <c r="G2" s="74"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="56"/>
-      <c r="O2" s="74"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="74"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="59"/>
+      <c r="P2" s="58"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="18"/>
+      <c r="V2" s="18"/>
+      <c r="W2" s="59"/>
+      <c r="Y2" s="58"/>
+      <c r="Z2" s="18"/>
+      <c r="AA2" s="59"/>
+      <c r="AC2" s="58"/>
+      <c r="AD2" s="18"/>
+      <c r="AE2" s="59"/>
+      <c r="AG2" s="58"/>
+      <c r="AH2" s="18"/>
+      <c r="AI2" s="18"/>
+      <c r="AJ2" s="59"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A3" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="97" t="s">
+      <c r="B3" s="106" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="97"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="113"/>
-      <c r="I3" s="68" t="s">
-        <v>0</v>
-      </c>
-      <c r="J3" s="97" t="s">
+      <c r="C3" s="106"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="106"/>
+      <c r="F3" s="106"/>
+      <c r="G3" s="106"/>
+      <c r="H3" s="106"/>
+      <c r="I3" s="121"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="59"/>
+      <c r="P3" s="58"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="18"/>
+      <c r="V3" s="18"/>
+      <c r="W3" s="59"/>
+      <c r="Y3" s="58"/>
+      <c r="Z3" s="18"/>
+      <c r="AA3" s="59"/>
+      <c r="AC3" s="58"/>
+      <c r="AD3" s="18"/>
+      <c r="AE3" s="59"/>
+      <c r="AG3" s="58"/>
+      <c r="AH3" s="18"/>
+      <c r="AI3" s="18"/>
+      <c r="AJ3" s="59"/>
+      <c r="AL3" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM3" s="106" t="s">
         <v>43</v>
       </c>
-      <c r="K3" s="97"/>
-      <c r="L3" s="97"/>
-      <c r="M3" s="97"/>
-      <c r="N3" s="97"/>
-      <c r="O3" s="113"/>
+      <c r="AN3" s="106"/>
+      <c r="AO3" s="106"/>
+      <c r="AP3" s="106"/>
+      <c r="AQ3" s="106"/>
+      <c r="AR3" s="106"/>
+      <c r="AS3" s="106"/>
+      <c r="AT3" s="106"/>
+      <c r="AU3" s="106"/>
+      <c r="AV3" s="106"/>
+      <c r="AW3" s="106"/>
+      <c r="AX3" s="106"/>
+      <c r="AY3" s="106"/>
+      <c r="AZ3" s="106"/>
+      <c r="BA3" s="106"/>
+      <c r="BB3" s="91"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A4" s="68" t="s">
         <v>1</v>
       </c>
@@ -24599,32 +25215,126 @@
       <c r="F4" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="G4" s="75" t="s">
+      <c r="G4" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="I4" s="68" t="s">
+      <c r="H4" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="I4" s="75" t="s">
+        <v>55</v>
+      </c>
+      <c r="K4" s="58"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="59"/>
+      <c r="P4" s="81" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q4" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="R4" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="S4" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="T4" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="U4" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="V4" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="W4" s="64" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y4" s="58"/>
+      <c r="Z4" s="18"/>
+      <c r="AA4" s="59"/>
+      <c r="AC4" s="58"/>
+      <c r="AD4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE4" s="60" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG4" s="73" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AI4" s="18"/>
+      <c r="AJ4" s="59"/>
+      <c r="AL4" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="J4" s="50" t="s">
+      <c r="AM4" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="K4" s="50" t="s">
+      <c r="AN4" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="L4" s="50" t="s">
+      <c r="AO4" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="M4" s="50" t="s">
+      <c r="AP4" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="N4" s="50" t="s">
+      <c r="AQ4" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="AR4" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="AS4" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT4" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU4" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="O4" s="75" t="s">
+      <c r="AV4" s="50" t="s">
         <v>55</v>
       </c>
+      <c r="AW4" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="AX4" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="AY4" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="AZ4" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="BA4" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="BB4" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="BD4" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="BE4" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="BG4" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="BH4" s="17" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="5" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:60" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A5" s="68" t="s">
         <v>2</v>
       </c>
@@ -24633,18 +25343,56 @@
       <c r="D5" s="50"/>
       <c r="E5" s="50"/>
       <c r="F5" s="50"/>
-      <c r="G5" s="75"/>
-      <c r="I5" s="68" t="s">
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="75"/>
+      <c r="K5" s="58"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="59"/>
+      <c r="P5" s="58"/>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="18"/>
+      <c r="S5" s="18"/>
+      <c r="T5" s="18"/>
+      <c r="U5" s="18"/>
+      <c r="V5" s="18"/>
+      <c r="W5" s="59"/>
+      <c r="Y5" s="58"/>
+      <c r="Z5" s="18"/>
+      <c r="AA5" s="59"/>
+      <c r="AC5" s="58"/>
+      <c r="AD5" s="18"/>
+      <c r="AE5" s="59"/>
+      <c r="AG5" s="58"/>
+      <c r="AH5" s="18"/>
+      <c r="AI5" s="18"/>
+      <c r="AJ5" s="59"/>
+      <c r="AL5" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="J5" s="50"/>
-      <c r="K5" s="50"/>
-      <c r="L5" s="50"/>
-      <c r="M5" s="50"/>
-      <c r="N5" s="50"/>
-      <c r="O5" s="75"/>
+      <c r="AM5" s="50"/>
+      <c r="AN5" s="50"/>
+      <c r="AO5" s="50"/>
+      <c r="AP5" s="50"/>
+      <c r="AQ5" s="50"/>
+      <c r="AR5" s="50"/>
+      <c r="AS5" s="50"/>
+      <c r="AT5" s="50"/>
+      <c r="AU5" s="50"/>
+      <c r="AV5" s="50"/>
+      <c r="AW5" s="50"/>
+      <c r="AX5" s="50"/>
+      <c r="AY5" s="50"/>
+      <c r="AZ5" s="50"/>
+      <c r="BA5" s="50"/>
+      <c r="BB5" s="50"/>
+      <c r="BD5" s="18"/>
+      <c r="BE5" s="18"/>
+      <c r="BG5" s="18"/>
+      <c r="BH5" s="18"/>
     </row>
-    <row r="6" spans="1:15" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:60" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="68" t="s">
         <v>3</v>
       </c>
@@ -24661,34 +25409,80 @@
         <v>53</v>
       </c>
       <c r="F6" s="66" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" s="66" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="G6" s="76" t="s">
+      <c r="I6" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="I6" s="68" t="s">
+      <c r="K6" s="72" t="s">
+        <v>53</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="N6" s="61" t="s">
+        <v>45</v>
+      </c>
+      <c r="P6" s="58"/>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="18"/>
+      <c r="S6" s="18"/>
+      <c r="T6" s="18"/>
+      <c r="U6" s="18"/>
+      <c r="V6" s="18"/>
+      <c r="W6" s="59"/>
+      <c r="Y6" s="58"/>
+      <c r="Z6" s="18"/>
+      <c r="AA6" s="59"/>
+      <c r="AC6" s="58"/>
+      <c r="AD6" s="18"/>
+      <c r="AE6" s="59"/>
+      <c r="AG6" s="58"/>
+      <c r="AH6" s="18"/>
+      <c r="AI6" s="18"/>
+      <c r="AJ6" s="59"/>
+      <c r="AL6" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="J6" s="66" t="s">
+      <c r="AM6" s="107" t="s">
         <v>45</v>
       </c>
-      <c r="K6" s="66" t="s">
+      <c r="AN6" s="107"/>
+      <c r="AO6" s="107"/>
+      <c r="AP6" s="107"/>
+      <c r="AQ6" s="107" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR6" s="107"/>
+      <c r="AS6" s="107"/>
+      <c r="AT6" s="107"/>
+      <c r="AU6" s="107" t="s">
         <v>45</v>
       </c>
-      <c r="L6" s="66" t="s">
+      <c r="AV6" s="107"/>
+      <c r="AW6" s="107"/>
+      <c r="AX6" s="107"/>
+      <c r="AY6" s="107" t="s">
         <v>53</v>
       </c>
-      <c r="M6" s="66" t="s">
-        <v>53</v>
-      </c>
-      <c r="N6" s="66" t="s">
-        <v>53</v>
-      </c>
-      <c r="O6" s="76" t="s">
-        <v>53</v>
-      </c>
+      <c r="AZ6" s="107"/>
+      <c r="BA6" s="107"/>
+      <c r="BB6" s="107"/>
+      <c r="BD6" s="18"/>
+      <c r="BE6" s="18"/>
+      <c r="BG6" s="18"/>
+      <c r="BH6" s="18"/>
     </row>
-    <row r="7" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:60" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="68" t="s">
         <v>4</v>
       </c>
@@ -24705,34 +25499,104 @@
         <v>54</v>
       </c>
       <c r="F7" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="G7" s="75" t="s">
+      <c r="I7" s="75" t="s">
         <v>54</v>
       </c>
-      <c r="I7" s="68" t="s">
+      <c r="K7" s="73" t="s">
+        <v>54</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="N7" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="P7" s="58"/>
+      <c r="Q7" s="18"/>
+      <c r="R7" s="18"/>
+      <c r="S7" s="18"/>
+      <c r="T7" s="18"/>
+      <c r="U7" s="18"/>
+      <c r="V7" s="18"/>
+      <c r="W7" s="59"/>
+      <c r="Y7" s="58"/>
+      <c r="Z7" s="18"/>
+      <c r="AA7" s="59"/>
+      <c r="AC7" s="58"/>
+      <c r="AD7" s="18"/>
+      <c r="AE7" s="59"/>
+      <c r="AG7" s="58"/>
+      <c r="AH7" s="18"/>
+      <c r="AI7" s="18"/>
+      <c r="AJ7" s="59"/>
+      <c r="AL7" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="J7" s="50" t="s">
+      <c r="AM7" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="K7" s="50" t="s">
+      <c r="AN7" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="L7" s="50" t="s">
+      <c r="AO7" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="AP7" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="AQ7" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="M7" s="50" t="s">
+      <c r="AR7" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="N7" s="50" t="s">
+      <c r="AS7" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="O7" s="75" t="s">
+      <c r="AT7" s="50" t="s">
         <v>54</v>
       </c>
+      <c r="AU7" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV7" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW7" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="AX7" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="AY7" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="AZ7" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="BA7" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="BB7" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD7" s="18"/>
+      <c r="BE7" s="18"/>
+      <c r="BG7" s="18"/>
+      <c r="BH7" s="18"/>
     </row>
-    <row r="8" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:60" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A8" s="68" t="s">
         <v>5</v>
       </c>
@@ -24751,32 +25615,74 @@
       <c r="F8" s="51">
         <v>4</v>
       </c>
-      <c r="G8" s="77">
+      <c r="G8" s="51">
         <v>4</v>
       </c>
-      <c r="I8" s="68" t="s">
+      <c r="H8" s="51">
+        <v>4</v>
+      </c>
+      <c r="I8" s="77">
+        <v>4</v>
+      </c>
+      <c r="K8" s="58"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="59"/>
+      <c r="P8" s="58"/>
+      <c r="Q8" s="18"/>
+      <c r="R8" s="18"/>
+      <c r="S8" s="18"/>
+      <c r="T8" s="18"/>
+      <c r="U8" s="18"/>
+      <c r="V8" s="18"/>
+      <c r="W8" s="59"/>
+      <c r="Y8" s="58"/>
+      <c r="Z8" s="18"/>
+      <c r="AA8" s="59"/>
+      <c r="AC8" s="58"/>
+      <c r="AD8" s="3">
+        <v>3</v>
+      </c>
+      <c r="AE8" s="92">
+        <v>4</v>
+      </c>
+      <c r="AG8" s="95">
+        <v>3</v>
+      </c>
+      <c r="AH8" s="3">
+        <v>4</v>
+      </c>
+      <c r="AI8" s="18"/>
+      <c r="AJ8" s="59"/>
+      <c r="AL8" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="J8" s="51">
+      <c r="AM8" s="108">
         <v>3</v>
       </c>
-      <c r="K8" s="51">
-        <v>3</v>
-      </c>
-      <c r="L8" s="51">
-        <v>3</v>
-      </c>
-      <c r="M8" s="51">
-        <v>3</v>
-      </c>
-      <c r="N8" s="51">
+      <c r="AN8" s="108"/>
+      <c r="AO8" s="108"/>
+      <c r="AP8" s="108"/>
+      <c r="AQ8" s="108"/>
+      <c r="AR8" s="108"/>
+      <c r="AS8" s="108"/>
+      <c r="AT8" s="108"/>
+      <c r="AU8" s="108">
         <v>4</v>
       </c>
-      <c r="O8" s="77">
-        <v>4</v>
-      </c>
+      <c r="AV8" s="108"/>
+      <c r="AW8" s="108"/>
+      <c r="AX8" s="108"/>
+      <c r="AY8" s="108"/>
+      <c r="AZ8" s="108"/>
+      <c r="BA8" s="108"/>
+      <c r="BB8" s="108"/>
+      <c r="BD8" s="18"/>
+      <c r="BE8" s="18"/>
+      <c r="BG8" s="18"/>
+      <c r="BH8" s="18"/>
     </row>
-    <row r="9" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:60" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A9" s="68" t="s">
         <v>6</v>
       </c>
@@ -24795,32 +25701,74 @@
       <c r="F9" s="51">
         <v>3</v>
       </c>
-      <c r="G9" s="77">
+      <c r="G9" s="51">
         <v>3</v>
       </c>
-      <c r="I9" s="68" t="s">
+      <c r="H9" s="51">
+        <v>3</v>
+      </c>
+      <c r="I9" s="77">
+        <v>3</v>
+      </c>
+      <c r="K9" s="58"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="59"/>
+      <c r="P9" s="58"/>
+      <c r="Q9" s="18"/>
+      <c r="R9" s="18"/>
+      <c r="S9" s="18"/>
+      <c r="T9" s="18"/>
+      <c r="U9" s="18"/>
+      <c r="V9" s="18"/>
+      <c r="W9" s="59"/>
+      <c r="Y9" s="58"/>
+      <c r="Z9" s="18"/>
+      <c r="AA9" s="59"/>
+      <c r="AC9" s="58"/>
+      <c r="AD9" s="3">
+        <v>4</v>
+      </c>
+      <c r="AE9" s="92">
+        <v>3</v>
+      </c>
+      <c r="AG9" s="95">
+        <v>4</v>
+      </c>
+      <c r="AH9" s="3">
+        <v>3</v>
+      </c>
+      <c r="AI9" s="18"/>
+      <c r="AJ9" s="59"/>
+      <c r="AL9" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="J9" s="51">
+      <c r="AM9" s="108">
         <v>4</v>
       </c>
-      <c r="K9" s="51">
-        <v>4</v>
-      </c>
-      <c r="L9" s="51">
-        <v>4</v>
-      </c>
-      <c r="M9" s="51">
-        <v>4</v>
-      </c>
-      <c r="N9" s="51">
+      <c r="AN9" s="108"/>
+      <c r="AO9" s="108"/>
+      <c r="AP9" s="108"/>
+      <c r="AQ9" s="108"/>
+      <c r="AR9" s="108"/>
+      <c r="AS9" s="108"/>
+      <c r="AT9" s="108"/>
+      <c r="AU9" s="108">
         <v>3</v>
       </c>
-      <c r="O9" s="77">
-        <v>3</v>
-      </c>
+      <c r="AV9" s="108"/>
+      <c r="AW9" s="108"/>
+      <c r="AX9" s="108"/>
+      <c r="AY9" s="108"/>
+      <c r="AZ9" s="108"/>
+      <c r="BA9" s="108"/>
+      <c r="BB9" s="108"/>
+      <c r="BD9" s="18"/>
+      <c r="BE9" s="18"/>
+      <c r="BG9" s="18"/>
+      <c r="BH9" s="18"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A10" s="68" t="s">
         <v>7</v>
       </c>
@@ -24839,56 +25787,160 @@
       <c r="F10" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="G10" s="75" t="s">
+      <c r="G10" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="I10" s="68" t="s">
+      <c r="H10" s="50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" s="75" t="s">
+        <v>47</v>
+      </c>
+      <c r="K10" s="58"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="59"/>
+      <c r="P10" s="58"/>
+      <c r="Q10" s="18"/>
+      <c r="R10" s="18"/>
+      <c r="S10" s="18"/>
+      <c r="T10" s="18"/>
+      <c r="U10" s="18"/>
+      <c r="V10" s="18"/>
+      <c r="W10" s="59"/>
+      <c r="Y10" s="58"/>
+      <c r="Z10" s="18"/>
+      <c r="AA10" s="59"/>
+      <c r="AC10" s="58"/>
+      <c r="AD10" s="18"/>
+      <c r="AE10" s="59"/>
+      <c r="AG10" s="58"/>
+      <c r="AH10" s="18"/>
+      <c r="AI10" s="18"/>
+      <c r="AJ10" s="59"/>
+      <c r="AL10" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="J10" s="50" t="s">
+      <c r="AM10" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="K10" s="50" t="s">
+      <c r="AN10" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="L10" s="50" t="s">
+      <c r="AO10" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="M10" s="50" t="s">
+      <c r="AP10" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="N10" s="50" t="s">
+      <c r="AQ10" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="O10" s="75" t="s">
+      <c r="AR10" s="50" t="s">
         <v>47</v>
       </c>
+      <c r="AS10" s="50" t="s">
+        <v>47</v>
+      </c>
+      <c r="AT10" s="50" t="s">
+        <v>47</v>
+      </c>
+      <c r="AU10" s="50" t="s">
+        <v>47</v>
+      </c>
+      <c r="AV10" s="50" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW10" s="50" t="s">
+        <v>47</v>
+      </c>
+      <c r="AX10" s="50" t="s">
+        <v>47</v>
+      </c>
+      <c r="AY10" s="50" t="s">
+        <v>47</v>
+      </c>
+      <c r="AZ10" s="50" t="s">
+        <v>47</v>
+      </c>
+      <c r="BA10" s="50" t="s">
+        <v>47</v>
+      </c>
+      <c r="BB10" s="50" t="s">
+        <v>47</v>
+      </c>
+      <c r="BD10" s="18"/>
+      <c r="BE10" s="18"/>
+      <c r="BG10" s="18"/>
+      <c r="BH10" s="18"/>
     </row>
-    <row r="11" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:60" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="98" t="s">
+      <c r="B11" s="107" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="98"/>
-      <c r="D11" s="98"/>
-      <c r="E11" s="98"/>
-      <c r="F11" s="98"/>
-      <c r="G11" s="106"/>
-      <c r="I11" s="68" t="s">
+      <c r="C11" s="107"/>
+      <c r="D11" s="107"/>
+      <c r="E11" s="107"/>
+      <c r="F11" s="107" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" s="107"/>
+      <c r="H11" s="107"/>
+      <c r="I11" s="123"/>
+      <c r="K11" s="58"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="59"/>
+      <c r="P11" s="58"/>
+      <c r="Q11" s="18"/>
+      <c r="R11" s="18"/>
+      <c r="S11" s="18"/>
+      <c r="T11" s="18"/>
+      <c r="U11" s="18"/>
+      <c r="V11" s="18"/>
+      <c r="W11" s="59"/>
+      <c r="Y11" s="58"/>
+      <c r="Z11" s="18"/>
+      <c r="AA11" s="59"/>
+      <c r="AC11" s="58"/>
+      <c r="AD11" s="18"/>
+      <c r="AE11" s="59"/>
+      <c r="AG11" s="58"/>
+      <c r="AH11" s="18"/>
+      <c r="AI11" s="18"/>
+      <c r="AJ11" s="59"/>
+      <c r="AL11" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="J11" s="98" t="s">
+      <c r="AM11" s="107" t="s">
         <v>48</v>
       </c>
-      <c r="K11" s="98"/>
-      <c r="L11" s="98"/>
-      <c r="M11" s="98"/>
-      <c r="N11" s="98"/>
-      <c r="O11" s="106"/>
+      <c r="AN11" s="107"/>
+      <c r="AO11" s="107"/>
+      <c r="AP11" s="107"/>
+      <c r="AQ11" s="107"/>
+      <c r="AR11" s="107"/>
+      <c r="AS11" s="107"/>
+      <c r="AT11" s="107"/>
+      <c r="AU11" s="107" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV11" s="107"/>
+      <c r="AW11" s="107"/>
+      <c r="AX11" s="107"/>
+      <c r="AY11" s="107"/>
+      <c r="AZ11" s="107"/>
+      <c r="BA11" s="107"/>
+      <c r="BB11" s="107"/>
+      <c r="BD11" s="18"/>
+      <c r="BE11" s="18"/>
+      <c r="BG11" s="18"/>
+      <c r="BH11" s="18"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A12" s="68" t="s">
         <v>9</v>
       </c>
@@ -24903,24 +25955,70 @@
       <c r="F12" s="52">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G12" s="87"/>
-      <c r="I12" s="68" t="s">
+      <c r="G12" s="86"/>
+      <c r="H12" s="52">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I12" s="87"/>
+      <c r="K12" s="58"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="59"/>
+      <c r="P12" s="88">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="89"/>
+      <c r="R12" s="89"/>
+      <c r="S12" s="89"/>
+      <c r="T12" s="89">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="U12" s="89"/>
+      <c r="V12" s="89"/>
+      <c r="W12" s="90"/>
+      <c r="Y12" s="58"/>
+      <c r="Z12" s="18"/>
+      <c r="AA12" s="59"/>
+      <c r="AC12" s="58"/>
+      <c r="AD12" s="18"/>
+      <c r="AE12" s="59"/>
+      <c r="AG12" s="58"/>
+      <c r="AH12" s="18"/>
+      <c r="AI12" s="18"/>
+      <c r="AJ12" s="59"/>
+      <c r="AL12" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="J12" s="52">
+      <c r="AM12" s="51">
         <v>1</v>
       </c>
-      <c r="K12" s="86"/>
-      <c r="L12" s="52">
+      <c r="AN12" s="50"/>
+      <c r="AO12" s="50"/>
+      <c r="AP12" s="50"/>
+      <c r="AQ12" s="51">
         <v>1</v>
       </c>
-      <c r="M12" s="86"/>
-      <c r="N12" s="52">
+      <c r="AR12" s="50"/>
+      <c r="AS12" s="50"/>
+      <c r="AT12" s="50"/>
+      <c r="AU12" s="52">
         <v>1.1000000000000001</v>
       </c>
-      <c r="O12" s="87"/>
+      <c r="AV12" s="50"/>
+      <c r="AW12" s="50"/>
+      <c r="AX12" s="50"/>
+      <c r="AY12" s="52">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AZ12" s="50"/>
+      <c r="BA12" s="50"/>
+      <c r="BB12" s="50"/>
+      <c r="BD12" s="18"/>
+      <c r="BE12" s="18"/>
+      <c r="BG12" s="18"/>
+      <c r="BH12" s="18"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A13" s="68" t="s">
         <v>11</v>
       </c>
@@ -24939,32 +26037,140 @@
       <c r="F13" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="G13" s="75" t="s">
+      <c r="G13" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="I13" s="68" t="s">
+      <c r="H13" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="I13" s="75" t="s">
+        <v>52</v>
+      </c>
+      <c r="K13" s="73" t="s">
+        <v>49</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N13" s="60" t="s">
+        <v>52</v>
+      </c>
+      <c r="P13" s="73" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="S13" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="T13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="U13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="V13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="W13" s="60" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y13" s="73" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA13" s="60" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC13" s="58"/>
+      <c r="AD13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE13" s="60" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG13" s="73" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI13" s="18"/>
+      <c r="AJ13" s="59"/>
+      <c r="AL13" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="J13" s="50" t="s">
+      <c r="AM13" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="K13" s="50" t="s">
+      <c r="AN13" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="AO13" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="L13" s="50" t="s">
+      <c r="AP13" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="AQ13" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="M13" s="50" t="s">
+      <c r="AR13" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="AS13" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="N13" s="50" t="s">
+      <c r="AT13" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="AU13" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="O13" s="75" t="s">
+      <c r="AV13" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="AW13" s="50" t="s">
         <v>52</v>
       </c>
+      <c r="AX13" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="AY13" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ13" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="BA13" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB13" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="BD13" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="BE13" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="BG13" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="BH13" s="19" t="s">
+        <v>68</v>
+      </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A14" s="69">
         <v>43556</v>
       </c>
@@ -24981,34 +26187,179 @@
         <v>14</v>
       </c>
       <c r="F14" s="54">
+        <v>0</v>
+      </c>
+      <c r="G14" s="54">
+        <v>0</v>
+      </c>
+      <c r="H14" s="54">
         <v>2.8340000000000001</v>
       </c>
-      <c r="G14" s="78">
+      <c r="I14" s="78">
         <v>5.0339999999999998</v>
       </c>
-      <c r="I14" s="69">
+      <c r="K14" s="82">
+        <f t="shared" ref="K14:N45" si="0">SUMIFS($B14:$I14,$B$13:$I$13,K$13,$B$7:$I$7,K$7)</f>
+        <v>16.834</v>
+      </c>
+      <c r="L14" s="20">
+        <f t="shared" si="0"/>
+        <v>19.033999999999999</v>
+      </c>
+      <c r="M14" s="20">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="N14" s="65">
+        <f t="shared" si="0"/>
+        <v>0.90300000000000002</v>
+      </c>
+      <c r="P14" s="82">
+        <f t="shared" ref="P14:P45" si="1">SUMIFS($B14:$I14,$B$13:$I$13,P$13,$B$4:$I$4,P$4)</f>
+        <v>14.9</v>
+      </c>
+      <c r="Q14" s="20">
+        <f>ROUND(P14*P$12,3)</f>
+        <v>14.9</v>
+      </c>
+      <c r="R14" s="20">
+        <f t="shared" ref="R14:R45" si="2">SUMIFS($B14:$I14,$B$13:$I$13,R$13,$B$4:$I$4,R$4)</f>
+        <v>14.903</v>
+      </c>
+      <c r="S14" s="20">
+        <f>MAX(R14 - Q14,0)</f>
+        <v>3.0000000000001137E-3</v>
+      </c>
+      <c r="T14" s="20">
+        <f t="shared" ref="T14:T45" si="3">SUMIFS($B14:$I14,$B$13:$I$13,T$13,$B$4:$I$4,T$4)</f>
+        <v>2.8340000000000001</v>
+      </c>
+      <c r="U14" s="20">
+        <f>ROUND(T14*T$12,3)</f>
+        <v>3.117</v>
+      </c>
+      <c r="V14" s="20">
+        <f t="shared" ref="V14:V45" si="4">SUMIFS($B14:$I14,$B$13:$I$13,V$13,$B$4:$I$4,V$4)</f>
+        <v>5.0339999999999998</v>
+      </c>
+      <c r="W14" s="65">
+        <f>MAX(V14 - U14,0)</f>
+        <v>1.9169999999999998</v>
+      </c>
+      <c r="Y14" s="82">
+        <f>SUMIFS($P14:$W14,$P$13:$W$13,Y$13)</f>
+        <v>17.734000000000002</v>
+      </c>
+      <c r="Z14" s="20">
+        <f>SUMIFS($P14:$W14,$P$13:$W$13,Z$13)</f>
+        <v>18.016999999999999</v>
+      </c>
+      <c r="AA14" s="65">
+        <f>SUMIFS($P14:$W14,$P$13:$W$13,AA$13)</f>
+        <v>19.937000000000001</v>
+      </c>
+      <c r="AC14" s="93" t="str">
+        <f>IF(AA14&gt;Z14,"2.1",IF(AA14&gt;Y14,"2.2","2.3"))</f>
+        <v>2.1</v>
+      </c>
+      <c r="AD14" s="20">
+        <f>Q14</f>
+        <v>14.9</v>
+      </c>
+      <c r="AE14" s="65">
+        <f>AA14-AD14</f>
+        <v>5.0370000000000008</v>
+      </c>
+      <c r="AG14" s="82">
+        <f>IF(AD14&lt;P14,AD14+MIN(Q14-AD14,$P$46-$AD$46,$AE$46-$T$46,AE14),AD14)</f>
+        <v>14.9</v>
+      </c>
+      <c r="AH14" s="20">
+        <f>AE14-(AG14-AD14)</f>
+        <v>5.0370000000000008</v>
+      </c>
+      <c r="AI14" s="20">
+        <f>AD46+(AG14-AD14)</f>
+        <v>320.16399999999993</v>
+      </c>
+      <c r="AJ14" s="65">
+        <f>AE46-(AG14-AD14)</f>
+        <v>113.43599999999999</v>
+      </c>
+      <c r="AL14" s="53">
         <v>43556</v>
       </c>
-      <c r="J14" s="54">
+      <c r="AM14" s="54">
         <v>0.9</v>
       </c>
-      <c r="K14" s="54">
+      <c r="AN14" s="54">
+        <v>0.9</v>
+      </c>
+      <c r="AO14" s="54">
+        <f>AG14*N14/AA14</f>
+        <v>0.67486081155640265</v>
+      </c>
+      <c r="AP14" s="54">
         <v>0.90300000000000002</v>
       </c>
-      <c r="L14" s="54">
+      <c r="AQ14" s="54">
         <v>14</v>
       </c>
-      <c r="M14" s="54">
+      <c r="AR14" s="54">
         <v>14</v>
       </c>
-      <c r="N14" s="54">
+      <c r="AS14" s="54">
+        <f t="shared" ref="AS14:AS43" si="5">AG14*L14/AA14</f>
+        <v>14.225139188443597</v>
+      </c>
+      <c r="AT14" s="54">
+        <f>AG14-AP14</f>
+        <v>13.997</v>
+      </c>
+      <c r="AU14" s="54">
+        <v>0</v>
+      </c>
+      <c r="AV14" s="54">
+        <v>0</v>
+      </c>
+      <c r="AW14" s="54">
+        <f t="shared" ref="AW14:AW43" si="6">AH14*N14/AA14</f>
+        <v>0.22813918844359735</v>
+      </c>
+      <c r="AX14" s="54">
+        <v>0</v>
+      </c>
+      <c r="AY14" s="54">
         <v>2.8340000000000001</v>
       </c>
-      <c r="O14" s="78">
-        <v>5.0339999999999998</v>
+      <c r="AZ14" s="54">
+        <v>3.117</v>
+      </c>
+      <c r="BA14" s="54">
+        <f t="shared" ref="BA14:BA43" si="7">AH14*L14/AA14</f>
+        <v>4.8088608115564027</v>
+      </c>
+      <c r="BB14" s="54">
+        <v>5.0370000000000008</v>
+      </c>
+      <c r="BD14" s="20">
+        <f>MAX(SUMIFS($AM14:$BB14,$AM$13:$BB$13,"Факт",$AM$4:$BB$4,BD$4) - SUMIFS($AM14:$BB14,$AM$13:$BB$13,"План кор.",$AM$4:$BB$4,BD$4),0)</f>
+        <v>0</v>
+      </c>
+      <c r="BE14" s="20">
+        <f t="shared" ref="BD14:BF44" si="8">MAX(SUMIFS($AM14:$BB14,$AM$13:$BB$13,"Факт",$AM$4:$BB$4,BE$4) - SUMIFS($AM14:$BB14,$AM$13:$BB$13,"План кор.",$AM$4:$BB$4,BE$4),0)</f>
+        <v>1.92</v>
+      </c>
+      <c r="BG14" s="20">
+        <f t="shared" ref="BG14:BH44" si="9">MAX(SUMIFS($AM14:$BB14,$AM$13:$BB$13,"Факт2",$AM$4:$BB$4,BG$4) - SUMIFS($AM14:$BB14,$AM$13:$BB$13,"План кор.",$AM$4:$BB$4,BG$4),0)</f>
+        <v>0</v>
+      </c>
+      <c r="BH14" s="20">
+        <f t="shared" si="9"/>
+        <v>1.9200000000000008</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A15" s="69">
         <v>43557</v>
       </c>
@@ -25025,34 +26376,179 @@
         <v>14</v>
       </c>
       <c r="F15" s="54">
-        <v>2.8330000000000002</v>
-      </c>
-      <c r="G15" s="78">
+        <v>0</v>
+      </c>
+      <c r="G15" s="54">
+        <v>0</v>
+      </c>
+      <c r="H15" s="54">
+        <v>2.8330000000000002</v>
+      </c>
+      <c r="I15" s="78">
         <v>3.4740000000000002</v>
       </c>
-      <c r="I15" s="69">
+      <c r="K15" s="82">
+        <f t="shared" si="0"/>
+        <v>16.832999999999998</v>
+      </c>
+      <c r="L15" s="20">
+        <f t="shared" si="0"/>
+        <v>17.474</v>
+      </c>
+      <c r="M15" s="20">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="N15" s="65">
+        <f t="shared" si="0"/>
+        <v>0.83699999999999997</v>
+      </c>
+      <c r="P15" s="82">
+        <f t="shared" si="1"/>
+        <v>14.9</v>
+      </c>
+      <c r="Q15" s="20">
+        <f t="shared" ref="Q15:Q44" si="10">ROUND(P15*P$12,3)</f>
+        <v>14.9</v>
+      </c>
+      <c r="R15" s="20">
+        <f t="shared" si="2"/>
+        <v>14.837</v>
+      </c>
+      <c r="S15" s="20">
+        <f t="shared" ref="S15:S44" si="11">MAX(R15 - Q15,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T15" s="20">
+        <f t="shared" si="3"/>
+        <v>2.8330000000000002</v>
+      </c>
+      <c r="U15" s="20">
+        <f t="shared" ref="U15:U44" si="12">ROUND(T15*T$12,3)</f>
+        <v>3.1160000000000001</v>
+      </c>
+      <c r="V15" s="20">
+        <f t="shared" si="4"/>
+        <v>3.4740000000000002</v>
+      </c>
+      <c r="W15" s="65">
+        <f t="shared" ref="W15:W44" si="13">MAX(V15 - U15,0)</f>
+        <v>0.3580000000000001</v>
+      </c>
+      <c r="Y15" s="82">
+        <f t="shared" ref="Y15:AA45" si="14">SUMIFS($P15:$W15,$P$13:$W$13,Y$13)</f>
+        <v>17.733000000000001</v>
+      </c>
+      <c r="Z15" s="20">
+        <f t="shared" si="14"/>
+        <v>18.016000000000002</v>
+      </c>
+      <c r="AA15" s="65">
+        <f t="shared" si="14"/>
+        <v>18.311</v>
+      </c>
+      <c r="AC15" s="93" t="str">
+        <f t="shared" ref="AC15:AC43" si="15">IF(AA15&gt;Z15,"2.1",IF(AA15&gt;Y15,"2.2","2.3"))</f>
+        <v>2.1</v>
+      </c>
+      <c r="AD15" s="20">
+        <f>Q15</f>
+        <v>14.9</v>
+      </c>
+      <c r="AE15" s="65">
+        <f>AA15-AD15</f>
+        <v>3.4109999999999996</v>
+      </c>
+      <c r="AG15" s="82">
+        <f>IF(AD15&lt;P15,AD15+MIN(Q15-AD15,$P$46-AI14,AJ14-$T$46,AE15),AD15)</f>
+        <v>14.9</v>
+      </c>
+      <c r="AH15" s="20">
+        <f>AE15-(AG15-AD15)</f>
+        <v>3.4109999999999996</v>
+      </c>
+      <c r="AI15" s="20">
+        <f>AI14+(AG15-AD15)</f>
+        <v>320.16399999999993</v>
+      </c>
+      <c r="AJ15" s="65">
+        <f>AJ14-(AG15-AD15)</f>
+        <v>113.43599999999999</v>
+      </c>
+      <c r="AL15" s="53">
         <v>43557</v>
       </c>
-      <c r="J15" s="54">
+      <c r="AM15" s="54">
         <v>0.9</v>
       </c>
-      <c r="K15" s="54">
+      <c r="AN15" s="54">
+        <v>0.9</v>
+      </c>
+      <c r="AO15" s="54">
+        <f t="shared" ref="AO15:AO43" si="16">AG15*N15/AA15</f>
+        <v>0.68108240948064003</v>
+      </c>
+      <c r="AP15" s="54">
         <v>0.83699999999999997</v>
       </c>
-      <c r="L15" s="54">
+      <c r="AQ15" s="54">
         <v>14</v>
       </c>
-      <c r="M15" s="54">
+      <c r="AR15" s="54">
         <v>14</v>
       </c>
-      <c r="N15" s="54">
-        <v>2.8330000000000002</v>
-      </c>
-      <c r="O15" s="78">
-        <v>3.4740000000000002</v>
+      <c r="AS15" s="54">
+        <f t="shared" si="5"/>
+        <v>14.218917590519359</v>
+      </c>
+      <c r="AT15" s="54">
+        <f t="shared" ref="AT15:AT43" si="17">AG15-AP15</f>
+        <v>14.063000000000001</v>
+      </c>
+      <c r="AU15" s="54">
+        <v>0</v>
+      </c>
+      <c r="AV15" s="54">
+        <v>0</v>
+      </c>
+      <c r="AW15" s="54">
+        <f t="shared" si="6"/>
+        <v>0.15591759051935994</v>
+      </c>
+      <c r="AX15" s="54">
+        <v>0</v>
+      </c>
+      <c r="AY15" s="54">
+        <v>2.8330000000000002</v>
+      </c>
+      <c r="AZ15" s="54">
+        <v>3.1160000000000001</v>
+      </c>
+      <c r="BA15" s="54">
+        <f t="shared" si="7"/>
+        <v>3.2550824094806399</v>
+      </c>
+      <c r="BB15" s="54">
+        <v>3.4109999999999996</v>
+      </c>
+      <c r="BD15" s="20">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BE15" s="20">
+        <f t="shared" si="8"/>
+        <v>0.29499999999999948</v>
+      </c>
+      <c r="BG15" s="20">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="BH15" s="20">
+        <f t="shared" si="9"/>
+        <v>0.29499999999999948</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A16" s="69">
         <v>43558</v>
       </c>
@@ -25069,34 +26565,179 @@
         <v>12.79</v>
       </c>
       <c r="F16" s="54">
+        <v>0</v>
+      </c>
+      <c r="G16" s="54">
+        <v>0</v>
+      </c>
+      <c r="H16" s="54">
         <v>2.8340000000000001</v>
       </c>
-      <c r="G16" s="78">
+      <c r="I16" s="78">
         <v>2.8340000000000001</v>
       </c>
-      <c r="I16" s="69">
+      <c r="K16" s="82">
+        <f t="shared" si="0"/>
+        <v>16.834</v>
+      </c>
+      <c r="L16" s="20">
+        <f t="shared" si="0"/>
+        <v>15.623999999999999</v>
+      </c>
+      <c r="M16" s="20">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="N16" s="65">
+        <f t="shared" si="0"/>
+        <v>0.72699999999999998</v>
+      </c>
+      <c r="P16" s="82">
+        <f t="shared" si="1"/>
+        <v>14.9</v>
+      </c>
+      <c r="Q16" s="20">
+        <f t="shared" si="10"/>
+        <v>14.9</v>
+      </c>
+      <c r="R16" s="20">
+        <f t="shared" si="2"/>
+        <v>13.516999999999999</v>
+      </c>
+      <c r="S16" s="20">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="T16" s="20">
+        <f t="shared" si="3"/>
+        <v>2.8340000000000001</v>
+      </c>
+      <c r="U16" s="20">
+        <f t="shared" si="12"/>
+        <v>3.117</v>
+      </c>
+      <c r="V16" s="20">
+        <f t="shared" si="4"/>
+        <v>2.8340000000000001</v>
+      </c>
+      <c r="W16" s="65">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Y16" s="82">
+        <f t="shared" si="14"/>
+        <v>17.734000000000002</v>
+      </c>
+      <c r="Z16" s="20">
+        <f t="shared" si="14"/>
+        <v>18.016999999999999</v>
+      </c>
+      <c r="AA16" s="65">
+        <f t="shared" si="14"/>
+        <v>16.350999999999999</v>
+      </c>
+      <c r="AC16" s="93" t="str">
+        <f t="shared" si="15"/>
+        <v>2.3</v>
+      </c>
+      <c r="AD16" s="20">
+        <f>AA16-AE16</f>
+        <v>13.516999999999999</v>
+      </c>
+      <c r="AE16" s="65">
+        <f>MIN(AA16,T16)</f>
+        <v>2.8340000000000001</v>
+      </c>
+      <c r="AG16" s="82">
+        <f>IF(AD16&lt;P16,AD16+MIN(Q16-AD16,$P$46-AI15,AJ15-$T$46,AE16),AD16)</f>
+        <v>14.9</v>
+      </c>
+      <c r="AH16" s="20">
+        <f t="shared" ref="AH16:AH43" si="18">AE16-(AG16-AD16)</f>
+        <v>1.4509999999999992</v>
+      </c>
+      <c r="AI16" s="20">
+        <f t="shared" ref="AI16:AI43" si="19">AI15+(AG16-AD16)</f>
+        <v>321.54699999999991</v>
+      </c>
+      <c r="AJ16" s="65">
+        <f t="shared" ref="AJ16:AJ43" si="20">AJ15-(AG16-AD16)</f>
+        <v>112.053</v>
+      </c>
+      <c r="AL16" s="53">
         <v>43558</v>
       </c>
-      <c r="J16" s="54">
+      <c r="AM16" s="54">
         <v>0.9</v>
       </c>
-      <c r="K16" s="54">
+      <c r="AN16" s="54">
+        <v>0.9</v>
+      </c>
+      <c r="AO16" s="54">
+        <f t="shared" si="16"/>
+        <v>0.66248547489450194</v>
+      </c>
+      <c r="AP16" s="54">
         <v>0.72699999999999998</v>
       </c>
-      <c r="L16" s="54">
+      <c r="AQ16" s="54">
         <v>14</v>
       </c>
-      <c r="M16" s="54">
-        <v>12.79</v>
-      </c>
-      <c r="N16" s="54">
+      <c r="AR16" s="54">
+        <v>14</v>
+      </c>
+      <c r="AS16" s="54">
+        <f t="shared" si="5"/>
+        <v>14.237514525105498</v>
+      </c>
+      <c r="AT16" s="54">
+        <f t="shared" si="17"/>
+        <v>14.173</v>
+      </c>
+      <c r="AU16" s="54">
+        <v>0</v>
+      </c>
+      <c r="AV16" s="54">
+        <v>0</v>
+      </c>
+      <c r="AW16" s="54">
+        <f t="shared" si="6"/>
+        <v>6.4514525105498099E-2</v>
+      </c>
+      <c r="AX16" s="54">
+        <v>0</v>
+      </c>
+      <c r="AY16" s="54">
         <v>2.8340000000000001</v>
       </c>
-      <c r="O16" s="78">
-        <v>2.8340000000000001</v>
+      <c r="AZ16" s="54">
+        <v>3.117</v>
+      </c>
+      <c r="BA16" s="54">
+        <f t="shared" si="7"/>
+        <v>1.386485474894501</v>
+      </c>
+      <c r="BB16" s="54">
+        <v>1.4509999999999992</v>
+      </c>
+      <c r="BD16" s="20">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BE16" s="20">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BG16" s="20">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="BH16" s="20">
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A17" s="69">
         <v>43559</v>
       </c>
@@ -25113,34 +26754,179 @@
         <v>12.023</v>
       </c>
       <c r="F17" s="54">
-        <v>2.8330000000000002</v>
-      </c>
-      <c r="G17" s="78">
-        <v>2.8330000000000002</v>
-      </c>
-      <c r="I17" s="69">
+        <v>0</v>
+      </c>
+      <c r="G17" s="54">
+        <v>0</v>
+      </c>
+      <c r="H17" s="54">
+        <v>2.8330000000000002</v>
+      </c>
+      <c r="I17" s="78">
+        <v>2.8330000000000002</v>
+      </c>
+      <c r="K17" s="82">
+        <f t="shared" si="0"/>
+        <v>16.832999999999998</v>
+      </c>
+      <c r="L17" s="20">
+        <f t="shared" si="0"/>
+        <v>14.856</v>
+      </c>
+      <c r="M17" s="20">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="N17" s="65">
+        <f t="shared" si="0"/>
+        <v>0.61899999999999999</v>
+      </c>
+      <c r="P17" s="82">
+        <f t="shared" si="1"/>
+        <v>14.9</v>
+      </c>
+      <c r="Q17" s="20">
+        <f t="shared" si="10"/>
+        <v>14.9</v>
+      </c>
+      <c r="R17" s="20">
+        <f t="shared" si="2"/>
+        <v>12.641999999999999</v>
+      </c>
+      <c r="S17" s="20">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="T17" s="20">
+        <f t="shared" si="3"/>
+        <v>2.8330000000000002</v>
+      </c>
+      <c r="U17" s="20">
+        <f t="shared" si="12"/>
+        <v>3.1160000000000001</v>
+      </c>
+      <c r="V17" s="20">
+        <f t="shared" si="4"/>
+        <v>2.8330000000000002</v>
+      </c>
+      <c r="W17" s="65">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Y17" s="82">
+        <f t="shared" si="14"/>
+        <v>17.733000000000001</v>
+      </c>
+      <c r="Z17" s="20">
+        <f t="shared" si="14"/>
+        <v>18.016000000000002</v>
+      </c>
+      <c r="AA17" s="65">
+        <f t="shared" si="14"/>
+        <v>15.475</v>
+      </c>
+      <c r="AC17" s="93" t="str">
+        <f t="shared" si="15"/>
+        <v>2.3</v>
+      </c>
+      <c r="AD17" s="20">
+        <f t="shared" ref="AD17:AD21" si="21">AA17-AE17</f>
+        <v>12.641999999999999</v>
+      </c>
+      <c r="AE17" s="65">
+        <f t="shared" ref="AE17:AE21" si="22">MIN(AA17,T17)</f>
+        <v>2.8330000000000002</v>
+      </c>
+      <c r="AG17" s="82">
+        <f>IF(AD17&lt;P17,AD17+MIN(Q17-AD17,$P$46-AI16,AJ16-$T$46,AE17),AD17)</f>
+        <v>14.9</v>
+      </c>
+      <c r="AH17" s="20">
+        <f t="shared" si="18"/>
+        <v>0.57499999999999929</v>
+      </c>
+      <c r="AI17" s="20">
+        <f t="shared" si="19"/>
+        <v>323.80499999999989</v>
+      </c>
+      <c r="AJ17" s="65">
+        <f t="shared" si="20"/>
+        <v>109.795</v>
+      </c>
+      <c r="AL17" s="53">
         <v>43559</v>
       </c>
-      <c r="J17" s="54">
+      <c r="AM17" s="54">
         <v>0.9</v>
       </c>
-      <c r="K17" s="54">
+      <c r="AN17" s="54">
+        <v>0.9</v>
+      </c>
+      <c r="AO17" s="54">
+        <f t="shared" si="16"/>
+        <v>0.59600000000000009</v>
+      </c>
+      <c r="AP17" s="54">
         <v>0.61899999999999999</v>
       </c>
-      <c r="L17" s="54">
+      <c r="AQ17" s="54">
         <v>14</v>
       </c>
-      <c r="M17" s="54">
-        <v>12.023</v>
-      </c>
-      <c r="N17" s="54">
-        <v>2.8330000000000002</v>
-      </c>
-      <c r="O17" s="78">
-        <v>2.8330000000000002</v>
+      <c r="AR17" s="54">
+        <v>14</v>
+      </c>
+      <c r="AS17" s="54">
+        <f t="shared" si="5"/>
+        <v>14.304</v>
+      </c>
+      <c r="AT17" s="54">
+        <f t="shared" si="17"/>
+        <v>14.281000000000001</v>
+      </c>
+      <c r="AU17" s="54">
+        <v>0</v>
+      </c>
+      <c r="AV17" s="54">
+        <v>0</v>
+      </c>
+      <c r="AW17" s="54">
+        <f t="shared" si="6"/>
+        <v>2.2999999999999972E-2</v>
+      </c>
+      <c r="AX17" s="54">
+        <v>0</v>
+      </c>
+      <c r="AY17" s="54">
+        <v>2.8330000000000002</v>
+      </c>
+      <c r="AZ17" s="54">
+        <v>3.1160000000000001</v>
+      </c>
+      <c r="BA17" s="54">
+        <f t="shared" si="7"/>
+        <v>0.55199999999999927</v>
+      </c>
+      <c r="BB17" s="54">
+        <v>0.57499999999999929</v>
+      </c>
+      <c r="BD17" s="20">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BE17" s="20">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BG17" s="20">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="BH17" s="20">
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A18" s="69">
         <v>43560</v>
       </c>
@@ -25157,34 +26943,179 @@
         <v>11.224</v>
       </c>
       <c r="F18" s="54">
+        <v>0</v>
+      </c>
+      <c r="G18" s="54">
+        <v>0</v>
+      </c>
+      <c r="H18" s="54">
         <v>2.8340000000000001</v>
       </c>
-      <c r="G18" s="78">
+      <c r="I18" s="78">
         <v>2.8340000000000001</v>
       </c>
-      <c r="I18" s="69">
+      <c r="K18" s="82">
+        <f t="shared" si="0"/>
+        <v>16.834</v>
+      </c>
+      <c r="L18" s="20">
+        <f t="shared" si="0"/>
+        <v>14.058</v>
+      </c>
+      <c r="M18" s="20">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="N18" s="65">
+        <f t="shared" si="0"/>
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="P18" s="82">
+        <f t="shared" si="1"/>
+        <v>14.9</v>
+      </c>
+      <c r="Q18" s="20">
+        <f t="shared" si="10"/>
+        <v>14.9</v>
+      </c>
+      <c r="R18" s="20">
+        <f t="shared" si="2"/>
+        <v>12.088000000000001</v>
+      </c>
+      <c r="S18" s="20">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="T18" s="20">
+        <f t="shared" si="3"/>
+        <v>2.8340000000000001</v>
+      </c>
+      <c r="U18" s="20">
+        <f t="shared" si="12"/>
+        <v>3.117</v>
+      </c>
+      <c r="V18" s="20">
+        <f t="shared" si="4"/>
+        <v>2.8340000000000001</v>
+      </c>
+      <c r="W18" s="65">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Y18" s="82">
+        <f t="shared" si="14"/>
+        <v>17.734000000000002</v>
+      </c>
+      <c r="Z18" s="20">
+        <f t="shared" si="14"/>
+        <v>18.016999999999999</v>
+      </c>
+      <c r="AA18" s="65">
+        <f t="shared" si="14"/>
+        <v>14.922000000000001</v>
+      </c>
+      <c r="AC18" s="93" t="str">
+        <f t="shared" si="15"/>
+        <v>2.3</v>
+      </c>
+      <c r="AD18" s="20">
+        <f t="shared" si="21"/>
+        <v>12.088000000000001</v>
+      </c>
+      <c r="AE18" s="65">
+        <f t="shared" si="22"/>
+        <v>2.8340000000000001</v>
+      </c>
+      <c r="AG18" s="82">
+        <f t="shared" ref="AG18:AG43" si="23">IF(AD18&lt;P18,AD18+MIN(Q18-AD18,$P$46-AI17,AJ17-$T$46,AE18),AD18)</f>
+        <v>14.9</v>
+      </c>
+      <c r="AH18" s="20">
+        <f t="shared" si="18"/>
+        <v>2.2000000000000686E-2</v>
+      </c>
+      <c r="AI18" s="20">
+        <f t="shared" si="19"/>
+        <v>326.6169999999999</v>
+      </c>
+      <c r="AJ18" s="65">
+        <f t="shared" si="20"/>
+        <v>106.983</v>
+      </c>
+      <c r="AL18" s="53">
         <v>43560</v>
       </c>
-      <c r="J18" s="54">
+      <c r="AM18" s="54">
         <v>0.9</v>
       </c>
-      <c r="K18" s="54">
+      <c r="AN18" s="54">
+        <v>0.9</v>
+      </c>
+      <c r="AO18" s="54">
+        <f t="shared" si="16"/>
+        <v>0.86272617611580216</v>
+      </c>
+      <c r="AP18" s="54">
         <v>0.86399999999999999</v>
       </c>
-      <c r="L18" s="54">
+      <c r="AQ18" s="54">
         <v>14</v>
       </c>
-      <c r="M18" s="54">
-        <v>11.224</v>
-      </c>
-      <c r="N18" s="54">
+      <c r="AR18" s="54">
+        <v>14</v>
+      </c>
+      <c r="AS18" s="54">
+        <f t="shared" si="5"/>
+        <v>14.037273823884197</v>
+      </c>
+      <c r="AT18" s="54">
+        <f t="shared" si="17"/>
+        <v>14.036</v>
+      </c>
+      <c r="AU18" s="54">
+        <v>0</v>
+      </c>
+      <c r="AV18" s="54">
+        <v>0</v>
+      </c>
+      <c r="AW18" s="54">
+        <f t="shared" si="6"/>
+        <v>1.2738238841978685E-3</v>
+      </c>
+      <c r="AX18" s="54">
+        <v>0</v>
+      </c>
+      <c r="AY18" s="54">
         <v>2.8340000000000001</v>
       </c>
-      <c r="O18" s="78">
-        <v>2.8340000000000001</v>
+      <c r="AZ18" s="54">
+        <v>3.117</v>
+      </c>
+      <c r="BA18" s="54">
+        <f t="shared" si="7"/>
+        <v>2.0726176115802818E-2</v>
+      </c>
+      <c r="BB18" s="54">
+        <v>2.2000000000000686E-2</v>
+      </c>
+      <c r="BD18" s="20">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BE18" s="20">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BG18" s="20">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="BH18" s="20">
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A19" s="69">
         <v>43561</v>
       </c>
@@ -25201,34 +27132,179 @@
         <v>11.12</v>
       </c>
       <c r="F19" s="54">
-        <v>2.8330000000000002</v>
-      </c>
-      <c r="G19" s="78">
-        <v>2.8330000000000002</v>
-      </c>
-      <c r="I19" s="69">
+        <v>0</v>
+      </c>
+      <c r="G19" s="54">
+        <v>0</v>
+      </c>
+      <c r="H19" s="54">
+        <v>2.8330000000000002</v>
+      </c>
+      <c r="I19" s="78">
+        <v>2.8330000000000002</v>
+      </c>
+      <c r="K19" s="82">
+        <f t="shared" si="0"/>
+        <v>16.832999999999998</v>
+      </c>
+      <c r="L19" s="20">
+        <f t="shared" si="0"/>
+        <v>13.952999999999999</v>
+      </c>
+      <c r="M19" s="20">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="N19" s="65">
+        <f t="shared" si="0"/>
+        <v>0.46800000000000003</v>
+      </c>
+      <c r="P19" s="82">
+        <f t="shared" si="1"/>
+        <v>14.9</v>
+      </c>
+      <c r="Q19" s="20">
+        <f t="shared" si="10"/>
+        <v>14.9</v>
+      </c>
+      <c r="R19" s="20">
+        <f t="shared" si="2"/>
+        <v>11.587999999999999</v>
+      </c>
+      <c r="S19" s="20">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="T19" s="20">
+        <f t="shared" si="3"/>
+        <v>2.8330000000000002</v>
+      </c>
+      <c r="U19" s="20">
+        <f t="shared" si="12"/>
+        <v>3.1160000000000001</v>
+      </c>
+      <c r="V19" s="20">
+        <f t="shared" si="4"/>
+        <v>2.8330000000000002</v>
+      </c>
+      <c r="W19" s="65">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Y19" s="82">
+        <f t="shared" si="14"/>
+        <v>17.733000000000001</v>
+      </c>
+      <c r="Z19" s="20">
+        <f t="shared" si="14"/>
+        <v>18.016000000000002</v>
+      </c>
+      <c r="AA19" s="65">
+        <f t="shared" si="14"/>
+        <v>14.420999999999999</v>
+      </c>
+      <c r="AC19" s="93" t="str">
+        <f t="shared" si="15"/>
+        <v>2.3</v>
+      </c>
+      <c r="AD19" s="20">
+        <f t="shared" si="21"/>
+        <v>11.587999999999999</v>
+      </c>
+      <c r="AE19" s="65">
+        <f t="shared" si="22"/>
+        <v>2.8330000000000002</v>
+      </c>
+      <c r="AG19" s="82">
+        <f t="shared" si="23"/>
+        <v>14.420999999999999</v>
+      </c>
+      <c r="AH19" s="20">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AI19" s="20">
+        <f t="shared" si="19"/>
+        <v>329.44999999999993</v>
+      </c>
+      <c r="AJ19" s="65">
+        <f t="shared" si="20"/>
+        <v>104.15</v>
+      </c>
+      <c r="AL19" s="53">
         <v>43561</v>
       </c>
-      <c r="J19" s="54">
+      <c r="AM19" s="54">
         <v>0.9</v>
       </c>
-      <c r="K19" s="54">
+      <c r="AN19" s="54">
+        <v>0.9</v>
+      </c>
+      <c r="AO19" s="54">
+        <f t="shared" si="16"/>
         <v>0.46800000000000003</v>
       </c>
-      <c r="L19" s="54">
+      <c r="AP19" s="54">
+        <v>0.46800000000000003</v>
+      </c>
+      <c r="AQ19" s="54">
         <v>14</v>
       </c>
-      <c r="M19" s="54">
-        <v>11.12</v>
-      </c>
-      <c r="N19" s="54">
-        <v>2.8330000000000002</v>
-      </c>
-      <c r="O19" s="78">
-        <v>2.8330000000000002</v>
+      <c r="AR19" s="54">
+        <v>14</v>
+      </c>
+      <c r="AS19" s="54">
+        <f t="shared" si="5"/>
+        <v>13.952999999999999</v>
+      </c>
+      <c r="AT19" s="54">
+        <f t="shared" si="17"/>
+        <v>13.952999999999999</v>
+      </c>
+      <c r="AU19" s="54">
+        <v>0</v>
+      </c>
+      <c r="AV19" s="54">
+        <v>0</v>
+      </c>
+      <c r="AW19" s="54">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AX19" s="54">
+        <v>0</v>
+      </c>
+      <c r="AY19" s="54">
+        <v>2.8330000000000002</v>
+      </c>
+      <c r="AZ19" s="54">
+        <v>3.1160000000000001</v>
+      </c>
+      <c r="BA19" s="54">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BB19" s="54">
+        <v>0</v>
+      </c>
+      <c r="BD19" s="20">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BE19" s="20">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BG19" s="20">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="BH19" s="20">
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A20" s="69">
         <v>43562</v>
       </c>
@@ -25245,34 +27321,179 @@
         <v>10.675000000000001</v>
       </c>
       <c r="F20" s="54">
+        <v>0</v>
+      </c>
+      <c r="G20" s="54">
+        <v>0</v>
+      </c>
+      <c r="H20" s="54">
         <v>2.8340000000000001</v>
       </c>
-      <c r="G20" s="78">
+      <c r="I20" s="78">
         <v>2.8340000000000001</v>
       </c>
-      <c r="I20" s="69">
+      <c r="K20" s="82">
+        <f t="shared" si="0"/>
+        <v>16.834</v>
+      </c>
+      <c r="L20" s="20">
+        <f t="shared" si="0"/>
+        <v>13.509</v>
+      </c>
+      <c r="M20" s="20">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="N20" s="65">
+        <f t="shared" si="0"/>
+        <v>0.432</v>
+      </c>
+      <c r="P20" s="82">
+        <f t="shared" si="1"/>
+        <v>14.9</v>
+      </c>
+      <c r="Q20" s="20">
+        <f t="shared" si="10"/>
+        <v>14.9</v>
+      </c>
+      <c r="R20" s="20">
+        <f t="shared" si="2"/>
+        <v>11.107000000000001</v>
+      </c>
+      <c r="S20" s="20">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="T20" s="20">
+        <f t="shared" si="3"/>
+        <v>2.8340000000000001</v>
+      </c>
+      <c r="U20" s="20">
+        <f t="shared" si="12"/>
+        <v>3.117</v>
+      </c>
+      <c r="V20" s="20">
+        <f t="shared" si="4"/>
+        <v>2.8340000000000001</v>
+      </c>
+      <c r="W20" s="65">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Y20" s="82">
+        <f t="shared" si="14"/>
+        <v>17.734000000000002</v>
+      </c>
+      <c r="Z20" s="20">
+        <f t="shared" si="14"/>
+        <v>18.016999999999999</v>
+      </c>
+      <c r="AA20" s="65">
+        <f t="shared" si="14"/>
+        <v>13.941000000000001</v>
+      </c>
+      <c r="AC20" s="93" t="str">
+        <f t="shared" si="15"/>
+        <v>2.3</v>
+      </c>
+      <c r="AD20" s="20">
+        <f t="shared" si="21"/>
+        <v>11.107000000000001</v>
+      </c>
+      <c r="AE20" s="65">
+        <f t="shared" si="22"/>
+        <v>2.8340000000000001</v>
+      </c>
+      <c r="AG20" s="82">
+        <f t="shared" si="23"/>
+        <v>13.941000000000001</v>
+      </c>
+      <c r="AH20" s="20">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AI20" s="20">
+        <f t="shared" si="19"/>
+        <v>332.28399999999993</v>
+      </c>
+      <c r="AJ20" s="65">
+        <f t="shared" si="20"/>
+        <v>101.316</v>
+      </c>
+      <c r="AL20" s="53">
         <v>43562</v>
       </c>
-      <c r="J20" s="54">
+      <c r="AM20" s="54">
         <v>0.9</v>
       </c>
-      <c r="K20" s="54">
+      <c r="AN20" s="54">
+        <v>0.9</v>
+      </c>
+      <c r="AO20" s="54">
+        <f t="shared" si="16"/>
         <v>0.432</v>
       </c>
-      <c r="L20" s="54">
+      <c r="AP20" s="54">
+        <v>0.432</v>
+      </c>
+      <c r="AQ20" s="54">
         <v>14</v>
       </c>
-      <c r="M20" s="54">
-        <v>10.675000000000001</v>
-      </c>
-      <c r="N20" s="54">
+      <c r="AR20" s="54">
+        <v>14</v>
+      </c>
+      <c r="AS20" s="54">
+        <f t="shared" si="5"/>
+        <v>13.508999999999999</v>
+      </c>
+      <c r="AT20" s="54">
+        <f t="shared" si="17"/>
+        <v>13.509</v>
+      </c>
+      <c r="AU20" s="54">
+        <v>0</v>
+      </c>
+      <c r="AV20" s="54">
+        <v>0</v>
+      </c>
+      <c r="AW20" s="54">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AX20" s="54">
+        <v>0</v>
+      </c>
+      <c r="AY20" s="54">
         <v>2.8340000000000001</v>
       </c>
-      <c r="O20" s="78">
-        <v>2.8340000000000001</v>
+      <c r="AZ20" s="54">
+        <v>3.117</v>
+      </c>
+      <c r="BA20" s="54">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BB20" s="54">
+        <v>0</v>
+      </c>
+      <c r="BD20" s="20">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BE20" s="20">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BG20" s="20">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="BH20" s="20">
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A21" s="69">
         <v>43563</v>
       </c>
@@ -25289,34 +27510,179 @@
         <v>13.484</v>
       </c>
       <c r="F21" s="54">
-        <v>2.8330000000000002</v>
-      </c>
-      <c r="G21" s="78">
-        <v>2.8330000000000002</v>
-      </c>
-      <c r="I21" s="69">
+        <v>0</v>
+      </c>
+      <c r="G21" s="54">
+        <v>0</v>
+      </c>
+      <c r="H21" s="54">
+        <v>2.8330000000000002</v>
+      </c>
+      <c r="I21" s="78">
+        <v>2.8330000000000002</v>
+      </c>
+      <c r="K21" s="82">
+        <f t="shared" si="0"/>
+        <v>16.832999999999998</v>
+      </c>
+      <c r="L21" s="20">
+        <f t="shared" si="0"/>
+        <v>16.317</v>
+      </c>
+      <c r="M21" s="20">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="N21" s="65">
+        <f t="shared" si="0"/>
+        <v>0.745</v>
+      </c>
+      <c r="P21" s="82">
+        <f t="shared" si="1"/>
+        <v>14.9</v>
+      </c>
+      <c r="Q21" s="20">
+        <f t="shared" si="10"/>
+        <v>14.9</v>
+      </c>
+      <c r="R21" s="20">
+        <f t="shared" si="2"/>
+        <v>14.228999999999999</v>
+      </c>
+      <c r="S21" s="20">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="T21" s="20">
+        <f t="shared" si="3"/>
+        <v>2.8330000000000002</v>
+      </c>
+      <c r="U21" s="20">
+        <f t="shared" si="12"/>
+        <v>3.1160000000000001</v>
+      </c>
+      <c r="V21" s="20">
+        <f t="shared" si="4"/>
+        <v>2.8330000000000002</v>
+      </c>
+      <c r="W21" s="65">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Y21" s="82">
+        <f t="shared" si="14"/>
+        <v>17.733000000000001</v>
+      </c>
+      <c r="Z21" s="20">
+        <f t="shared" si="14"/>
+        <v>18.016000000000002</v>
+      </c>
+      <c r="AA21" s="65">
+        <f t="shared" si="14"/>
+        <v>17.061999999999998</v>
+      </c>
+      <c r="AC21" s="93" t="str">
+        <f t="shared" si="15"/>
+        <v>2.3</v>
+      </c>
+      <c r="AD21" s="20">
+        <f t="shared" si="21"/>
+        <v>14.228999999999997</v>
+      </c>
+      <c r="AE21" s="65">
+        <f t="shared" si="22"/>
+        <v>2.8330000000000002</v>
+      </c>
+      <c r="AG21" s="82">
+        <f t="shared" si="23"/>
+        <v>14.9</v>
+      </c>
+      <c r="AH21" s="20">
+        <f t="shared" si="18"/>
+        <v>2.1619999999999973</v>
+      </c>
+      <c r="AI21" s="20">
+        <f t="shared" si="19"/>
+        <v>332.95499999999993</v>
+      </c>
+      <c r="AJ21" s="65">
+        <f t="shared" si="20"/>
+        <v>100.645</v>
+      </c>
+      <c r="AL21" s="53">
         <v>43563</v>
       </c>
-      <c r="J21" s="54">
+      <c r="AM21" s="54">
         <v>0.9</v>
       </c>
-      <c r="K21" s="54">
+      <c r="AN21" s="54">
+        <v>0.9</v>
+      </c>
+      <c r="AO21" s="54">
+        <f t="shared" si="16"/>
+        <v>0.6505978197163288</v>
+      </c>
+      <c r="AP21" s="54">
         <v>0.745</v>
       </c>
-      <c r="L21" s="54">
+      <c r="AQ21" s="54">
         <v>14</v>
       </c>
-      <c r="M21" s="54">
-        <v>13.484</v>
-      </c>
-      <c r="N21" s="54">
-        <v>2.8330000000000002</v>
-      </c>
-      <c r="O21" s="78">
-        <v>2.8330000000000002</v>
+      <c r="AR21" s="54">
+        <v>14</v>
+      </c>
+      <c r="AS21" s="54">
+        <f t="shared" si="5"/>
+        <v>14.249402180283674</v>
+      </c>
+      <c r="AT21" s="54">
+        <f t="shared" si="17"/>
+        <v>14.155000000000001</v>
+      </c>
+      <c r="AU21" s="54">
+        <v>0</v>
+      </c>
+      <c r="AV21" s="54">
+        <v>0</v>
+      </c>
+      <c r="AW21" s="54">
+        <f t="shared" si="6"/>
+        <v>9.4402180283671214E-2</v>
+      </c>
+      <c r="AX21" s="54">
+        <v>0</v>
+      </c>
+      <c r="AY21" s="54">
+        <v>2.8330000000000002</v>
+      </c>
+      <c r="AZ21" s="54">
+        <v>3.1160000000000001</v>
+      </c>
+      <c r="BA21" s="54">
+        <f t="shared" si="7"/>
+        <v>2.0675978197163261</v>
+      </c>
+      <c r="BB21" s="54">
+        <v>2.1619999999999973</v>
+      </c>
+      <c r="BD21" s="20">
+        <f t="shared" si="8"/>
+        <v>1.7763568394002505E-15</v>
+      </c>
+      <c r="BE21" s="20">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BG21" s="20">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="BH21" s="20">
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A22" s="69">
         <v>43564</v>
       </c>
@@ -25333,34 +27699,179 @@
         <v>14</v>
       </c>
       <c r="F22" s="54">
+        <v>0</v>
+      </c>
+      <c r="G22" s="54">
+        <v>0</v>
+      </c>
+      <c r="H22" s="54">
         <v>2.8340000000000001</v>
       </c>
-      <c r="G22" s="78">
+      <c r="I22" s="78">
         <v>4.5620000000000003</v>
       </c>
-      <c r="I22" s="69">
+      <c r="K22" s="82">
+        <f t="shared" si="0"/>
+        <v>16.834</v>
+      </c>
+      <c r="L22" s="20">
+        <f t="shared" si="0"/>
+        <v>18.562000000000001</v>
+      </c>
+      <c r="M22" s="20">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="N22" s="65">
+        <f t="shared" si="0"/>
+        <v>0.90900000000000003</v>
+      </c>
+      <c r="P22" s="82">
+        <f t="shared" si="1"/>
+        <v>14.9</v>
+      </c>
+      <c r="Q22" s="20">
+        <f t="shared" si="10"/>
+        <v>14.9</v>
+      </c>
+      <c r="R22" s="20">
+        <f t="shared" si="2"/>
+        <v>14.909000000000001</v>
+      </c>
+      <c r="S22" s="20">
+        <f t="shared" si="11"/>
+        <v>9.0000000000003411E-3</v>
+      </c>
+      <c r="T22" s="20">
+        <f t="shared" si="3"/>
+        <v>2.8340000000000001</v>
+      </c>
+      <c r="U22" s="20">
+        <f t="shared" si="12"/>
+        <v>3.117</v>
+      </c>
+      <c r="V22" s="20">
+        <f t="shared" si="4"/>
+        <v>4.5620000000000003</v>
+      </c>
+      <c r="W22" s="65">
+        <f t="shared" si="13"/>
+        <v>1.4450000000000003</v>
+      </c>
+      <c r="Y22" s="82">
+        <f t="shared" si="14"/>
+        <v>17.734000000000002</v>
+      </c>
+      <c r="Z22" s="20">
+        <f t="shared" si="14"/>
+        <v>18.016999999999999</v>
+      </c>
+      <c r="AA22" s="65">
+        <f t="shared" si="14"/>
+        <v>19.471</v>
+      </c>
+      <c r="AC22" s="93" t="str">
+        <f t="shared" si="15"/>
+        <v>2.1</v>
+      </c>
+      <c r="AD22" s="20">
+        <f>Q22</f>
+        <v>14.9</v>
+      </c>
+      <c r="AE22" s="65">
+        <f>AA22-AD22</f>
+        <v>4.5709999999999997</v>
+      </c>
+      <c r="AG22" s="82">
+        <f t="shared" si="23"/>
+        <v>14.9</v>
+      </c>
+      <c r="AH22" s="20">
+        <f t="shared" si="18"/>
+        <v>4.5709999999999997</v>
+      </c>
+      <c r="AI22" s="20">
+        <f t="shared" si="19"/>
+        <v>332.95499999999993</v>
+      </c>
+      <c r="AJ22" s="65">
+        <f t="shared" si="20"/>
+        <v>100.645</v>
+      </c>
+      <c r="AL22" s="53">
         <v>43564</v>
       </c>
-      <c r="J22" s="54">
+      <c r="AM22" s="54">
         <v>0.9</v>
       </c>
-      <c r="K22" s="54">
+      <c r="AN22" s="54">
+        <v>0.9</v>
+      </c>
+      <c r="AO22" s="54">
+        <f t="shared" si="16"/>
+        <v>0.69560371835036727</v>
+      </c>
+      <c r="AP22" s="54">
         <v>0.90900000000000003</v>
       </c>
-      <c r="L22" s="54">
+      <c r="AQ22" s="54">
         <v>14</v>
       </c>
-      <c r="M22" s="54">
+      <c r="AR22" s="54">
         <v>14</v>
       </c>
-      <c r="N22" s="54">
+      <c r="AS22" s="54">
+        <f t="shared" si="5"/>
+        <v>14.204396281649633</v>
+      </c>
+      <c r="AT22" s="54">
+        <f t="shared" si="17"/>
+        <v>13.991</v>
+      </c>
+      <c r="AU22" s="54">
+        <v>0</v>
+      </c>
+      <c r="AV22" s="54">
+        <v>0</v>
+      </c>
+      <c r="AW22" s="54">
+        <f t="shared" si="6"/>
+        <v>0.21339628164963276</v>
+      </c>
+      <c r="AX22" s="54">
+        <v>0</v>
+      </c>
+      <c r="AY22" s="54">
         <v>2.8340000000000001</v>
       </c>
-      <c r="O22" s="78">
-        <v>4.5620000000000003</v>
+      <c r="AZ22" s="54">
+        <v>3.117</v>
+      </c>
+      <c r="BA22" s="54">
+        <f t="shared" si="7"/>
+        <v>4.3576037183503669</v>
+      </c>
+      <c r="BB22" s="54">
+        <v>4.5709999999999997</v>
+      </c>
+      <c r="BD22" s="20">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BE22" s="20">
+        <f t="shared" si="8"/>
+        <v>1.4539999999999997</v>
+      </c>
+      <c r="BG22" s="20">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="BH22" s="20">
+        <f t="shared" si="9"/>
+        <v>1.4539999999999997</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A23" s="69">
         <v>43565</v>
       </c>
@@ -25377,34 +27888,179 @@
         <v>14</v>
       </c>
       <c r="F23" s="54">
-        <v>2.8330000000000002</v>
-      </c>
-      <c r="G23" s="78">
+        <v>0</v>
+      </c>
+      <c r="G23" s="54">
+        <v>0</v>
+      </c>
+      <c r="H23" s="54">
+        <v>2.8330000000000002</v>
+      </c>
+      <c r="I23" s="78">
         <v>5.5709999999999997</v>
       </c>
-      <c r="I23" s="69">
+      <c r="K23" s="82">
+        <f t="shared" si="0"/>
+        <v>16.832999999999998</v>
+      </c>
+      <c r="L23" s="20">
+        <f t="shared" si="0"/>
+        <v>19.570999999999998</v>
+      </c>
+      <c r="M23" s="20">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="N23" s="65">
+        <f t="shared" si="0"/>
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="P23" s="82">
+        <f t="shared" si="1"/>
+        <v>14.9</v>
+      </c>
+      <c r="Q23" s="20">
+        <f t="shared" si="10"/>
+        <v>14.9</v>
+      </c>
+      <c r="R23" s="20">
+        <f t="shared" si="2"/>
+        <v>14.824</v>
+      </c>
+      <c r="S23" s="20">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="T23" s="20">
+        <f t="shared" si="3"/>
+        <v>2.8330000000000002</v>
+      </c>
+      <c r="U23" s="20">
+        <f t="shared" si="12"/>
+        <v>3.1160000000000001</v>
+      </c>
+      <c r="V23" s="20">
+        <f t="shared" si="4"/>
+        <v>5.5709999999999997</v>
+      </c>
+      <c r="W23" s="65">
+        <f t="shared" si="13"/>
+        <v>2.4549999999999996</v>
+      </c>
+      <c r="Y23" s="82">
+        <f t="shared" si="14"/>
+        <v>17.733000000000001</v>
+      </c>
+      <c r="Z23" s="20">
+        <f t="shared" si="14"/>
+        <v>18.016000000000002</v>
+      </c>
+      <c r="AA23" s="65">
+        <f t="shared" si="14"/>
+        <v>20.395</v>
+      </c>
+      <c r="AC23" s="93" t="str">
+        <f t="shared" si="15"/>
+        <v>2.1</v>
+      </c>
+      <c r="AD23" s="20">
+        <f t="shared" ref="AD23:AD31" si="24">Q23</f>
+        <v>14.9</v>
+      </c>
+      <c r="AE23" s="65">
+        <f t="shared" ref="AE23:AE31" si="25">AA23-AD23</f>
+        <v>5.4949999999999992</v>
+      </c>
+      <c r="AG23" s="82">
+        <f t="shared" si="23"/>
+        <v>14.9</v>
+      </c>
+      <c r="AH23" s="20">
+        <f t="shared" si="18"/>
+        <v>5.4949999999999992</v>
+      </c>
+      <c r="AI23" s="20">
+        <f t="shared" si="19"/>
+        <v>332.95499999999993</v>
+      </c>
+      <c r="AJ23" s="65">
+        <f t="shared" si="20"/>
+        <v>100.645</v>
+      </c>
+      <c r="AL23" s="53">
         <v>43565</v>
       </c>
-      <c r="J23" s="54">
+      <c r="AM23" s="54">
         <v>0.9</v>
       </c>
-      <c r="K23" s="54">
+      <c r="AN23" s="54">
+        <v>0.9</v>
+      </c>
+      <c r="AO23" s="54">
+        <f t="shared" si="16"/>
+        <v>0.60199068399117428</v>
+      </c>
+      <c r="AP23" s="54">
         <v>0.82399999999999995</v>
       </c>
-      <c r="L23" s="54">
+      <c r="AQ23" s="54">
         <v>14</v>
       </c>
-      <c r="M23" s="54">
+      <c r="AR23" s="54">
         <v>14</v>
       </c>
-      <c r="N23" s="54">
-        <v>2.8330000000000002</v>
-      </c>
-      <c r="O23" s="78">
-        <v>5.5709999999999997</v>
+      <c r="AS23" s="54">
+        <f t="shared" si="5"/>
+        <v>14.298009316008825</v>
+      </c>
+      <c r="AT23" s="54">
+        <f t="shared" si="17"/>
+        <v>14.076000000000001</v>
+      </c>
+      <c r="AU23" s="54">
+        <v>0</v>
+      </c>
+      <c r="AV23" s="54">
+        <v>0</v>
+      </c>
+      <c r="AW23" s="54">
+        <f t="shared" si="6"/>
+        <v>0.22200931600882565</v>
+      </c>
+      <c r="AX23" s="54">
+        <v>0</v>
+      </c>
+      <c r="AY23" s="54">
+        <v>2.8330000000000002</v>
+      </c>
+      <c r="AZ23" s="54">
+        <v>3.1160000000000001</v>
+      </c>
+      <c r="BA23" s="54">
+        <f t="shared" si="7"/>
+        <v>5.2729906839911731</v>
+      </c>
+      <c r="BB23" s="54">
+        <v>5.4949999999999992</v>
+      </c>
+      <c r="BD23" s="20">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BE23" s="20">
+        <f t="shared" si="8"/>
+        <v>2.3789999999999982</v>
+      </c>
+      <c r="BG23" s="20">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="BH23" s="20">
+        <f t="shared" si="9"/>
+        <v>2.3789999999999991</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A24" s="69">
         <v>43566</v>
       </c>
@@ -25421,34 +28077,179 @@
         <v>13</v>
       </c>
       <c r="F24" s="54">
+        <v>0</v>
+      </c>
+      <c r="G24" s="54">
+        <v>0</v>
+      </c>
+      <c r="H24" s="54">
         <v>2.8340000000000001</v>
       </c>
-      <c r="G24" s="78">
+      <c r="I24" s="78">
         <v>7.4530000000000003</v>
       </c>
-      <c r="I24" s="69">
+      <c r="K24" s="82">
+        <f t="shared" si="0"/>
+        <v>15.834</v>
+      </c>
+      <c r="L24" s="20">
+        <f t="shared" si="0"/>
+        <v>20.452999999999999</v>
+      </c>
+      <c r="M24" s="20">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+      <c r="N24" s="65">
+        <f t="shared" si="0"/>
+        <v>0.84199999999999997</v>
+      </c>
+      <c r="P24" s="82">
+        <f t="shared" si="1"/>
+        <v>13.8</v>
+      </c>
+      <c r="Q24" s="20">
+        <f t="shared" si="10"/>
+        <v>13.8</v>
+      </c>
+      <c r="R24" s="20">
+        <f t="shared" si="2"/>
+        <v>13.842000000000001</v>
+      </c>
+      <c r="S24" s="20">
+        <f t="shared" si="11"/>
+        <v>4.1999999999999815E-2</v>
+      </c>
+      <c r="T24" s="20">
+        <f t="shared" si="3"/>
+        <v>2.8340000000000001</v>
+      </c>
+      <c r="U24" s="20">
+        <f t="shared" si="12"/>
+        <v>3.117</v>
+      </c>
+      <c r="V24" s="20">
+        <f t="shared" si="4"/>
+        <v>7.4530000000000003</v>
+      </c>
+      <c r="W24" s="65">
+        <f t="shared" si="13"/>
+        <v>4.3360000000000003</v>
+      </c>
+      <c r="Y24" s="82">
+        <f t="shared" si="14"/>
+        <v>16.634</v>
+      </c>
+      <c r="Z24" s="20">
+        <f t="shared" si="14"/>
+        <v>16.917000000000002</v>
+      </c>
+      <c r="AA24" s="65">
+        <f t="shared" si="14"/>
+        <v>21.295000000000002</v>
+      </c>
+      <c r="AC24" s="93" t="str">
+        <f t="shared" si="15"/>
+        <v>2.1</v>
+      </c>
+      <c r="AD24" s="20">
+        <f t="shared" si="24"/>
+        <v>13.8</v>
+      </c>
+      <c r="AE24" s="65">
+        <f t="shared" si="25"/>
+        <v>7.495000000000001</v>
+      </c>
+      <c r="AG24" s="82">
+        <f t="shared" si="23"/>
+        <v>13.8</v>
+      </c>
+      <c r="AH24" s="20">
+        <f t="shared" si="18"/>
+        <v>7.495000000000001</v>
+      </c>
+      <c r="AI24" s="20">
+        <f t="shared" si="19"/>
+        <v>332.95499999999993</v>
+      </c>
+      <c r="AJ24" s="65">
+        <f t="shared" si="20"/>
+        <v>100.645</v>
+      </c>
+      <c r="AL24" s="53">
         <v>43566</v>
       </c>
-      <c r="J24" s="54">
+      <c r="AM24" s="54">
         <v>0.8</v>
       </c>
-      <c r="K24" s="54">
+      <c r="AN24" s="54">
+        <v>0.8</v>
+      </c>
+      <c r="AO24" s="54">
+        <f t="shared" si="16"/>
+        <v>0.54564921343038264</v>
+      </c>
+      <c r="AP24" s="54">
         <v>0.84199999999999997</v>
       </c>
-      <c r="L24" s="54">
+      <c r="AQ24" s="54">
         <v>13</v>
       </c>
-      <c r="M24" s="54">
+      <c r="AR24" s="54">
         <v>13</v>
       </c>
-      <c r="N24" s="54">
+      <c r="AS24" s="54">
+        <f t="shared" si="5"/>
+        <v>13.254350786569615</v>
+      </c>
+      <c r="AT24" s="54">
+        <f t="shared" si="17"/>
+        <v>12.958</v>
+      </c>
+      <c r="AU24" s="54">
+        <v>0</v>
+      </c>
+      <c r="AV24" s="54">
+        <v>0</v>
+      </c>
+      <c r="AW24" s="54">
+        <f t="shared" si="6"/>
+        <v>0.29635078656961727</v>
+      </c>
+      <c r="AX24" s="54">
+        <v>0</v>
+      </c>
+      <c r="AY24" s="54">
         <v>2.8340000000000001</v>
       </c>
-      <c r="O24" s="78">
-        <v>7.4530000000000003</v>
+      <c r="AZ24" s="54">
+        <v>3.117</v>
+      </c>
+      <c r="BA24" s="54">
+        <f t="shared" si="7"/>
+        <v>7.1986492134303832</v>
+      </c>
+      <c r="BB24" s="54">
+        <v>7.495000000000001</v>
+      </c>
+      <c r="BD24" s="20">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BE24" s="20">
+        <f t="shared" si="8"/>
+        <v>4.3780000000000001</v>
+      </c>
+      <c r="BG24" s="20">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="BH24" s="20">
+        <f t="shared" si="9"/>
+        <v>4.378000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A25" s="69">
         <v>43567</v>
       </c>
@@ -25465,34 +28266,179 @@
         <v>13</v>
       </c>
       <c r="F25" s="54">
-        <v>2.8330000000000002</v>
-      </c>
-      <c r="G25" s="78">
+        <v>0</v>
+      </c>
+      <c r="G25" s="54">
+        <v>0</v>
+      </c>
+      <c r="H25" s="54">
+        <v>2.8330000000000002</v>
+      </c>
+      <c r="I25" s="78">
         <v>8.0470000000000006</v>
       </c>
-      <c r="I25" s="69">
+      <c r="K25" s="82">
+        <f t="shared" si="0"/>
+        <v>15.833</v>
+      </c>
+      <c r="L25" s="20">
+        <f t="shared" si="0"/>
+        <v>21.047000000000001</v>
+      </c>
+      <c r="M25" s="20">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+      <c r="N25" s="65">
+        <f t="shared" si="0"/>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="P25" s="82">
+        <f t="shared" si="1"/>
+        <v>13.8</v>
+      </c>
+      <c r="Q25" s="20">
+        <f t="shared" si="10"/>
+        <v>13.8</v>
+      </c>
+      <c r="R25" s="20">
+        <f t="shared" si="2"/>
+        <v>13.56</v>
+      </c>
+      <c r="S25" s="20">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="T25" s="20">
+        <f t="shared" si="3"/>
+        <v>2.8330000000000002</v>
+      </c>
+      <c r="U25" s="20">
+        <f t="shared" si="12"/>
+        <v>3.1160000000000001</v>
+      </c>
+      <c r="V25" s="20">
+        <f t="shared" si="4"/>
+        <v>8.0470000000000006</v>
+      </c>
+      <c r="W25" s="65">
+        <f t="shared" si="13"/>
+        <v>4.9310000000000009</v>
+      </c>
+      <c r="Y25" s="82">
+        <f t="shared" si="14"/>
+        <v>16.633000000000003</v>
+      </c>
+      <c r="Z25" s="20">
+        <f t="shared" si="14"/>
+        <v>16.916</v>
+      </c>
+      <c r="AA25" s="65">
+        <f t="shared" si="14"/>
+        <v>21.606999999999999</v>
+      </c>
+      <c r="AC25" s="93" t="str">
+        <f t="shared" si="15"/>
+        <v>2.1</v>
+      </c>
+      <c r="AD25" s="20">
+        <f t="shared" si="24"/>
+        <v>13.8</v>
+      </c>
+      <c r="AE25" s="65">
+        <f t="shared" si="25"/>
+        <v>7.8069999999999986</v>
+      </c>
+      <c r="AG25" s="82">
+        <f t="shared" si="23"/>
+        <v>13.8</v>
+      </c>
+      <c r="AH25" s="20">
+        <f t="shared" si="18"/>
+        <v>7.8069999999999986</v>
+      </c>
+      <c r="AI25" s="20">
+        <f t="shared" si="19"/>
+        <v>332.95499999999993</v>
+      </c>
+      <c r="AJ25" s="65">
+        <f t="shared" si="20"/>
+        <v>100.645</v>
+      </c>
+      <c r="AL25" s="53">
         <v>43567</v>
       </c>
-      <c r="J25" s="54">
+      <c r="AM25" s="54">
         <v>0.8</v>
       </c>
-      <c r="K25" s="54">
+      <c r="AN25" s="54">
+        <v>0.8</v>
+      </c>
+      <c r="AO25" s="54">
+        <f t="shared" si="16"/>
+        <v>0.3576618688388023</v>
+      </c>
+      <c r="AP25" s="54">
         <v>0.56000000000000005</v>
       </c>
-      <c r="L25" s="54">
+      <c r="AQ25" s="54">
         <v>13</v>
       </c>
-      <c r="M25" s="54">
+      <c r="AR25" s="54">
         <v>13</v>
       </c>
-      <c r="N25" s="54">
-        <v>2.8330000000000002</v>
-      </c>
-      <c r="O25" s="78">
-        <v>8.0470000000000006</v>
+      <c r="AS25" s="54">
+        <f t="shared" si="5"/>
+        <v>13.442338131161199</v>
+      </c>
+      <c r="AT25" s="54">
+        <f t="shared" si="17"/>
+        <v>13.24</v>
+      </c>
+      <c r="AU25" s="54">
+        <v>0</v>
+      </c>
+      <c r="AV25" s="54">
+        <v>0</v>
+      </c>
+      <c r="AW25" s="54">
+        <f t="shared" si="6"/>
+        <v>0.20233813116119773</v>
+      </c>
+      <c r="AX25" s="54">
+        <v>0</v>
+      </c>
+      <c r="AY25" s="54">
+        <v>2.8330000000000002</v>
+      </c>
+      <c r="AZ25" s="54">
+        <v>3.1160000000000001</v>
+      </c>
+      <c r="BA25" s="54">
+        <f t="shared" si="7"/>
+        <v>7.604661868838801</v>
+      </c>
+      <c r="BB25" s="54">
+        <v>7.8069999999999986</v>
+      </c>
+      <c r="BD25" s="20">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BE25" s="20">
+        <f t="shared" si="8"/>
+        <v>4.6909999999999989</v>
+      </c>
+      <c r="BG25" s="20">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="BH25" s="20">
+        <f t="shared" si="9"/>
+        <v>4.6909999999999989</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A26" s="69">
         <v>43568</v>
       </c>
@@ -25509,34 +28455,179 @@
         <v>13</v>
       </c>
       <c r="F26" s="54">
+        <v>0</v>
+      </c>
+      <c r="G26" s="54">
+        <v>0</v>
+      </c>
+      <c r="H26" s="54">
         <v>2.8340000000000001</v>
       </c>
-      <c r="G26" s="78">
+      <c r="I26" s="78">
         <v>6.5650000000000004</v>
       </c>
-      <c r="I26" s="69">
+      <c r="K26" s="82">
+        <f t="shared" si="0"/>
+        <v>15.834</v>
+      </c>
+      <c r="L26" s="20">
+        <f t="shared" si="0"/>
+        <v>19.565000000000001</v>
+      </c>
+      <c r="M26" s="20">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+      <c r="N26" s="65">
+        <f t="shared" si="0"/>
+        <v>0.875</v>
+      </c>
+      <c r="P26" s="82">
+        <f t="shared" si="1"/>
+        <v>13.8</v>
+      </c>
+      <c r="Q26" s="20">
+        <f t="shared" si="10"/>
+        <v>13.8</v>
+      </c>
+      <c r="R26" s="20">
+        <f t="shared" si="2"/>
+        <v>13.875</v>
+      </c>
+      <c r="S26" s="20">
+        <f t="shared" si="11"/>
+        <v>7.4999999999999289E-2</v>
+      </c>
+      <c r="T26" s="20">
+        <f t="shared" si="3"/>
+        <v>2.8340000000000001</v>
+      </c>
+      <c r="U26" s="20">
+        <f t="shared" si="12"/>
+        <v>3.117</v>
+      </c>
+      <c r="V26" s="20">
+        <f t="shared" si="4"/>
+        <v>6.5650000000000004</v>
+      </c>
+      <c r="W26" s="65">
+        <f t="shared" si="13"/>
+        <v>3.4480000000000004</v>
+      </c>
+      <c r="Y26" s="82">
+        <f t="shared" si="14"/>
+        <v>16.634</v>
+      </c>
+      <c r="Z26" s="20">
+        <f t="shared" si="14"/>
+        <v>16.917000000000002</v>
+      </c>
+      <c r="AA26" s="65">
+        <f t="shared" si="14"/>
+        <v>20.440000000000001</v>
+      </c>
+      <c r="AC26" s="93" t="str">
+        <f t="shared" si="15"/>
+        <v>2.1</v>
+      </c>
+      <c r="AD26" s="20">
+        <f t="shared" si="24"/>
+        <v>13.8</v>
+      </c>
+      <c r="AE26" s="65">
+        <f t="shared" si="25"/>
+        <v>6.6400000000000006</v>
+      </c>
+      <c r="AG26" s="82">
+        <f t="shared" si="23"/>
+        <v>13.8</v>
+      </c>
+      <c r="AH26" s="20">
+        <f t="shared" si="18"/>
+        <v>6.6400000000000006</v>
+      </c>
+      <c r="AI26" s="20">
+        <f t="shared" si="19"/>
+        <v>332.95499999999993</v>
+      </c>
+      <c r="AJ26" s="65">
+        <f t="shared" si="20"/>
+        <v>100.645</v>
+      </c>
+      <c r="AL26" s="53">
         <v>43568</v>
       </c>
-      <c r="J26" s="54">
+      <c r="AM26" s="54">
         <v>0.8</v>
       </c>
-      <c r="K26" s="54">
+      <c r="AN26" s="54">
+        <v>0.8</v>
+      </c>
+      <c r="AO26" s="54">
+        <f t="shared" si="16"/>
+        <v>0.59075342465753422</v>
+      </c>
+      <c r="AP26" s="54">
         <v>0.875</v>
       </c>
-      <c r="L26" s="54">
+      <c r="AQ26" s="54">
         <v>13</v>
       </c>
-      <c r="M26" s="54">
+      <c r="AR26" s="54">
         <v>13</v>
       </c>
-      <c r="N26" s="54">
+      <c r="AS26" s="54">
+        <f t="shared" si="5"/>
+        <v>13.209246575342465</v>
+      </c>
+      <c r="AT26" s="54">
+        <f t="shared" si="17"/>
+        <v>12.925000000000001</v>
+      </c>
+      <c r="AU26" s="54">
+        <v>0</v>
+      </c>
+      <c r="AV26" s="54">
+        <v>0</v>
+      </c>
+      <c r="AW26" s="54">
+        <f t="shared" si="6"/>
+        <v>0.28424657534246578</v>
+      </c>
+      <c r="AX26" s="54">
+        <v>0</v>
+      </c>
+      <c r="AY26" s="54">
         <v>2.8340000000000001</v>
       </c>
-      <c r="O26" s="78">
-        <v>6.5650000000000004</v>
+      <c r="AZ26" s="54">
+        <v>3.117</v>
+      </c>
+      <c r="BA26" s="54">
+        <f t="shared" si="7"/>
+        <v>6.3557534246575349</v>
+      </c>
+      <c r="BB26" s="54">
+        <v>6.6400000000000006</v>
+      </c>
+      <c r="BD26" s="20">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BE26" s="20">
+        <f t="shared" si="8"/>
+        <v>3.5230000000000006</v>
+      </c>
+      <c r="BG26" s="20">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="BH26" s="20">
+        <f t="shared" si="9"/>
+        <v>3.5230000000000006</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A27" s="69">
         <v>43569</v>
       </c>
@@ -25553,34 +28644,179 @@
         <v>13</v>
       </c>
       <c r="F27" s="54">
-        <v>2.8330000000000002</v>
-      </c>
-      <c r="G27" s="78">
+        <v>0</v>
+      </c>
+      <c r="G27" s="54">
+        <v>0</v>
+      </c>
+      <c r="H27" s="54">
+        <v>2.8330000000000002</v>
+      </c>
+      <c r="I27" s="78">
         <v>4.9690000000000003</v>
       </c>
-      <c r="I27" s="69">
+      <c r="K27" s="82">
+        <f t="shared" si="0"/>
+        <v>15.833</v>
+      </c>
+      <c r="L27" s="20">
+        <f t="shared" si="0"/>
+        <v>17.969000000000001</v>
+      </c>
+      <c r="M27" s="20">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+      <c r="N27" s="65">
+        <f t="shared" si="0"/>
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="P27" s="82">
+        <f t="shared" si="1"/>
+        <v>13.8</v>
+      </c>
+      <c r="Q27" s="20">
+        <f t="shared" si="10"/>
+        <v>13.8</v>
+      </c>
+      <c r="R27" s="20">
+        <f t="shared" si="2"/>
+        <v>13.734999999999999</v>
+      </c>
+      <c r="S27" s="20">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="T27" s="20">
+        <f t="shared" si="3"/>
+        <v>2.8330000000000002</v>
+      </c>
+      <c r="U27" s="20">
+        <f t="shared" si="12"/>
+        <v>3.1160000000000001</v>
+      </c>
+      <c r="V27" s="20">
+        <f t="shared" si="4"/>
+        <v>4.9690000000000003</v>
+      </c>
+      <c r="W27" s="65">
+        <f t="shared" si="13"/>
+        <v>1.8530000000000002</v>
+      </c>
+      <c r="Y27" s="82">
+        <f t="shared" si="14"/>
+        <v>16.633000000000003</v>
+      </c>
+      <c r="Z27" s="20">
+        <f t="shared" si="14"/>
+        <v>16.916</v>
+      </c>
+      <c r="AA27" s="65">
+        <f t="shared" si="14"/>
+        <v>18.704000000000001</v>
+      </c>
+      <c r="AC27" s="93" t="str">
+        <f t="shared" si="15"/>
+        <v>2.1</v>
+      </c>
+      <c r="AD27" s="20">
+        <f t="shared" si="24"/>
+        <v>13.8</v>
+      </c>
+      <c r="AE27" s="65">
+        <f t="shared" si="25"/>
+        <v>4.9039999999999999</v>
+      </c>
+      <c r="AG27" s="82">
+        <f t="shared" si="23"/>
+        <v>13.8</v>
+      </c>
+      <c r="AH27" s="20">
+        <f t="shared" si="18"/>
+        <v>4.9039999999999999</v>
+      </c>
+      <c r="AI27" s="20">
+        <f t="shared" si="19"/>
+        <v>332.95499999999993</v>
+      </c>
+      <c r="AJ27" s="65">
+        <f t="shared" si="20"/>
+        <v>100.645</v>
+      </c>
+      <c r="AL27" s="53">
         <v>43569</v>
       </c>
-      <c r="J27" s="54">
+      <c r="AM27" s="54">
         <v>0.8</v>
       </c>
-      <c r="K27" s="54">
+      <c r="AN27" s="54">
+        <v>0.8</v>
+      </c>
+      <c r="AO27" s="54">
+        <f t="shared" si="16"/>
+        <v>0.54229041916167664</v>
+      </c>
+      <c r="AP27" s="54">
         <v>0.73499999999999999</v>
       </c>
-      <c r="L27" s="54">
+      <c r="AQ27" s="54">
         <v>13</v>
       </c>
-      <c r="M27" s="54">
+      <c r="AR27" s="54">
         <v>13</v>
       </c>
-      <c r="N27" s="54">
-        <v>2.8330000000000002</v>
-      </c>
-      <c r="O27" s="78">
-        <v>4.9690000000000003</v>
+      <c r="AS27" s="54">
+        <f t="shared" si="5"/>
+        <v>13.257709580838323</v>
+      </c>
+      <c r="AT27" s="54">
+        <f t="shared" si="17"/>
+        <v>13.065000000000001</v>
+      </c>
+      <c r="AU27" s="54">
+        <v>0</v>
+      </c>
+      <c r="AV27" s="54">
+        <v>0</v>
+      </c>
+      <c r="AW27" s="54">
+        <f t="shared" si="6"/>
+        <v>0.19270958083832335</v>
+      </c>
+      <c r="AX27" s="54">
+        <v>0</v>
+      </c>
+      <c r="AY27" s="54">
+        <v>2.8330000000000002</v>
+      </c>
+      <c r="AZ27" s="54">
+        <v>3.1160000000000001</v>
+      </c>
+      <c r="BA27" s="54">
+        <f t="shared" si="7"/>
+        <v>4.7112904191616769</v>
+      </c>
+      <c r="BB27" s="54">
+        <v>4.9039999999999999</v>
+      </c>
+      <c r="BD27" s="20">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BE27" s="20">
+        <f t="shared" si="8"/>
+        <v>1.7879999999999998</v>
+      </c>
+      <c r="BG27" s="20">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="BH27" s="20">
+        <f t="shared" si="9"/>
+        <v>1.7879999999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A28" s="69">
         <v>43570</v>
       </c>
@@ -25597,34 +28833,179 @@
         <v>13</v>
       </c>
       <c r="F28" s="54">
+        <v>0</v>
+      </c>
+      <c r="G28" s="54">
+        <v>0</v>
+      </c>
+      <c r="H28" s="54">
         <v>2.8340000000000001</v>
       </c>
-      <c r="G28" s="78">
+      <c r="I28" s="78">
         <v>4.875</v>
       </c>
-      <c r="I28" s="69">
+      <c r="K28" s="82">
+        <f t="shared" si="0"/>
+        <v>15.834</v>
+      </c>
+      <c r="L28" s="20">
+        <f t="shared" si="0"/>
+        <v>17.875</v>
+      </c>
+      <c r="M28" s="20">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+      <c r="N28" s="65">
+        <f t="shared" si="0"/>
+        <v>0.80500000000000005</v>
+      </c>
+      <c r="P28" s="82">
+        <f t="shared" si="1"/>
+        <v>13.8</v>
+      </c>
+      <c r="Q28" s="20">
+        <f t="shared" si="10"/>
+        <v>13.8</v>
+      </c>
+      <c r="R28" s="20">
+        <f t="shared" si="2"/>
+        <v>13.805</v>
+      </c>
+      <c r="S28" s="20">
+        <f t="shared" si="11"/>
+        <v>4.9999999999990052E-3</v>
+      </c>
+      <c r="T28" s="20">
+        <f t="shared" si="3"/>
+        <v>2.8340000000000001</v>
+      </c>
+      <c r="U28" s="20">
+        <f t="shared" si="12"/>
+        <v>3.117</v>
+      </c>
+      <c r="V28" s="20">
+        <f t="shared" si="4"/>
+        <v>4.875</v>
+      </c>
+      <c r="W28" s="65">
+        <f t="shared" si="13"/>
+        <v>1.758</v>
+      </c>
+      <c r="Y28" s="82">
+        <f t="shared" si="14"/>
+        <v>16.634</v>
+      </c>
+      <c r="Z28" s="20">
+        <f t="shared" si="14"/>
+        <v>16.917000000000002</v>
+      </c>
+      <c r="AA28" s="65">
+        <f t="shared" si="14"/>
+        <v>18.68</v>
+      </c>
+      <c r="AC28" s="93" t="str">
+        <f t="shared" si="15"/>
+        <v>2.1</v>
+      </c>
+      <c r="AD28" s="20">
+        <f t="shared" si="24"/>
+        <v>13.8</v>
+      </c>
+      <c r="AE28" s="65">
+        <f t="shared" si="25"/>
+        <v>4.879999999999999</v>
+      </c>
+      <c r="AG28" s="82">
+        <f t="shared" si="23"/>
+        <v>13.8</v>
+      </c>
+      <c r="AH28" s="20">
+        <f t="shared" si="18"/>
+        <v>4.879999999999999</v>
+      </c>
+      <c r="AI28" s="20">
+        <f t="shared" si="19"/>
+        <v>332.95499999999993</v>
+      </c>
+      <c r="AJ28" s="65">
+        <f t="shared" si="20"/>
+        <v>100.645</v>
+      </c>
+      <c r="AL28" s="53">
         <v>43570</v>
       </c>
-      <c r="J28" s="54">
+      <c r="AM28" s="54">
         <v>0.8</v>
       </c>
-      <c r="K28" s="54">
+      <c r="AN28" s="54">
+        <v>0.8</v>
+      </c>
+      <c r="AO28" s="54">
+        <f t="shared" si="16"/>
+        <v>0.59470021413276242</v>
+      </c>
+      <c r="AP28" s="54">
         <v>0.80500000000000005</v>
       </c>
-      <c r="L28" s="54">
+      <c r="AQ28" s="54">
         <v>13</v>
       </c>
-      <c r="M28" s="54">
+      <c r="AR28" s="54">
         <v>13</v>
       </c>
-      <c r="N28" s="54">
+      <c r="AS28" s="54">
+        <f t="shared" si="5"/>
+        <v>13.205299785867238</v>
+      </c>
+      <c r="AT28" s="54">
+        <f t="shared" si="17"/>
+        <v>12.995000000000001</v>
+      </c>
+      <c r="AU28" s="54">
+        <v>0</v>
+      </c>
+      <c r="AV28" s="54">
+        <v>0</v>
+      </c>
+      <c r="AW28" s="54">
+        <f t="shared" si="6"/>
+        <v>0.21029978586723766</v>
+      </c>
+      <c r="AX28" s="54">
+        <v>0</v>
+      </c>
+      <c r="AY28" s="54">
         <v>2.8340000000000001</v>
       </c>
-      <c r="O28" s="78">
-        <v>4.875</v>
+      <c r="AZ28" s="54">
+        <v>3.117</v>
+      </c>
+      <c r="BA28" s="54">
+        <f t="shared" si="7"/>
+        <v>4.669700214132761</v>
+      </c>
+      <c r="BB28" s="54">
+        <v>4.879999999999999</v>
+      </c>
+      <c r="BD28" s="20">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BE28" s="20">
+        <f t="shared" si="8"/>
+        <v>1.762999999999999</v>
+      </c>
+      <c r="BG28" s="20">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="BH28" s="20">
+        <f t="shared" si="9"/>
+        <v>1.762999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A29" s="69">
         <v>43571</v>
       </c>
@@ -25641,34 +29022,179 @@
         <v>13</v>
       </c>
       <c r="F29" s="54">
-        <v>2.8330000000000002</v>
-      </c>
-      <c r="G29" s="78">
+        <v>0</v>
+      </c>
+      <c r="G29" s="54">
+        <v>0</v>
+      </c>
+      <c r="H29" s="54">
+        <v>2.8330000000000002</v>
+      </c>
+      <c r="I29" s="78">
         <v>4.7750000000000004</v>
       </c>
-      <c r="I29" s="69">
+      <c r="K29" s="82">
+        <f t="shared" si="0"/>
+        <v>15.833</v>
+      </c>
+      <c r="L29" s="20">
+        <f t="shared" si="0"/>
+        <v>17.774999999999999</v>
+      </c>
+      <c r="M29" s="20">
+        <f t="shared" si="0"/>
+        <v>0.7</v>
+      </c>
+      <c r="N29" s="65">
+        <f t="shared" si="0"/>
+        <v>0.45900000000000002</v>
+      </c>
+      <c r="P29" s="82">
+        <f t="shared" si="1"/>
+        <v>13.7</v>
+      </c>
+      <c r="Q29" s="20">
+        <f t="shared" si="10"/>
+        <v>13.7</v>
+      </c>
+      <c r="R29" s="20">
+        <f t="shared" si="2"/>
+        <v>13.459</v>
+      </c>
+      <c r="S29" s="20">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="T29" s="20">
+        <f t="shared" si="3"/>
+        <v>2.8330000000000002</v>
+      </c>
+      <c r="U29" s="20">
+        <f t="shared" si="12"/>
+        <v>3.1160000000000001</v>
+      </c>
+      <c r="V29" s="20">
+        <f t="shared" si="4"/>
+        <v>4.7750000000000004</v>
+      </c>
+      <c r="W29" s="65">
+        <f t="shared" si="13"/>
+        <v>1.6590000000000003</v>
+      </c>
+      <c r="Y29" s="82">
+        <f t="shared" si="14"/>
+        <v>16.533000000000001</v>
+      </c>
+      <c r="Z29" s="20">
+        <f t="shared" si="14"/>
+        <v>16.815999999999999</v>
+      </c>
+      <c r="AA29" s="65">
+        <f t="shared" si="14"/>
+        <v>18.234000000000002</v>
+      </c>
+      <c r="AC29" s="93" t="str">
+        <f t="shared" si="15"/>
+        <v>2.1</v>
+      </c>
+      <c r="AD29" s="20">
+        <f t="shared" si="24"/>
+        <v>13.7</v>
+      </c>
+      <c r="AE29" s="65">
+        <f t="shared" si="25"/>
+        <v>4.5340000000000025</v>
+      </c>
+      <c r="AG29" s="82">
+        <f t="shared" si="23"/>
+        <v>13.7</v>
+      </c>
+      <c r="AH29" s="20">
+        <f t="shared" si="18"/>
+        <v>4.5340000000000025</v>
+      </c>
+      <c r="AI29" s="20">
+        <f t="shared" si="19"/>
+        <v>332.95499999999993</v>
+      </c>
+      <c r="AJ29" s="65">
+        <f t="shared" si="20"/>
+        <v>100.645</v>
+      </c>
+      <c r="AL29" s="53">
         <v>43571</v>
       </c>
-      <c r="J29" s="54">
+      <c r="AM29" s="54">
         <v>0.7</v>
       </c>
-      <c r="K29" s="54">
+      <c r="AN29" s="54">
+        <v>0.7</v>
+      </c>
+      <c r="AO29" s="54">
+        <f t="shared" si="16"/>
+        <v>0.34486673247778871</v>
+      </c>
+      <c r="AP29" s="54">
         <v>0.45900000000000002</v>
       </c>
-      <c r="L29" s="54">
+      <c r="AQ29" s="54">
         <v>13</v>
       </c>
-      <c r="M29" s="54">
+      <c r="AR29" s="54">
         <v>13</v>
       </c>
-      <c r="N29" s="54">
-        <v>2.8330000000000002</v>
-      </c>
-      <c r="O29" s="78">
-        <v>4.7750000000000004</v>
+      <c r="AS29" s="54">
+        <f t="shared" si="5"/>
+        <v>13.355133267522207</v>
+      </c>
+      <c r="AT29" s="54">
+        <f t="shared" si="17"/>
+        <v>13.241</v>
+      </c>
+      <c r="AU29" s="54">
+        <v>0</v>
+      </c>
+      <c r="AV29" s="54">
+        <v>0</v>
+      </c>
+      <c r="AW29" s="54">
+        <f t="shared" si="6"/>
+        <v>0.1141332675222113</v>
+      </c>
+      <c r="AX29" s="54">
+        <v>0</v>
+      </c>
+      <c r="AY29" s="54">
+        <v>2.8330000000000002</v>
+      </c>
+      <c r="AZ29" s="54">
+        <v>3.1160000000000001</v>
+      </c>
+      <c r="BA29" s="54">
+        <f t="shared" si="7"/>
+        <v>4.4198667324777903</v>
+      </c>
+      <c r="BB29" s="54">
+        <v>4.5340000000000025</v>
+      </c>
+      <c r="BD29" s="20">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BE29" s="20">
+        <f t="shared" si="8"/>
+        <v>1.4180000000000015</v>
+      </c>
+      <c r="BG29" s="20">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="BH29" s="20">
+        <f t="shared" si="9"/>
+        <v>1.4180000000000024</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A30" s="69">
         <v>43572</v>
       </c>
@@ -25685,34 +29211,179 @@
         <v>12.1</v>
       </c>
       <c r="F30" s="54">
+        <v>0</v>
+      </c>
+      <c r="G30" s="54">
+        <v>0</v>
+      </c>
+      <c r="H30" s="54">
         <v>2.8340000000000001</v>
       </c>
-      <c r="G30" s="78">
+      <c r="I30" s="78">
         <v>2.8340000000000001</v>
       </c>
-      <c r="I30" s="69">
+      <c r="K30" s="82">
+        <f t="shared" si="0"/>
+        <v>15.834</v>
+      </c>
+      <c r="L30" s="20">
+        <f t="shared" si="0"/>
+        <v>14.933999999999999</v>
+      </c>
+      <c r="M30" s="20">
+        <f t="shared" si="0"/>
+        <v>0.7</v>
+      </c>
+      <c r="N30" s="65">
+        <f t="shared" si="0"/>
+        <v>0.61399999999999999</v>
+      </c>
+      <c r="P30" s="82">
+        <f t="shared" si="1"/>
+        <v>13.7</v>
+      </c>
+      <c r="Q30" s="20">
+        <f t="shared" si="10"/>
+        <v>13.7</v>
+      </c>
+      <c r="R30" s="20">
+        <f t="shared" si="2"/>
+        <v>12.714</v>
+      </c>
+      <c r="S30" s="20">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="T30" s="20">
+        <f t="shared" si="3"/>
+        <v>2.8340000000000001</v>
+      </c>
+      <c r="U30" s="20">
+        <f t="shared" si="12"/>
+        <v>3.117</v>
+      </c>
+      <c r="V30" s="20">
+        <f t="shared" si="4"/>
+        <v>2.8340000000000001</v>
+      </c>
+      <c r="W30" s="65">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Y30" s="82">
+        <f t="shared" si="14"/>
+        <v>16.533999999999999</v>
+      </c>
+      <c r="Z30" s="20">
+        <f t="shared" si="14"/>
+        <v>16.817</v>
+      </c>
+      <c r="AA30" s="65">
+        <f t="shared" si="14"/>
+        <v>15.548</v>
+      </c>
+      <c r="AC30" s="93" t="str">
+        <f t="shared" si="15"/>
+        <v>2.3</v>
+      </c>
+      <c r="AD30" s="20">
+        <f t="shared" ref="AD30" si="26">AA30-AE30</f>
+        <v>12.714</v>
+      </c>
+      <c r="AE30" s="65">
+        <f t="shared" ref="AE30" si="27">MIN(AA30,T30)</f>
+        <v>2.8340000000000001</v>
+      </c>
+      <c r="AG30" s="82">
+        <f t="shared" si="23"/>
+        <v>13.7</v>
+      </c>
+      <c r="AH30" s="20">
+        <f t="shared" si="18"/>
+        <v>1.8480000000000012</v>
+      </c>
+      <c r="AI30" s="20">
+        <f t="shared" si="19"/>
+        <v>333.94099999999992</v>
+      </c>
+      <c r="AJ30" s="65">
+        <f t="shared" si="20"/>
+        <v>99.658999999999992</v>
+      </c>
+      <c r="AL30" s="53">
         <v>43572</v>
       </c>
-      <c r="J30" s="54">
+      <c r="AM30" s="54">
         <v>0.7</v>
       </c>
-      <c r="K30" s="54">
+      <c r="AN30" s="54">
+        <v>0.7</v>
+      </c>
+      <c r="AO30" s="54">
+        <f t="shared" si="16"/>
+        <v>0.54102135322871103</v>
+      </c>
+      <c r="AP30" s="54">
         <v>0.61399999999999999</v>
       </c>
-      <c r="L30" s="54">
+      <c r="AQ30" s="54">
         <v>13</v>
       </c>
-      <c r="M30" s="54">
-        <v>12.1</v>
-      </c>
-      <c r="N30" s="54">
+      <c r="AR30" s="54">
+        <v>13</v>
+      </c>
+      <c r="AS30" s="54">
+        <f t="shared" si="5"/>
+        <v>13.158978646771287</v>
+      </c>
+      <c r="AT30" s="54">
+        <f t="shared" si="17"/>
+        <v>13.085999999999999</v>
+      </c>
+      <c r="AU30" s="54">
+        <v>0</v>
+      </c>
+      <c r="AV30" s="54">
+        <v>0</v>
+      </c>
+      <c r="AW30" s="54">
+        <f t="shared" si="6"/>
+        <v>7.2978646771288957E-2</v>
+      </c>
+      <c r="AX30" s="54">
+        <v>0</v>
+      </c>
+      <c r="AY30" s="54">
         <v>2.8340000000000001</v>
       </c>
-      <c r="O30" s="78">
-        <v>2.8340000000000001</v>
+      <c r="AZ30" s="54">
+        <v>3.117</v>
+      </c>
+      <c r="BA30" s="54">
+        <f t="shared" si="7"/>
+        <v>1.7750213532287122</v>
+      </c>
+      <c r="BB30" s="54">
+        <v>1.8480000000000012</v>
+      </c>
+      <c r="BD30" s="20">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BE30" s="20">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BG30" s="20">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="BH30" s="20">
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A31" s="69">
         <v>43573</v>
       </c>
@@ -25729,34 +29400,179 @@
         <v>13</v>
       </c>
       <c r="F31" s="54">
-        <v>2.8330000000000002</v>
-      </c>
-      <c r="G31" s="78">
+        <v>0</v>
+      </c>
+      <c r="G31" s="54">
+        <v>0</v>
+      </c>
+      <c r="H31" s="54">
+        <v>2.8330000000000002</v>
+      </c>
+      <c r="I31" s="78">
         <v>5.08</v>
       </c>
-      <c r="I31" s="69">
+      <c r="K31" s="82">
+        <f t="shared" si="0"/>
+        <v>15.833</v>
+      </c>
+      <c r="L31" s="20">
+        <f t="shared" si="0"/>
+        <v>18.079999999999998</v>
+      </c>
+      <c r="M31" s="20">
+        <f t="shared" si="0"/>
+        <v>0.7</v>
+      </c>
+      <c r="N31" s="65">
+        <f t="shared" si="0"/>
+        <v>0.45</v>
+      </c>
+      <c r="P31" s="82">
+        <f t="shared" si="1"/>
+        <v>13.7</v>
+      </c>
+      <c r="Q31" s="20">
+        <f t="shared" si="10"/>
+        <v>13.7</v>
+      </c>
+      <c r="R31" s="20">
+        <f t="shared" si="2"/>
+        <v>13.45</v>
+      </c>
+      <c r="S31" s="20">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="T31" s="20">
+        <f t="shared" si="3"/>
+        <v>2.8330000000000002</v>
+      </c>
+      <c r="U31" s="20">
+        <f t="shared" si="12"/>
+        <v>3.1160000000000001</v>
+      </c>
+      <c r="V31" s="20">
+        <f t="shared" si="4"/>
+        <v>5.08</v>
+      </c>
+      <c r="W31" s="65">
+        <f t="shared" si="13"/>
+        <v>1.964</v>
+      </c>
+      <c r="Y31" s="82">
+        <f t="shared" si="14"/>
+        <v>16.533000000000001</v>
+      </c>
+      <c r="Z31" s="20">
+        <f t="shared" si="14"/>
+        <v>16.815999999999999</v>
+      </c>
+      <c r="AA31" s="65">
+        <f t="shared" si="14"/>
+        <v>18.53</v>
+      </c>
+      <c r="AC31" s="93" t="str">
+        <f t="shared" si="15"/>
+        <v>2.1</v>
+      </c>
+      <c r="AD31" s="20">
+        <f t="shared" si="24"/>
+        <v>13.7</v>
+      </c>
+      <c r="AE31" s="65">
+        <f t="shared" si="25"/>
+        <v>4.8300000000000018</v>
+      </c>
+      <c r="AG31" s="82">
+        <f t="shared" si="23"/>
+        <v>13.7</v>
+      </c>
+      <c r="AH31" s="20">
+        <f t="shared" si="18"/>
+        <v>4.8300000000000018</v>
+      </c>
+      <c r="AI31" s="20">
+        <f t="shared" si="19"/>
+        <v>333.94099999999992</v>
+      </c>
+      <c r="AJ31" s="65">
+        <f t="shared" si="20"/>
+        <v>99.658999999999992</v>
+      </c>
+      <c r="AL31" s="53">
         <v>43573</v>
       </c>
-      <c r="J31" s="54">
+      <c r="AM31" s="54">
         <v>0.7</v>
       </c>
-      <c r="K31" s="54">
+      <c r="AN31" s="54">
+        <v>0.7</v>
+      </c>
+      <c r="AO31" s="54">
+        <f t="shared" si="16"/>
+        <v>0.33270372369131135</v>
+      </c>
+      <c r="AP31" s="54">
         <v>0.45</v>
       </c>
-      <c r="L31" s="54">
+      <c r="AQ31" s="54">
         <v>13</v>
       </c>
-      <c r="M31" s="54">
+      <c r="AR31" s="54">
         <v>13</v>
       </c>
-      <c r="N31" s="54">
-        <v>2.8330000000000002</v>
-      </c>
-      <c r="O31" s="78">
-        <v>5.08</v>
+      <c r="AS31" s="54">
+        <f t="shared" si="5"/>
+        <v>13.367296276308686</v>
+      </c>
+      <c r="AT31" s="54">
+        <f t="shared" si="17"/>
+        <v>13.25</v>
+      </c>
+      <c r="AU31" s="54">
+        <v>0</v>
+      </c>
+      <c r="AV31" s="54">
+        <v>0</v>
+      </c>
+      <c r="AW31" s="54">
+        <f t="shared" si="6"/>
+        <v>0.11729627630868866</v>
+      </c>
+      <c r="AX31" s="54">
+        <v>0</v>
+      </c>
+      <c r="AY31" s="54">
+        <v>2.8330000000000002</v>
+      </c>
+      <c r="AZ31" s="54">
+        <v>3.1160000000000001</v>
+      </c>
+      <c r="BA31" s="54">
+        <f t="shared" si="7"/>
+        <v>4.7127037236913125</v>
+      </c>
+      <c r="BB31" s="54">
+        <v>4.8300000000000018</v>
+      </c>
+      <c r="BD31" s="20">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BE31" s="20">
+        <f t="shared" si="8"/>
+        <v>1.7140000000000009</v>
+      </c>
+      <c r="BG31" s="20">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="BH31" s="20">
+        <f t="shared" si="9"/>
+        <v>1.7140000000000017</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A32" s="69">
         <v>43574</v>
       </c>
@@ -25773,34 +29589,179 @@
         <v>9.44</v>
       </c>
       <c r="F32" s="54">
+        <v>0</v>
+      </c>
+      <c r="G32" s="54">
+        <v>0</v>
+      </c>
+      <c r="H32" s="54">
         <v>2.8340000000000001</v>
       </c>
-      <c r="G32" s="78">
+      <c r="I32" s="78">
         <v>2.8340000000000001</v>
       </c>
-      <c r="I32" s="69">
+      <c r="K32" s="82">
+        <f t="shared" si="0"/>
+        <v>15.834</v>
+      </c>
+      <c r="L32" s="20">
+        <f t="shared" si="0"/>
+        <v>12.273999999999999</v>
+      </c>
+      <c r="M32" s="20">
+        <f t="shared" si="0"/>
+        <v>0.7</v>
+      </c>
+      <c r="N32" s="65">
+        <f t="shared" si="0"/>
+        <v>0.497</v>
+      </c>
+      <c r="P32" s="82">
+        <f t="shared" si="1"/>
+        <v>13.7</v>
+      </c>
+      <c r="Q32" s="20">
+        <f t="shared" si="10"/>
+        <v>13.7</v>
+      </c>
+      <c r="R32" s="20">
+        <f t="shared" si="2"/>
+        <v>9.9369999999999994</v>
+      </c>
+      <c r="S32" s="20">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="T32" s="20">
+        <f t="shared" si="3"/>
+        <v>2.8340000000000001</v>
+      </c>
+      <c r="U32" s="20">
+        <f t="shared" si="12"/>
+        <v>3.117</v>
+      </c>
+      <c r="V32" s="20">
+        <f t="shared" si="4"/>
+        <v>2.8340000000000001</v>
+      </c>
+      <c r="W32" s="65">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Y32" s="82">
+        <f t="shared" si="14"/>
+        <v>16.533999999999999</v>
+      </c>
+      <c r="Z32" s="20">
+        <f t="shared" si="14"/>
+        <v>16.817</v>
+      </c>
+      <c r="AA32" s="65">
+        <f t="shared" si="14"/>
+        <v>12.770999999999999</v>
+      </c>
+      <c r="AC32" s="93" t="str">
+        <f t="shared" si="15"/>
+        <v>2.3</v>
+      </c>
+      <c r="AD32" s="20">
+        <f t="shared" ref="AD32:AD43" si="28">AA32-AE32</f>
+        <v>9.9369999999999994</v>
+      </c>
+      <c r="AE32" s="65">
+        <f t="shared" ref="AE32:AE43" si="29">MIN(AA32,T32)</f>
+        <v>2.8340000000000001</v>
+      </c>
+      <c r="AG32" s="82">
+        <f t="shared" si="23"/>
+        <v>12.770999999999999</v>
+      </c>
+      <c r="AH32" s="20">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AI32" s="20">
+        <f t="shared" si="19"/>
+        <v>336.77499999999992</v>
+      </c>
+      <c r="AJ32" s="65">
+        <f t="shared" si="20"/>
+        <v>96.824999999999989</v>
+      </c>
+      <c r="AL32" s="53">
         <v>43574</v>
       </c>
-      <c r="J32" s="54">
+      <c r="AM32" s="54">
         <v>0.7</v>
       </c>
-      <c r="K32" s="54">
+      <c r="AN32" s="54">
+        <v>0.7</v>
+      </c>
+      <c r="AO32" s="54">
+        <f t="shared" si="16"/>
+        <v>0.49700000000000005</v>
+      </c>
+      <c r="AP32" s="54">
         <v>0.497</v>
       </c>
-      <c r="L32" s="54">
+      <c r="AQ32" s="54">
         <v>13</v>
       </c>
-      <c r="M32" s="54">
-        <v>9.44</v>
-      </c>
-      <c r="N32" s="54">
+      <c r="AR32" s="54">
+        <v>13</v>
+      </c>
+      <c r="AS32" s="54">
+        <f t="shared" si="5"/>
+        <v>12.274000000000001</v>
+      </c>
+      <c r="AT32" s="54">
+        <f t="shared" si="17"/>
+        <v>12.273999999999999</v>
+      </c>
+      <c r="AU32" s="54">
+        <v>0</v>
+      </c>
+      <c r="AV32" s="54">
+        <v>0</v>
+      </c>
+      <c r="AW32" s="54">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AX32" s="54">
+        <v>0</v>
+      </c>
+      <c r="AY32" s="54">
         <v>2.8340000000000001</v>
       </c>
-      <c r="O32" s="78">
-        <v>2.8340000000000001</v>
+      <c r="AZ32" s="54">
+        <v>3.117</v>
+      </c>
+      <c r="BA32" s="54">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BB32" s="54">
+        <v>0</v>
+      </c>
+      <c r="BD32" s="20">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BE32" s="20">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BG32" s="20">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="BH32" s="20">
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A33" s="69">
         <v>43575</v>
       </c>
@@ -25817,34 +29778,179 @@
         <v>10.084</v>
       </c>
       <c r="F33" s="54">
-        <v>2.8330000000000002</v>
-      </c>
-      <c r="G33" s="78">
-        <v>2.8330000000000002</v>
-      </c>
-      <c r="I33" s="69">
+        <v>0</v>
+      </c>
+      <c r="G33" s="54">
+        <v>0</v>
+      </c>
+      <c r="H33" s="54">
+        <v>2.8330000000000002</v>
+      </c>
+      <c r="I33" s="78">
+        <v>2.8330000000000002</v>
+      </c>
+      <c r="K33" s="82">
+        <f t="shared" si="0"/>
+        <v>15.833</v>
+      </c>
+      <c r="L33" s="20">
+        <f t="shared" si="0"/>
+        <v>12.917</v>
+      </c>
+      <c r="M33" s="20">
+        <f t="shared" si="0"/>
+        <v>0.7</v>
+      </c>
+      <c r="N33" s="65">
+        <f t="shared" si="0"/>
+        <v>0.38600000000000001</v>
+      </c>
+      <c r="P33" s="82">
+        <f t="shared" si="1"/>
+        <v>13.7</v>
+      </c>
+      <c r="Q33" s="20">
+        <f t="shared" si="10"/>
+        <v>13.7</v>
+      </c>
+      <c r="R33" s="20">
+        <f t="shared" si="2"/>
+        <v>10.469999999999999</v>
+      </c>
+      <c r="S33" s="20">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="T33" s="20">
+        <f t="shared" si="3"/>
+        <v>2.8330000000000002</v>
+      </c>
+      <c r="U33" s="20">
+        <f t="shared" si="12"/>
+        <v>3.1160000000000001</v>
+      </c>
+      <c r="V33" s="20">
+        <f t="shared" si="4"/>
+        <v>2.8330000000000002</v>
+      </c>
+      <c r="W33" s="65">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Y33" s="82">
+        <f t="shared" si="14"/>
+        <v>16.533000000000001</v>
+      </c>
+      <c r="Z33" s="20">
+        <f t="shared" si="14"/>
+        <v>16.815999999999999</v>
+      </c>
+      <c r="AA33" s="65">
+        <f t="shared" si="14"/>
+        <v>13.302999999999999</v>
+      </c>
+      <c r="AC33" s="93" t="str">
+        <f t="shared" si="15"/>
+        <v>2.3</v>
+      </c>
+      <c r="AD33" s="20">
+        <f t="shared" si="28"/>
+        <v>10.469999999999999</v>
+      </c>
+      <c r="AE33" s="65">
+        <f t="shared" si="29"/>
+        <v>2.8330000000000002</v>
+      </c>
+      <c r="AG33" s="82">
+        <f t="shared" si="23"/>
+        <v>13.302999999999999</v>
+      </c>
+      <c r="AH33" s="20">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AI33" s="20">
+        <f t="shared" si="19"/>
+        <v>339.60799999999995</v>
+      </c>
+      <c r="AJ33" s="65">
+        <f t="shared" si="20"/>
+        <v>93.99199999999999</v>
+      </c>
+      <c r="AL33" s="53">
         <v>43575</v>
       </c>
-      <c r="J33" s="54">
+      <c r="AM33" s="54">
         <v>0.7</v>
       </c>
-      <c r="K33" s="54">
+      <c r="AN33" s="54">
+        <v>0.7</v>
+      </c>
+      <c r="AO33" s="54">
+        <f t="shared" si="16"/>
+        <v>0.38600000000000007</v>
+      </c>
+      <c r="AP33" s="54">
         <v>0.38600000000000001</v>
       </c>
-      <c r="L33" s="54">
+      <c r="AQ33" s="54">
         <v>13</v>
       </c>
-      <c r="M33" s="54">
-        <v>10.084</v>
-      </c>
-      <c r="N33" s="54">
-        <v>2.8330000000000002</v>
-      </c>
-      <c r="O33" s="78">
-        <v>2.8330000000000002</v>
+      <c r="AR33" s="54">
+        <v>13</v>
+      </c>
+      <c r="AS33" s="54">
+        <f t="shared" si="5"/>
+        <v>12.917</v>
+      </c>
+      <c r="AT33" s="54">
+        <f t="shared" si="17"/>
+        <v>12.917</v>
+      </c>
+      <c r="AU33" s="54">
+        <v>0</v>
+      </c>
+      <c r="AV33" s="54">
+        <v>0</v>
+      </c>
+      <c r="AW33" s="54">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AX33" s="54">
+        <v>0</v>
+      </c>
+      <c r="AY33" s="54">
+        <v>2.8330000000000002</v>
+      </c>
+      <c r="AZ33" s="54">
+        <v>3.1160000000000001</v>
+      </c>
+      <c r="BA33" s="54">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BB33" s="54">
+        <v>0</v>
+      </c>
+      <c r="BD33" s="20">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BE33" s="20">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BG33" s="20">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="BH33" s="20">
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A34" s="69">
         <v>43576</v>
       </c>
@@ -25861,34 +29967,179 @@
         <v>9.7780000000000005</v>
       </c>
       <c r="F34" s="54">
-        <v>2.8330000000000002</v>
-      </c>
-      <c r="G34" s="78">
-        <v>2.8330000000000002</v>
-      </c>
-      <c r="I34" s="69">
+        <v>0</v>
+      </c>
+      <c r="G34" s="54">
+        <v>0</v>
+      </c>
+      <c r="H34" s="54">
+        <v>2.8330000000000002</v>
+      </c>
+      <c r="I34" s="78">
+        <v>2.8330000000000002</v>
+      </c>
+      <c r="K34" s="82">
+        <f t="shared" si="0"/>
+        <v>13.833</v>
+      </c>
+      <c r="L34" s="20">
+        <f t="shared" si="0"/>
+        <v>12.611000000000001</v>
+      </c>
+      <c r="M34" s="20">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="N34" s="65">
+        <f t="shared" si="0"/>
+        <v>0.54700000000000004</v>
+      </c>
+      <c r="P34" s="82">
+        <f t="shared" si="1"/>
+        <v>11.5</v>
+      </c>
+      <c r="Q34" s="20">
+        <f t="shared" si="10"/>
+        <v>11.5</v>
+      </c>
+      <c r="R34" s="20">
+        <f t="shared" si="2"/>
+        <v>10.325000000000001</v>
+      </c>
+      <c r="S34" s="20">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="T34" s="20">
+        <f t="shared" si="3"/>
+        <v>2.8330000000000002</v>
+      </c>
+      <c r="U34" s="20">
+        <f t="shared" si="12"/>
+        <v>3.1160000000000001</v>
+      </c>
+      <c r="V34" s="20">
+        <f t="shared" si="4"/>
+        <v>2.8330000000000002</v>
+      </c>
+      <c r="W34" s="65">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Y34" s="82">
+        <f t="shared" si="14"/>
+        <v>14.333</v>
+      </c>
+      <c r="Z34" s="20">
+        <f t="shared" si="14"/>
+        <v>14.616</v>
+      </c>
+      <c r="AA34" s="65">
+        <f t="shared" si="14"/>
+        <v>13.158000000000001</v>
+      </c>
+      <c r="AC34" s="93" t="str">
+        <f t="shared" si="15"/>
+        <v>2.3</v>
+      </c>
+      <c r="AD34" s="20">
+        <f t="shared" si="28"/>
+        <v>10.325000000000001</v>
+      </c>
+      <c r="AE34" s="65">
+        <f t="shared" si="29"/>
+        <v>2.8330000000000002</v>
+      </c>
+      <c r="AG34" s="82">
+        <f t="shared" si="23"/>
+        <v>11.5</v>
+      </c>
+      <c r="AH34" s="20">
+        <f t="shared" si="18"/>
+        <v>1.6580000000000013</v>
+      </c>
+      <c r="AI34" s="20">
+        <f t="shared" si="19"/>
+        <v>340.78299999999996</v>
+      </c>
+      <c r="AJ34" s="65">
+        <f t="shared" si="20"/>
+        <v>92.816999999999993</v>
+      </c>
+      <c r="AL34" s="53">
         <v>43576</v>
       </c>
-      <c r="J34" s="54">
+      <c r="AM34" s="54">
         <v>0.5</v>
       </c>
-      <c r="K34" s="54">
+      <c r="AN34" s="54">
+        <v>0.5</v>
+      </c>
+      <c r="AO34" s="54">
+        <f t="shared" si="16"/>
+        <v>0.47807417540659675</v>
+      </c>
+      <c r="AP34" s="54">
         <v>0.54700000000000004</v>
       </c>
-      <c r="L34" s="54">
+      <c r="AQ34" s="54">
         <v>11</v>
       </c>
-      <c r="M34" s="54">
-        <v>9.7780000000000005</v>
-      </c>
-      <c r="N34" s="54">
-        <v>2.8330000000000002</v>
-      </c>
-      <c r="O34" s="78">
-        <v>2.8330000000000002</v>
+      <c r="AR34" s="54">
+        <v>11</v>
+      </c>
+      <c r="AS34" s="54">
+        <f t="shared" si="5"/>
+        <v>11.021925824593403</v>
+      </c>
+      <c r="AT34" s="54">
+        <f t="shared" si="17"/>
+        <v>10.952999999999999</v>
+      </c>
+      <c r="AU34" s="54">
+        <v>0</v>
+      </c>
+      <c r="AV34" s="54">
+        <v>0</v>
+      </c>
+      <c r="AW34" s="54">
+        <f t="shared" si="6"/>
+        <v>6.8925824593403309E-2</v>
+      </c>
+      <c r="AX34" s="54">
+        <v>0</v>
+      </c>
+      <c r="AY34" s="54">
+        <v>2.8330000000000002</v>
+      </c>
+      <c r="AZ34" s="54">
+        <v>3.1160000000000001</v>
+      </c>
+      <c r="BA34" s="54">
+        <f t="shared" si="7"/>
+        <v>1.5890741754065978</v>
+      </c>
+      <c r="BB34" s="54">
+        <v>1.6580000000000013</v>
+      </c>
+      <c r="BD34" s="20">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BE34" s="20">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BG34" s="20">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="BH34" s="20">
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A35" s="69">
         <v>43577</v>
       </c>
@@ -25905,34 +30156,179 @@
         <v>8.3350000000000009</v>
       </c>
       <c r="F35" s="54">
-        <v>2.8330000000000002</v>
-      </c>
-      <c r="G35" s="78">
-        <v>2.8330000000000002</v>
-      </c>
-      <c r="I35" s="69">
+        <v>0</v>
+      </c>
+      <c r="G35" s="54">
+        <v>0</v>
+      </c>
+      <c r="H35" s="54">
+        <v>2.8330000000000002</v>
+      </c>
+      <c r="I35" s="78">
+        <v>2.8330000000000002</v>
+      </c>
+      <c r="K35" s="82">
+        <f t="shared" si="0"/>
+        <v>13.833</v>
+      </c>
+      <c r="L35" s="20">
+        <f t="shared" si="0"/>
+        <v>11.168000000000001</v>
+      </c>
+      <c r="M35" s="20">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="N35" s="65">
+        <f t="shared" si="0"/>
+        <v>0.48699999999999999</v>
+      </c>
+      <c r="P35" s="82">
+        <f t="shared" si="1"/>
+        <v>11.5</v>
+      </c>
+      <c r="Q35" s="20">
+        <f t="shared" si="10"/>
+        <v>11.5</v>
+      </c>
+      <c r="R35" s="20">
+        <f t="shared" si="2"/>
+        <v>8.822000000000001</v>
+      </c>
+      <c r="S35" s="20">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="T35" s="20">
+        <f t="shared" si="3"/>
+        <v>2.8330000000000002</v>
+      </c>
+      <c r="U35" s="20">
+        <f t="shared" si="12"/>
+        <v>3.1160000000000001</v>
+      </c>
+      <c r="V35" s="20">
+        <f t="shared" si="4"/>
+        <v>2.8330000000000002</v>
+      </c>
+      <c r="W35" s="65">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Y35" s="82">
+        <f t="shared" si="14"/>
+        <v>14.333</v>
+      </c>
+      <c r="Z35" s="20">
+        <f t="shared" si="14"/>
+        <v>14.616</v>
+      </c>
+      <c r="AA35" s="65">
+        <f t="shared" si="14"/>
+        <v>11.655000000000001</v>
+      </c>
+      <c r="AC35" s="93" t="str">
+        <f t="shared" si="15"/>
+        <v>2.3</v>
+      </c>
+      <c r="AD35" s="20">
+        <f t="shared" si="28"/>
+        <v>8.822000000000001</v>
+      </c>
+      <c r="AE35" s="65">
+        <f t="shared" si="29"/>
+        <v>2.8330000000000002</v>
+      </c>
+      <c r="AG35" s="82">
+        <f t="shared" si="23"/>
+        <v>11.5</v>
+      </c>
+      <c r="AH35" s="20">
+        <f t="shared" si="18"/>
+        <v>0.15500000000000114</v>
+      </c>
+      <c r="AI35" s="20">
+        <f t="shared" si="19"/>
+        <v>343.46099999999996</v>
+      </c>
+      <c r="AJ35" s="65">
+        <f t="shared" si="20"/>
+        <v>90.138999999999996</v>
+      </c>
+      <c r="AL35" s="53">
         <v>43577</v>
       </c>
-      <c r="J35" s="54">
+      <c r="AM35" s="54">
         <v>0.5</v>
       </c>
-      <c r="K35" s="54">
+      <c r="AN35" s="54">
+        <v>0.5</v>
+      </c>
+      <c r="AO35" s="54">
+        <f t="shared" si="16"/>
+        <v>0.48052338052338051</v>
+      </c>
+      <c r="AP35" s="54">
         <v>0.48699999999999999</v>
       </c>
-      <c r="L35" s="54">
+      <c r="AQ35" s="54">
         <v>11</v>
       </c>
-      <c r="M35" s="54">
-        <v>8.3350000000000009</v>
-      </c>
-      <c r="N35" s="54">
-        <v>2.8330000000000002</v>
-      </c>
-      <c r="O35" s="78">
-        <v>2.8330000000000002</v>
+      <c r="AR35" s="54">
+        <v>11</v>
+      </c>
+      <c r="AS35" s="54">
+        <f t="shared" si="5"/>
+        <v>11.01947661947662</v>
+      </c>
+      <c r="AT35" s="54">
+        <f t="shared" si="17"/>
+        <v>11.013</v>
+      </c>
+      <c r="AU35" s="54">
+        <v>0</v>
+      </c>
+      <c r="AV35" s="54">
+        <v>0</v>
+      </c>
+      <c r="AW35" s="54">
+        <f t="shared" si="6"/>
+        <v>6.4766194766195237E-3</v>
+      </c>
+      <c r="AX35" s="54">
+        <v>0</v>
+      </c>
+      <c r="AY35" s="54">
+        <v>2.8330000000000002</v>
+      </c>
+      <c r="AZ35" s="54">
+        <v>3.1160000000000001</v>
+      </c>
+      <c r="BA35" s="54">
+        <f t="shared" si="7"/>
+        <v>0.1485233805233816</v>
+      </c>
+      <c r="BB35" s="54">
+        <v>0.15500000000000114</v>
+      </c>
+      <c r="BD35" s="20">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BE35" s="20">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BG35" s="20">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="BH35" s="20">
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A36" s="69">
         <v>43578</v>
       </c>
@@ -25949,34 +30345,179 @@
         <v>7.1</v>
       </c>
       <c r="F36" s="54">
-        <v>2.8330000000000002</v>
-      </c>
-      <c r="G36" s="78">
-        <v>2.8330000000000002</v>
-      </c>
-      <c r="I36" s="69">
+        <v>0</v>
+      </c>
+      <c r="G36" s="54">
+        <v>0</v>
+      </c>
+      <c r="H36" s="54">
+        <v>2.8330000000000002</v>
+      </c>
+      <c r="I36" s="78">
+        <v>2.8330000000000002</v>
+      </c>
+      <c r="K36" s="82">
+        <f t="shared" si="0"/>
+        <v>13.833</v>
+      </c>
+      <c r="L36" s="20">
+        <f t="shared" si="0"/>
+        <v>9.9329999999999998</v>
+      </c>
+      <c r="M36" s="20">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="N36" s="65">
+        <f t="shared" si="0"/>
+        <v>0.46500000000000002</v>
+      </c>
+      <c r="P36" s="82">
+        <f t="shared" si="1"/>
+        <v>11.5</v>
+      </c>
+      <c r="Q36" s="20">
+        <f t="shared" si="10"/>
+        <v>11.5</v>
+      </c>
+      <c r="R36" s="20">
+        <f t="shared" si="2"/>
+        <v>7.5649999999999995</v>
+      </c>
+      <c r="S36" s="20">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="T36" s="20">
+        <f t="shared" si="3"/>
+        <v>2.8330000000000002</v>
+      </c>
+      <c r="U36" s="20">
+        <f t="shared" si="12"/>
+        <v>3.1160000000000001</v>
+      </c>
+      <c r="V36" s="20">
+        <f t="shared" si="4"/>
+        <v>2.8330000000000002</v>
+      </c>
+      <c r="W36" s="65">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Y36" s="82">
+        <f t="shared" si="14"/>
+        <v>14.333</v>
+      </c>
+      <c r="Z36" s="20">
+        <f t="shared" si="14"/>
+        <v>14.616</v>
+      </c>
+      <c r="AA36" s="65">
+        <f t="shared" si="14"/>
+        <v>10.398</v>
+      </c>
+      <c r="AC36" s="93" t="str">
+        <f t="shared" si="15"/>
+        <v>2.3</v>
+      </c>
+      <c r="AD36" s="20">
+        <f t="shared" si="28"/>
+        <v>7.5649999999999995</v>
+      </c>
+      <c r="AE36" s="65">
+        <f t="shared" si="29"/>
+        <v>2.8330000000000002</v>
+      </c>
+      <c r="AG36" s="82">
+        <f t="shared" si="23"/>
+        <v>10.398</v>
+      </c>
+      <c r="AH36" s="20">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AI36" s="20">
+        <f t="shared" si="19"/>
+        <v>346.29399999999998</v>
+      </c>
+      <c r="AJ36" s="65">
+        <f t="shared" si="20"/>
+        <v>87.305999999999997</v>
+      </c>
+      <c r="AL36" s="53">
         <v>43578</v>
       </c>
-      <c r="J36" s="54">
+      <c r="AM36" s="54">
         <v>0.5</v>
       </c>
-      <c r="K36" s="54">
+      <c r="AN36" s="54">
+        <v>0.5</v>
+      </c>
+      <c r="AO36" s="54">
+        <f t="shared" si="16"/>
         <v>0.46500000000000002</v>
       </c>
-      <c r="L36" s="54">
+      <c r="AP36" s="54">
+        <v>0.46500000000000002</v>
+      </c>
+      <c r="AQ36" s="54">
         <v>11</v>
       </c>
-      <c r="M36" s="54">
-        <v>7.1</v>
-      </c>
-      <c r="N36" s="54">
-        <v>2.8330000000000002</v>
-      </c>
-      <c r="O36" s="78">
-        <v>2.8330000000000002</v>
+      <c r="AR36" s="54">
+        <v>11</v>
+      </c>
+      <c r="AS36" s="54">
+        <f t="shared" si="5"/>
+        <v>9.9329999999999998</v>
+      </c>
+      <c r="AT36" s="54">
+        <f t="shared" si="17"/>
+        <v>9.9329999999999998</v>
+      </c>
+      <c r="AU36" s="54">
+        <v>0</v>
+      </c>
+      <c r="AV36" s="54">
+        <v>0</v>
+      </c>
+      <c r="AW36" s="54">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AX36" s="54">
+        <v>0</v>
+      </c>
+      <c r="AY36" s="54">
+        <v>2.8330000000000002</v>
+      </c>
+      <c r="AZ36" s="54">
+        <v>3.1160000000000001</v>
+      </c>
+      <c r="BA36" s="54">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BB36" s="54">
+        <v>0</v>
+      </c>
+      <c r="BD36" s="20">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BE36" s="20">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BG36" s="20">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="BH36" s="20">
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A37" s="69">
         <v>43579</v>
       </c>
@@ -25993,34 +30534,179 @@
         <v>8.6620000000000008</v>
       </c>
       <c r="F37" s="54">
-        <v>2.8330000000000002</v>
-      </c>
-      <c r="G37" s="78">
-        <v>2.8330000000000002</v>
-      </c>
-      <c r="I37" s="69">
+        <v>0</v>
+      </c>
+      <c r="G37" s="54">
+        <v>0</v>
+      </c>
+      <c r="H37" s="54">
+        <v>2.8330000000000002</v>
+      </c>
+      <c r="I37" s="78">
+        <v>2.8330000000000002</v>
+      </c>
+      <c r="K37" s="82">
+        <f t="shared" si="0"/>
+        <v>13.833</v>
+      </c>
+      <c r="L37" s="20">
+        <f t="shared" si="0"/>
+        <v>11.495000000000001</v>
+      </c>
+      <c r="M37" s="20">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="N37" s="65">
+        <f t="shared" si="0"/>
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="P37" s="82">
+        <f t="shared" si="1"/>
+        <v>11.5</v>
+      </c>
+      <c r="Q37" s="20">
+        <f t="shared" si="10"/>
+        <v>11.5</v>
+      </c>
+      <c r="R37" s="20">
+        <f t="shared" si="2"/>
+        <v>8.9650000000000016</v>
+      </c>
+      <c r="S37" s="20">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="T37" s="20">
+        <f t="shared" si="3"/>
+        <v>2.8330000000000002</v>
+      </c>
+      <c r="U37" s="20">
+        <f t="shared" si="12"/>
+        <v>3.1160000000000001</v>
+      </c>
+      <c r="V37" s="20">
+        <f t="shared" si="4"/>
+        <v>2.8330000000000002</v>
+      </c>
+      <c r="W37" s="65">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Y37" s="82">
+        <f t="shared" si="14"/>
+        <v>14.333</v>
+      </c>
+      <c r="Z37" s="20">
+        <f t="shared" si="14"/>
+        <v>14.616</v>
+      </c>
+      <c r="AA37" s="65">
+        <f t="shared" si="14"/>
+        <v>11.798000000000002</v>
+      </c>
+      <c r="AC37" s="93" t="str">
+        <f t="shared" si="15"/>
+        <v>2.3</v>
+      </c>
+      <c r="AD37" s="20">
+        <f t="shared" si="28"/>
+        <v>8.9650000000000016</v>
+      </c>
+      <c r="AE37" s="65">
+        <f t="shared" si="29"/>
+        <v>2.8330000000000002</v>
+      </c>
+      <c r="AG37" s="82">
+        <f t="shared" si="23"/>
+        <v>11.270999999999999</v>
+      </c>
+      <c r="AH37" s="20">
+        <f t="shared" si="18"/>
+        <v>0.5270000000000028</v>
+      </c>
+      <c r="AI37" s="20">
+        <f t="shared" si="19"/>
+        <v>348.59999999999997</v>
+      </c>
+      <c r="AJ37" s="65">
+        <f t="shared" si="20"/>
+        <v>85</v>
+      </c>
+      <c r="AL37" s="53">
         <v>43579</v>
       </c>
-      <c r="J37" s="54">
+      <c r="AM37" s="54">
         <v>0.5</v>
       </c>
-      <c r="K37" s="54">
+      <c r="AN37" s="54">
+        <v>0.5</v>
+      </c>
+      <c r="AO37" s="54">
+        <f t="shared" si="16"/>
+        <v>0.28946541786743507</v>
+      </c>
+      <c r="AP37" s="54">
         <v>0.30299999999999999</v>
       </c>
-      <c r="L37" s="54">
+      <c r="AQ37" s="54">
         <v>11</v>
       </c>
-      <c r="M37" s="54">
-        <v>8.6620000000000008</v>
-      </c>
-      <c r="N37" s="54">
-        <v>2.8330000000000002</v>
-      </c>
-      <c r="O37" s="78">
-        <v>2.8330000000000002</v>
+      <c r="AR37" s="54">
+        <v>11</v>
+      </c>
+      <c r="AS37" s="54">
+        <f t="shared" si="5"/>
+        <v>10.981534582132564</v>
+      </c>
+      <c r="AT37" s="54">
+        <f t="shared" si="17"/>
+        <v>10.967999999999998</v>
+      </c>
+      <c r="AU37" s="54">
+        <v>0</v>
+      </c>
+      <c r="AV37" s="54">
+        <v>0</v>
+      </c>
+      <c r="AW37" s="54">
+        <f t="shared" si="6"/>
+        <v>1.3534582132564912E-2</v>
+      </c>
+      <c r="AX37" s="54">
+        <v>0</v>
+      </c>
+      <c r="AY37" s="54">
+        <v>2.8330000000000002</v>
+      </c>
+      <c r="AZ37" s="54">
+        <v>3.1160000000000001</v>
+      </c>
+      <c r="BA37" s="54">
+        <f t="shared" si="7"/>
+        <v>0.51346541786743782</v>
+      </c>
+      <c r="BB37" s="54">
+        <v>0.5270000000000028</v>
+      </c>
+      <c r="BD37" s="20">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BE37" s="20">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BG37" s="20">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="BH37" s="20">
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A38" s="69">
         <v>43580</v>
       </c>
@@ -26037,34 +30723,179 @@
         <v>2.6379999999999999</v>
       </c>
       <c r="F38" s="54">
-        <v>2.8330000000000002</v>
-      </c>
-      <c r="G38" s="78">
-        <v>2.8330000000000002</v>
-      </c>
-      <c r="I38" s="69">
+        <v>0</v>
+      </c>
+      <c r="G38" s="54">
+        <v>0</v>
+      </c>
+      <c r="H38" s="54">
+        <v>2.8330000000000002</v>
+      </c>
+      <c r="I38" s="78">
+        <v>2.8330000000000002</v>
+      </c>
+      <c r="K38" s="82">
+        <f t="shared" si="0"/>
+        <v>13.833</v>
+      </c>
+      <c r="L38" s="20">
+        <f t="shared" si="0"/>
+        <v>5.4710000000000001</v>
+      </c>
+      <c r="M38" s="20">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="N38" s="65">
+        <f t="shared" si="0"/>
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="P38" s="82">
+        <f t="shared" si="1"/>
+        <v>11.5</v>
+      </c>
+      <c r="Q38" s="20">
+        <f t="shared" si="10"/>
+        <v>11.5</v>
+      </c>
+      <c r="R38" s="20">
+        <f t="shared" si="2"/>
+        <v>2.7839999999999998</v>
+      </c>
+      <c r="S38" s="20">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="T38" s="20">
+        <f t="shared" si="3"/>
+        <v>2.8330000000000002</v>
+      </c>
+      <c r="U38" s="20">
+        <f t="shared" si="12"/>
+        <v>3.1160000000000001</v>
+      </c>
+      <c r="V38" s="20">
+        <f t="shared" si="4"/>
+        <v>2.8330000000000002</v>
+      </c>
+      <c r="W38" s="65">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Y38" s="82">
+        <f t="shared" si="14"/>
+        <v>14.333</v>
+      </c>
+      <c r="Z38" s="20">
+        <f t="shared" si="14"/>
+        <v>14.616</v>
+      </c>
+      <c r="AA38" s="65">
+        <f t="shared" si="14"/>
+        <v>5.617</v>
+      </c>
+      <c r="AC38" s="93" t="str">
+        <f t="shared" si="15"/>
+        <v>2.3</v>
+      </c>
+      <c r="AD38" s="20">
+        <f t="shared" si="28"/>
+        <v>2.7839999999999998</v>
+      </c>
+      <c r="AE38" s="65">
+        <f t="shared" si="29"/>
+        <v>2.8330000000000002</v>
+      </c>
+      <c r="AG38" s="82">
+        <f t="shared" si="23"/>
+        <v>2.7839999999999998</v>
+      </c>
+      <c r="AH38" s="20">
+        <f t="shared" si="18"/>
+        <v>2.8330000000000002</v>
+      </c>
+      <c r="AI38" s="20">
+        <f t="shared" si="19"/>
+        <v>348.59999999999997</v>
+      </c>
+      <c r="AJ38" s="65">
+        <f t="shared" si="20"/>
+        <v>85</v>
+      </c>
+      <c r="AL38" s="53">
         <v>43580</v>
       </c>
-      <c r="J38" s="54">
+      <c r="AM38" s="54">
         <v>0.5</v>
       </c>
-      <c r="K38" s="54">
+      <c r="AN38" s="54">
+        <v>0.5</v>
+      </c>
+      <c r="AO38" s="54">
+        <f t="shared" si="16"/>
+        <v>7.2363183193875719E-2</v>
+      </c>
+      <c r="AP38" s="54">
         <v>0.14599999999999999</v>
       </c>
-      <c r="L38" s="54">
+      <c r="AQ38" s="54">
         <v>11</v>
       </c>
-      <c r="M38" s="54">
+      <c r="AR38" s="54">
+        <v>11</v>
+      </c>
+      <c r="AS38" s="54">
+        <f t="shared" si="5"/>
+        <v>2.711636816806124</v>
+      </c>
+      <c r="AT38" s="54">
+        <f t="shared" si="17"/>
         <v>2.6379999999999999</v>
       </c>
-      <c r="N38" s="54">
-        <v>2.8330000000000002</v>
-      </c>
-      <c r="O38" s="78">
-        <v>2.8330000000000002</v>
+      <c r="AU38" s="54">
+        <v>0</v>
+      </c>
+      <c r="AV38" s="54">
+        <v>0</v>
+      </c>
+      <c r="AW38" s="54">
+        <f t="shared" si="6"/>
+        <v>7.3636816806124258E-2</v>
+      </c>
+      <c r="AX38" s="54">
+        <v>0</v>
+      </c>
+      <c r="AY38" s="54">
+        <v>2.8330000000000002</v>
+      </c>
+      <c r="AZ38" s="54">
+        <v>3.1160000000000001</v>
+      </c>
+      <c r="BA38" s="54">
+        <f t="shared" si="7"/>
+        <v>2.7593631831938761</v>
+      </c>
+      <c r="BB38" s="54">
+        <v>2.8330000000000002</v>
+      </c>
+      <c r="BD38" s="20">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BE38" s="20">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BG38" s="20">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="BH38" s="20">
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A39" s="69">
         <v>43581</v>
       </c>
@@ -26081,34 +30912,179 @@
         <v>4.1420000000000003</v>
       </c>
       <c r="F39" s="54">
-        <v>2.8330000000000002</v>
-      </c>
-      <c r="G39" s="78">
-        <v>2.8330000000000002</v>
-      </c>
-      <c r="I39" s="69">
+        <v>0</v>
+      </c>
+      <c r="G39" s="54">
+        <v>0</v>
+      </c>
+      <c r="H39" s="54">
+        <v>2.8330000000000002</v>
+      </c>
+      <c r="I39" s="78">
+        <v>2.8330000000000002</v>
+      </c>
+      <c r="K39" s="82">
+        <f t="shared" si="0"/>
+        <v>13.833</v>
+      </c>
+      <c r="L39" s="20">
+        <f t="shared" si="0"/>
+        <v>6.9750000000000005</v>
+      </c>
+      <c r="M39" s="20">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="N39" s="65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P39" s="82">
+        <f t="shared" si="1"/>
+        <v>11.5</v>
+      </c>
+      <c r="Q39" s="20">
+        <f t="shared" si="10"/>
+        <v>11.5</v>
+      </c>
+      <c r="R39" s="20">
+        <f t="shared" si="2"/>
+        <v>4.1420000000000003</v>
+      </c>
+      <c r="S39" s="20">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="T39" s="20">
+        <f t="shared" si="3"/>
+        <v>2.8330000000000002</v>
+      </c>
+      <c r="U39" s="20">
+        <f t="shared" si="12"/>
+        <v>3.1160000000000001</v>
+      </c>
+      <c r="V39" s="20">
+        <f t="shared" si="4"/>
+        <v>2.8330000000000002</v>
+      </c>
+      <c r="W39" s="65">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Y39" s="82">
+        <f t="shared" si="14"/>
+        <v>14.333</v>
+      </c>
+      <c r="Z39" s="20">
+        <f t="shared" si="14"/>
+        <v>14.616</v>
+      </c>
+      <c r="AA39" s="65">
+        <f t="shared" si="14"/>
+        <v>6.9750000000000005</v>
+      </c>
+      <c r="AC39" s="93" t="str">
+        <f t="shared" si="15"/>
+        <v>2.3</v>
+      </c>
+      <c r="AD39" s="20">
+        <f t="shared" si="28"/>
+        <v>4.1420000000000003</v>
+      </c>
+      <c r="AE39" s="65">
+        <f t="shared" si="29"/>
+        <v>2.8330000000000002</v>
+      </c>
+      <c r="AG39" s="82">
+        <f t="shared" si="23"/>
+        <v>4.1420000000000003</v>
+      </c>
+      <c r="AH39" s="20">
+        <f t="shared" si="18"/>
+        <v>2.8330000000000002</v>
+      </c>
+      <c r="AI39" s="20">
+        <f t="shared" si="19"/>
+        <v>348.59999999999997</v>
+      </c>
+      <c r="AJ39" s="65">
+        <f t="shared" si="20"/>
+        <v>85</v>
+      </c>
+      <c r="AL39" s="53">
         <v>43581</v>
       </c>
-      <c r="J39" s="54">
+      <c r="AM39" s="54">
         <v>0.5</v>
       </c>
-      <c r="K39" s="54">
-        <v>0</v>
-      </c>
-      <c r="L39" s="54">
+      <c r="AN39" s="54">
+        <v>0.5</v>
+      </c>
+      <c r="AO39" s="54">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AP39" s="54">
+        <v>0</v>
+      </c>
+      <c r="AQ39" s="54">
         <v>11</v>
       </c>
-      <c r="M39" s="54">
+      <c r="AR39" s="54">
+        <v>11</v>
+      </c>
+      <c r="AS39" s="54">
+        <f t="shared" si="5"/>
         <v>4.1420000000000003</v>
       </c>
-      <c r="N39" s="54">
-        <v>2.8330000000000002</v>
-      </c>
-      <c r="O39" s="78">
-        <v>2.8330000000000002</v>
+      <c r="AT39" s="54">
+        <f t="shared" si="17"/>
+        <v>4.1420000000000003</v>
+      </c>
+      <c r="AU39" s="54">
+        <v>0</v>
+      </c>
+      <c r="AV39" s="54">
+        <v>0</v>
+      </c>
+      <c r="AW39" s="54">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AX39" s="54">
+        <v>0</v>
+      </c>
+      <c r="AY39" s="54">
+        <v>2.8330000000000002</v>
+      </c>
+      <c r="AZ39" s="54">
+        <v>3.1160000000000001</v>
+      </c>
+      <c r="BA39" s="54">
+        <f t="shared" si="7"/>
+        <v>2.8330000000000002</v>
+      </c>
+      <c r="BB39" s="54">
+        <v>2.8330000000000002</v>
+      </c>
+      <c r="BD39" s="20">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BE39" s="20">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BG39" s="20">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="BH39" s="20">
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A40" s="69">
         <v>43582</v>
       </c>
@@ -26125,34 +31101,179 @@
         <v>2.84</v>
       </c>
       <c r="F40" s="54">
-        <v>2.8330000000000002</v>
-      </c>
-      <c r="G40" s="78">
-        <v>2.8330000000000002</v>
-      </c>
-      <c r="I40" s="69">
+        <v>0</v>
+      </c>
+      <c r="G40" s="54">
+        <v>0</v>
+      </c>
+      <c r="H40" s="54">
+        <v>2.8330000000000002</v>
+      </c>
+      <c r="I40" s="78">
+        <v>2.8330000000000002</v>
+      </c>
+      <c r="K40" s="82">
+        <f t="shared" si="0"/>
+        <v>13.833</v>
+      </c>
+      <c r="L40" s="20">
+        <f t="shared" si="0"/>
+        <v>5.673</v>
+      </c>
+      <c r="M40" s="20">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="N40" s="65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P40" s="82">
+        <f t="shared" si="1"/>
+        <v>11.5</v>
+      </c>
+      <c r="Q40" s="20">
+        <f t="shared" si="10"/>
+        <v>11.5</v>
+      </c>
+      <c r="R40" s="20">
+        <f t="shared" si="2"/>
+        <v>2.84</v>
+      </c>
+      <c r="S40" s="20">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="T40" s="20">
+        <f t="shared" si="3"/>
+        <v>2.8330000000000002</v>
+      </c>
+      <c r="U40" s="20">
+        <f t="shared" si="12"/>
+        <v>3.1160000000000001</v>
+      </c>
+      <c r="V40" s="20">
+        <f t="shared" si="4"/>
+        <v>2.8330000000000002</v>
+      </c>
+      <c r="W40" s="65">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Y40" s="82">
+        <f t="shared" si="14"/>
+        <v>14.333</v>
+      </c>
+      <c r="Z40" s="20">
+        <f t="shared" si="14"/>
+        <v>14.616</v>
+      </c>
+      <c r="AA40" s="65">
+        <f t="shared" si="14"/>
+        <v>5.673</v>
+      </c>
+      <c r="AC40" s="93" t="str">
+        <f t="shared" si="15"/>
+        <v>2.3</v>
+      </c>
+      <c r="AD40" s="20">
+        <f t="shared" si="28"/>
+        <v>2.84</v>
+      </c>
+      <c r="AE40" s="65">
+        <f t="shared" si="29"/>
+        <v>2.8330000000000002</v>
+      </c>
+      <c r="AG40" s="82">
+        <f t="shared" si="23"/>
+        <v>2.84</v>
+      </c>
+      <c r="AH40" s="20">
+        <f t="shared" si="18"/>
+        <v>2.8330000000000002</v>
+      </c>
+      <c r="AI40" s="20">
+        <f t="shared" si="19"/>
+        <v>348.59999999999997</v>
+      </c>
+      <c r="AJ40" s="65">
+        <f t="shared" si="20"/>
+        <v>85</v>
+      </c>
+      <c r="AL40" s="53">
         <v>43582</v>
       </c>
-      <c r="J40" s="54">
+      <c r="AM40" s="54">
         <v>0.5</v>
       </c>
-      <c r="K40" s="54">
-        <v>0</v>
-      </c>
-      <c r="L40" s="54">
+      <c r="AN40" s="54">
+        <v>0.5</v>
+      </c>
+      <c r="AO40" s="54">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AP40" s="54">
+        <v>0</v>
+      </c>
+      <c r="AQ40" s="54">
         <v>11</v>
       </c>
-      <c r="M40" s="54">
+      <c r="AR40" s="54">
+        <v>11</v>
+      </c>
+      <c r="AS40" s="54">
+        <f t="shared" si="5"/>
         <v>2.84</v>
       </c>
-      <c r="N40" s="54">
-        <v>2.8330000000000002</v>
-      </c>
-      <c r="O40" s="78">
-        <v>2.8330000000000002</v>
+      <c r="AT40" s="54">
+        <f t="shared" si="17"/>
+        <v>2.84</v>
+      </c>
+      <c r="AU40" s="54">
+        <v>0</v>
+      </c>
+      <c r="AV40" s="54">
+        <v>0</v>
+      </c>
+      <c r="AW40" s="54">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AX40" s="54">
+        <v>0</v>
+      </c>
+      <c r="AY40" s="54">
+        <v>2.8330000000000002</v>
+      </c>
+      <c r="AZ40" s="54">
+        <v>3.1160000000000001</v>
+      </c>
+      <c r="BA40" s="54">
+        <f t="shared" si="7"/>
+        <v>2.8330000000000002</v>
+      </c>
+      <c r="BB40" s="54">
+        <v>2.8330000000000002</v>
+      </c>
+      <c r="BD40" s="20">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BE40" s="20">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BG40" s="20">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="BH40" s="20">
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A41" s="69">
         <v>43583</v>
       </c>
@@ -26169,34 +31290,179 @@
         <v>3.7719999999999998</v>
       </c>
       <c r="F41" s="54">
-        <v>2.8330000000000002</v>
-      </c>
-      <c r="G41" s="78">
-        <v>2.8330000000000002</v>
-      </c>
-      <c r="I41" s="69">
+        <v>0</v>
+      </c>
+      <c r="G41" s="54">
+        <v>0</v>
+      </c>
+      <c r="H41" s="54">
+        <v>2.8330000000000002</v>
+      </c>
+      <c r="I41" s="78">
+        <v>2.8330000000000002</v>
+      </c>
+      <c r="K41" s="82">
+        <f t="shared" si="0"/>
+        <v>13.833</v>
+      </c>
+      <c r="L41" s="20">
+        <f t="shared" si="0"/>
+        <v>6.6050000000000004</v>
+      </c>
+      <c r="M41" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N41" s="65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P41" s="82">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="Q41" s="20">
+        <f t="shared" si="10"/>
+        <v>11</v>
+      </c>
+      <c r="R41" s="20">
+        <f t="shared" si="2"/>
+        <v>3.7719999999999998</v>
+      </c>
+      <c r="S41" s="20">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="T41" s="20">
+        <f t="shared" si="3"/>
+        <v>2.8330000000000002</v>
+      </c>
+      <c r="U41" s="20">
+        <f t="shared" si="12"/>
+        <v>3.1160000000000001</v>
+      </c>
+      <c r="V41" s="20">
+        <f t="shared" si="4"/>
+        <v>2.8330000000000002</v>
+      </c>
+      <c r="W41" s="65">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Y41" s="82">
+        <f t="shared" si="14"/>
+        <v>13.833</v>
+      </c>
+      <c r="Z41" s="20">
+        <f t="shared" si="14"/>
+        <v>14.116</v>
+      </c>
+      <c r="AA41" s="65">
+        <f t="shared" si="14"/>
+        <v>6.6050000000000004</v>
+      </c>
+      <c r="AC41" s="93" t="str">
+        <f t="shared" si="15"/>
+        <v>2.3</v>
+      </c>
+      <c r="AD41" s="20">
+        <f t="shared" si="28"/>
+        <v>3.7720000000000002</v>
+      </c>
+      <c r="AE41" s="65">
+        <f t="shared" si="29"/>
+        <v>2.8330000000000002</v>
+      </c>
+      <c r="AG41" s="82">
+        <f t="shared" si="23"/>
+        <v>3.7720000000000002</v>
+      </c>
+      <c r="AH41" s="20">
+        <f t="shared" si="18"/>
+        <v>2.8330000000000002</v>
+      </c>
+      <c r="AI41" s="20">
+        <f t="shared" si="19"/>
+        <v>348.59999999999997</v>
+      </c>
+      <c r="AJ41" s="65">
+        <f t="shared" si="20"/>
+        <v>85</v>
+      </c>
+      <c r="AL41" s="53">
         <v>43583</v>
       </c>
-      <c r="J41" s="54">
-        <v>0</v>
-      </c>
-      <c r="K41" s="54">
-        <v>0</v>
-      </c>
-      <c r="L41" s="54">
+      <c r="AM41" s="54">
+        <v>0</v>
+      </c>
+      <c r="AN41" s="54">
+        <v>0</v>
+      </c>
+      <c r="AO41" s="54">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AP41" s="54">
+        <v>0</v>
+      </c>
+      <c r="AQ41" s="54">
         <v>11</v>
       </c>
-      <c r="M41" s="54">
-        <v>3.7719999999999998</v>
-      </c>
-      <c r="N41" s="54">
-        <v>2.8330000000000002</v>
-      </c>
-      <c r="O41" s="78">
-        <v>2.8330000000000002</v>
+      <c r="AR41" s="54">
+        <v>11</v>
+      </c>
+      <c r="AS41" s="54">
+        <f t="shared" si="5"/>
+        <v>3.7720000000000002</v>
+      </c>
+      <c r="AT41" s="54">
+        <f t="shared" si="17"/>
+        <v>3.7720000000000002</v>
+      </c>
+      <c r="AU41" s="54">
+        <v>0</v>
+      </c>
+      <c r="AV41" s="54">
+        <v>0</v>
+      </c>
+      <c r="AW41" s="54">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AX41" s="54">
+        <v>0</v>
+      </c>
+      <c r="AY41" s="54">
+        <v>2.8330000000000002</v>
+      </c>
+      <c r="AZ41" s="54">
+        <v>3.1160000000000001</v>
+      </c>
+      <c r="BA41" s="54">
+        <f t="shared" si="7"/>
+        <v>2.8330000000000002</v>
+      </c>
+      <c r="BB41" s="54">
+        <v>2.8330000000000002</v>
+      </c>
+      <c r="BD41" s="20">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BE41" s="20">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BG41" s="20">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="BH41" s="20">
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A42" s="69">
         <v>43584</v>
       </c>
@@ -26213,34 +31479,179 @@
         <v>3.9449999999999998</v>
       </c>
       <c r="F42" s="54">
-        <v>2.8330000000000002</v>
-      </c>
-      <c r="G42" s="78">
-        <v>2.8330000000000002</v>
-      </c>
-      <c r="I42" s="69">
+        <v>0</v>
+      </c>
+      <c r="G42" s="54">
+        <v>0</v>
+      </c>
+      <c r="H42" s="54">
+        <v>2.8330000000000002</v>
+      </c>
+      <c r="I42" s="78">
+        <v>2.8330000000000002</v>
+      </c>
+      <c r="K42" s="82">
+        <f t="shared" si="0"/>
+        <v>13.833</v>
+      </c>
+      <c r="L42" s="20">
+        <f t="shared" si="0"/>
+        <v>6.7780000000000005</v>
+      </c>
+      <c r="M42" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N42" s="65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P42" s="82">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="Q42" s="20">
+        <f t="shared" si="10"/>
+        <v>11</v>
+      </c>
+      <c r="R42" s="20">
+        <f t="shared" si="2"/>
+        <v>3.9449999999999998</v>
+      </c>
+      <c r="S42" s="20">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="T42" s="20">
+        <f t="shared" si="3"/>
+        <v>2.8330000000000002</v>
+      </c>
+      <c r="U42" s="20">
+        <f t="shared" si="12"/>
+        <v>3.1160000000000001</v>
+      </c>
+      <c r="V42" s="20">
+        <f t="shared" si="4"/>
+        <v>2.8330000000000002</v>
+      </c>
+      <c r="W42" s="65">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Y42" s="82">
+        <f t="shared" si="14"/>
+        <v>13.833</v>
+      </c>
+      <c r="Z42" s="20">
+        <f t="shared" si="14"/>
+        <v>14.116</v>
+      </c>
+      <c r="AA42" s="65">
+        <f t="shared" si="14"/>
+        <v>6.7780000000000005</v>
+      </c>
+      <c r="AC42" s="93" t="str">
+        <f t="shared" si="15"/>
+        <v>2.3</v>
+      </c>
+      <c r="AD42" s="20">
+        <f t="shared" si="28"/>
+        <v>3.9450000000000003</v>
+      </c>
+      <c r="AE42" s="65">
+        <f t="shared" si="29"/>
+        <v>2.8330000000000002</v>
+      </c>
+      <c r="AG42" s="82">
+        <f t="shared" si="23"/>
+        <v>3.9450000000000003</v>
+      </c>
+      <c r="AH42" s="20">
+        <f t="shared" si="18"/>
+        <v>2.8330000000000002</v>
+      </c>
+      <c r="AI42" s="20">
+        <f t="shared" si="19"/>
+        <v>348.59999999999997</v>
+      </c>
+      <c r="AJ42" s="65">
+        <f t="shared" si="20"/>
+        <v>85</v>
+      </c>
+      <c r="AL42" s="53">
         <v>43584</v>
       </c>
-      <c r="J42" s="54">
-        <v>0</v>
-      </c>
-      <c r="K42" s="54">
-        <v>0</v>
-      </c>
-      <c r="L42" s="54">
+      <c r="AM42" s="54">
+        <v>0</v>
+      </c>
+      <c r="AN42" s="54">
+        <v>0</v>
+      </c>
+      <c r="AO42" s="54">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AP42" s="54">
+        <v>0</v>
+      </c>
+      <c r="AQ42" s="54">
         <v>11</v>
       </c>
-      <c r="M42" s="54">
-        <v>3.9449999999999998</v>
-      </c>
-      <c r="N42" s="54">
-        <v>2.8330000000000002</v>
-      </c>
-      <c r="O42" s="78">
-        <v>2.8330000000000002</v>
+      <c r="AR42" s="54">
+        <v>11</v>
+      </c>
+      <c r="AS42" s="54">
+        <f t="shared" si="5"/>
+        <v>3.9450000000000003</v>
+      </c>
+      <c r="AT42" s="54">
+        <f t="shared" si="17"/>
+        <v>3.9450000000000003</v>
+      </c>
+      <c r="AU42" s="54">
+        <v>0</v>
+      </c>
+      <c r="AV42" s="54">
+        <v>0</v>
+      </c>
+      <c r="AW42" s="54">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AX42" s="54">
+        <v>0</v>
+      </c>
+      <c r="AY42" s="54">
+        <v>2.8330000000000002</v>
+      </c>
+      <c r="AZ42" s="54">
+        <v>3.1160000000000001</v>
+      </c>
+      <c r="BA42" s="54">
+        <f t="shared" si="7"/>
+        <v>2.8330000000000002</v>
+      </c>
+      <c r="BB42" s="54">
+        <v>2.8330000000000002</v>
+      </c>
+      <c r="BD42" s="20">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BE42" s="20">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BG42" s="20">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="BH42" s="20">
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A43" s="69">
         <v>43585</v>
       </c>
@@ -26257,113 +31668,613 @@
         <v>2.7120000000000002</v>
       </c>
       <c r="F43" s="54">
-        <v>2.8330000000000002</v>
-      </c>
-      <c r="G43" s="78">
-        <v>2.8330000000000002</v>
-      </c>
-      <c r="I43" s="69">
+        <v>0</v>
+      </c>
+      <c r="G43" s="54">
+        <v>0</v>
+      </c>
+      <c r="H43" s="54">
+        <v>2.8330000000000002</v>
+      </c>
+      <c r="I43" s="78">
+        <v>2.8330000000000002</v>
+      </c>
+      <c r="K43" s="82">
+        <f t="shared" si="0"/>
+        <v>13.833</v>
+      </c>
+      <c r="L43" s="20">
+        <f t="shared" si="0"/>
+        <v>5.5449999999999999</v>
+      </c>
+      <c r="M43" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N43" s="65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P43" s="82">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="Q43" s="20">
+        <f t="shared" si="10"/>
+        <v>11</v>
+      </c>
+      <c r="R43" s="20">
+        <f t="shared" si="2"/>
+        <v>2.7120000000000002</v>
+      </c>
+      <c r="S43" s="20">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="T43" s="20">
+        <f t="shared" si="3"/>
+        <v>2.8330000000000002</v>
+      </c>
+      <c r="U43" s="20">
+        <f t="shared" si="12"/>
+        <v>3.1160000000000001</v>
+      </c>
+      <c r="V43" s="20">
+        <f t="shared" si="4"/>
+        <v>2.8330000000000002</v>
+      </c>
+      <c r="W43" s="65">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Y43" s="82">
+        <f t="shared" si="14"/>
+        <v>13.833</v>
+      </c>
+      <c r="Z43" s="20">
+        <f t="shared" si="14"/>
+        <v>14.116</v>
+      </c>
+      <c r="AA43" s="65">
+        <f t="shared" si="14"/>
+        <v>5.5449999999999999</v>
+      </c>
+      <c r="AC43" s="93" t="str">
+        <f t="shared" si="15"/>
+        <v>2.3</v>
+      </c>
+      <c r="AD43" s="20">
+        <f t="shared" si="28"/>
+        <v>2.7119999999999997</v>
+      </c>
+      <c r="AE43" s="65">
+        <f t="shared" si="29"/>
+        <v>2.8330000000000002</v>
+      </c>
+      <c r="AG43" s="82">
+        <f t="shared" si="23"/>
+        <v>2.7119999999999997</v>
+      </c>
+      <c r="AH43" s="20">
+        <f t="shared" si="18"/>
+        <v>2.8330000000000002</v>
+      </c>
+      <c r="AI43" s="20">
+        <f t="shared" si="19"/>
+        <v>348.59999999999997</v>
+      </c>
+      <c r="AJ43" s="65">
+        <f t="shared" si="20"/>
+        <v>85</v>
+      </c>
+      <c r="AL43" s="53">
         <v>43585</v>
       </c>
-      <c r="J43" s="54">
-        <v>0</v>
-      </c>
-      <c r="K43" s="54">
-        <v>0</v>
-      </c>
-      <c r="L43" s="54">
+      <c r="AM43" s="54">
+        <v>0</v>
+      </c>
+      <c r="AN43" s="54">
+        <v>0</v>
+      </c>
+      <c r="AO43" s="54">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AP43" s="54">
+        <v>0</v>
+      </c>
+      <c r="AQ43" s="54">
         <v>11</v>
       </c>
-      <c r="M43" s="54">
-        <v>2.7120000000000002</v>
-      </c>
-      <c r="N43" s="54">
-        <v>2.8330000000000002</v>
-      </c>
-      <c r="O43" s="78">
-        <v>2.8330000000000002</v>
+      <c r="AR43" s="54">
+        <v>11</v>
+      </c>
+      <c r="AS43" s="54">
+        <f t="shared" si="5"/>
+        <v>2.7119999999999997</v>
+      </c>
+      <c r="AT43" s="54">
+        <f t="shared" si="17"/>
+        <v>2.7119999999999997</v>
+      </c>
+      <c r="AU43" s="54">
+        <v>0</v>
+      </c>
+      <c r="AV43" s="54">
+        <v>0</v>
+      </c>
+      <c r="AW43" s="54">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AX43" s="54">
+        <v>0</v>
+      </c>
+      <c r="AY43" s="54">
+        <v>2.8330000000000002</v>
+      </c>
+      <c r="AZ43" s="54">
+        <v>3.1160000000000001</v>
+      </c>
+      <c r="BA43" s="54">
+        <f t="shared" si="7"/>
+        <v>2.8330000000000002</v>
+      </c>
+      <c r="BB43" s="54">
+        <v>2.8330000000000002</v>
+      </c>
+      <c r="BD43" s="20">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BE43" s="20">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BG43" s="20">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="BH43" s="20">
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A44" s="68"/>
       <c r="B44" s="55"/>
       <c r="C44" s="55"/>
       <c r="D44" s="55"/>
       <c r="E44" s="55"/>
       <c r="F44" s="55"/>
-      <c r="G44" s="79"/>
-      <c r="I44" s="68"/>
-      <c r="J44" s="55"/>
-      <c r="K44" s="55"/>
-      <c r="L44" s="55"/>
-      <c r="M44" s="55"/>
-      <c r="N44" s="55"/>
-      <c r="O44" s="79"/>
+      <c r="G44" s="55"/>
+      <c r="H44" s="55"/>
+      <c r="I44" s="79"/>
+      <c r="K44" s="82">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L44" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M44" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N44" s="65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P44" s="82">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q44" s="20">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R44" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S44" s="20">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="T44" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U44" s="20">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="V44" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W44" s="65">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Y44" s="82">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Z44" s="20">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AA44" s="65">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AC44" s="93"/>
+      <c r="AD44" s="18"/>
+      <c r="AE44" s="59"/>
+      <c r="AG44" s="58"/>
+      <c r="AH44" s="18"/>
+      <c r="AI44" s="18"/>
+      <c r="AJ44" s="59"/>
+      <c r="AL44" s="48"/>
+      <c r="AM44" s="55"/>
+      <c r="AN44" s="55"/>
+      <c r="AO44" s="55"/>
+      <c r="AP44" s="55"/>
+      <c r="AQ44" s="55"/>
+      <c r="AR44" s="55"/>
+      <c r="AS44" s="55"/>
+      <c r="AT44" s="55"/>
+      <c r="AU44" s="55"/>
+      <c r="AV44" s="55"/>
+      <c r="AW44" s="55"/>
+      <c r="AX44" s="55"/>
+      <c r="AY44" s="55"/>
+      <c r="AZ44" s="55"/>
+      <c r="BA44" s="55"/>
+      <c r="BB44" s="55"/>
+      <c r="BD44" s="20">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BE44" s="20">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BG44" s="20">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="BH44" s="20">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="45" spans="1:15" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:60" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="70"/>
       <c r="B45" s="71">
         <f>SUM(B14:B44)</f>
         <v>20.000000000000004</v>
       </c>
       <c r="C45" s="71">
-        <f t="shared" ref="C45:G45" si="0">SUM(C14:C44)</f>
+        <f t="shared" ref="C45:I45" si="30">SUM(C14:C44)</f>
         <v>15.499000000000001</v>
       </c>
       <c r="D45" s="71">
-        <f t="shared" si="0"/>
+        <f t="shared" si="30"/>
         <v>380</v>
       </c>
       <c r="E45" s="71">
-        <f t="shared" si="0"/>
+        <f t="shared" si="30"/>
         <v>303.86399999999992</v>
       </c>
       <c r="F45" s="71">
-        <f t="shared" si="0"/>
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="G45" s="71">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="H45" s="71">
+        <f t="shared" si="30"/>
         <v>85</v>
       </c>
-      <c r="G45" s="80">
-        <f t="shared" si="0"/>
+      <c r="I45" s="80">
+        <f t="shared" si="30"/>
         <v>114.23700000000001</v>
       </c>
-      <c r="I45" s="70"/>
-      <c r="J45" s="71">
-        <f>SUM(J14:J44)</f>
+      <c r="K45" s="83">
+        <f t="shared" si="0"/>
+        <v>465</v>
+      </c>
+      <c r="L45" s="21">
+        <f t="shared" si="0"/>
+        <v>418.10099999999994</v>
+      </c>
+      <c r="M45" s="21">
+        <f t="shared" si="0"/>
         <v>20.000000000000004</v>
       </c>
-      <c r="K45" s="71">
-        <f t="shared" ref="K45:O45" si="1">SUM(K14:K44)</f>
+      <c r="N45" s="84">
+        <f t="shared" si="0"/>
         <v>15.499000000000001</v>
       </c>
-      <c r="L45" s="71">
+      <c r="P45" s="83">
         <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+      <c r="Q45" s="20"/>
+      <c r="R45" s="21">
+        <f t="shared" si="2"/>
+        <v>319.36299999999994</v>
+      </c>
+      <c r="S45" s="20"/>
+      <c r="T45" s="21">
+        <f t="shared" si="3"/>
+        <v>85</v>
+      </c>
+      <c r="U45" s="20"/>
+      <c r="V45" s="21">
+        <f t="shared" si="4"/>
+        <v>114.23700000000001</v>
+      </c>
+      <c r="W45" s="65"/>
+      <c r="Y45" s="82">
+        <f t="shared" si="14"/>
+        <v>485</v>
+      </c>
+      <c r="Z45" s="20"/>
+      <c r="AA45" s="65">
+        <f t="shared" si="14"/>
+        <v>433.59999999999997</v>
+      </c>
+      <c r="AC45" s="58"/>
+      <c r="AD45" s="18"/>
+      <c r="AE45" s="59"/>
+      <c r="AG45" s="58"/>
+      <c r="AH45" s="18"/>
+      <c r="AI45" s="18"/>
+      <c r="AJ45" s="59"/>
+      <c r="AL45" s="56"/>
+      <c r="AM45" s="57">
+        <f>SUM(AM14:AM44)</f>
+        <v>20.000000000000004</v>
+      </c>
+      <c r="AN45" s="57">
+        <f t="shared" ref="AN45:BB45" si="31">SUM(AN14:AN44)</f>
+        <v>20.000000000000004</v>
+      </c>
+      <c r="AO45" s="57">
+        <f t="shared" si="31"/>
+        <v>12.843420200715473</v>
+      </c>
+      <c r="AP45" s="57">
+        <f t="shared" si="31"/>
+        <v>15.499000000000001</v>
+      </c>
+      <c r="AQ45" s="57">
+        <f t="shared" si="31"/>
         <v>380</v>
       </c>
-      <c r="M45" s="71">
-        <f t="shared" si="1"/>
-        <v>303.86399999999992</v>
-      </c>
-      <c r="N45" s="71">
-        <f t="shared" si="1"/>
+      <c r="AR45" s="57">
+        <f t="shared" si="31"/>
+        <v>380</v>
+      </c>
+      <c r="AS45" s="57">
+        <f t="shared" si="31"/>
+        <v>335.75657979928434</v>
+      </c>
+      <c r="AT45" s="57">
+        <f t="shared" si="31"/>
+        <v>333.10099999999989</v>
+      </c>
+      <c r="AU45" s="57">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AV45" s="57">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AW45" s="57">
+        <f t="shared" si="31"/>
+        <v>2.6555797992845251</v>
+      </c>
+      <c r="AX45" s="57">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AY45" s="57">
+        <f t="shared" si="31"/>
         <v>85</v>
       </c>
-      <c r="O45" s="80">
-        <f t="shared" si="1"/>
+      <c r="AZ45" s="57">
+        <f t="shared" si="31"/>
+        <v>93.49</v>
+      </c>
+      <c r="BA45" s="57">
+        <f t="shared" si="31"/>
+        <v>82.344420200715462</v>
+      </c>
+      <c r="BB45" s="57">
+        <f t="shared" si="31"/>
+        <v>84.999999999999986</v>
+      </c>
+      <c r="BD45" s="21">
+        <f t="shared" ref="BD45:BE45" si="32">SUM(BD14:BD44)</f>
+        <v>1.7763568394002505E-15</v>
+      </c>
+      <c r="BE45" s="21">
+        <f t="shared" si="32"/>
+        <v>25.323</v>
+      </c>
+      <c r="BG45" s="21">
+        <f t="shared" ref="BG45:BH45" si="33">SUM(BG14:BG44)</f>
+        <v>0</v>
+      </c>
+      <c r="BH45" s="21">
+        <f t="shared" si="33"/>
+        <v>25.323000000000004</v>
+      </c>
+    </row>
+    <row r="46" spans="1:60" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K46" s="85">
+        <f>SUM(K14:K44)</f>
+        <v>465.00000000000034</v>
+      </c>
+      <c r="L46" s="62">
+        <f t="shared" ref="L46:N46" si="34">SUM(L14:L44)</f>
+        <v>418.101</v>
+      </c>
+      <c r="M46" s="62">
+        <f t="shared" si="34"/>
+        <v>20.000000000000004</v>
+      </c>
+      <c r="N46" s="63">
+        <f t="shared" si="34"/>
+        <v>15.499000000000001</v>
+      </c>
+      <c r="P46" s="85">
+        <f>SUM(P14:P44)</f>
+        <v>400.00000000000006</v>
+      </c>
+      <c r="Q46" s="62"/>
+      <c r="R46" s="62">
+        <f t="shared" ref="R46:W46" si="35">SUM(R14:R44)</f>
+        <v>319.36299999999989</v>
+      </c>
+      <c r="S46" s="62">
+        <f t="shared" si="35"/>
+        <v>0.13399999999999856</v>
+      </c>
+      <c r="T46" s="62">
+        <f t="shared" si="35"/>
+        <v>85</v>
+      </c>
+      <c r="U46" s="62"/>
+      <c r="V46" s="62">
+        <f t="shared" si="35"/>
         <v>114.23700000000001</v>
+      </c>
+      <c r="W46" s="63">
+        <f t="shared" si="35"/>
+        <v>26.123999999999999</v>
+      </c>
+      <c r="Y46" s="85">
+        <f>SUM(Y14:Y44)</f>
+        <v>485.00000000000034</v>
+      </c>
+      <c r="Z46" s="62"/>
+      <c r="AA46" s="63">
+        <f t="shared" ref="AA46" si="36">SUM(AA14:AA44)</f>
+        <v>433.60000000000014</v>
+      </c>
+      <c r="AC46" s="94"/>
+      <c r="AD46" s="62">
+        <f>SUM(AD14:AD44)</f>
+        <v>320.16399999999993</v>
+      </c>
+      <c r="AE46" s="63">
+        <f>SUM(AE14:AE44)</f>
+        <v>113.43599999999999</v>
+      </c>
+      <c r="AF46" s="12"/>
+      <c r="AG46" s="85">
+        <f t="shared" ref="AG46:AH46" si="37">SUM(AG14:AG44)</f>
+        <v>348.6</v>
+      </c>
+      <c r="AH46" s="62">
+        <f t="shared" si="37"/>
+        <v>84.999999999999986</v>
+      </c>
+      <c r="AI46" s="96"/>
+      <c r="AJ46" s="97"/>
+    </row>
+    <row r="50" spans="29:34" x14ac:dyDescent="0.2">
+      <c r="AC50" s="98" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD50" s="98"/>
+      <c r="AG50" s="98" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH50" s="98"/>
+    </row>
+    <row r="51" spans="29:34" x14ac:dyDescent="0.2">
+      <c r="AC51" s="99" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD51" s="98" t="b">
+        <f>AD46&gt;P46</f>
+        <v>0</v>
+      </c>
+      <c r="AG51" s="99" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH51" s="98" t="b">
+        <f>AG46&gt;P46</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="29:34" x14ac:dyDescent="0.2">
+      <c r="AC52" s="98" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD52" s="98" t="b">
+        <f>AND(AE46&gt;T46,AD46&lt;P46)</f>
+        <v>1</v>
+      </c>
+      <c r="AG52" s="98" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH52" s="98" t="b">
+        <f>AND(AH46&gt;T46,AG46&lt;P46)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="29:34" x14ac:dyDescent="0.2">
+      <c r="AC53" s="98" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD53" s="98" t="b">
+        <f>AND(AE46&lt;T46,AD46&gt;0)</f>
+        <v>0</v>
+      </c>
+      <c r="AG53" s="98" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH53" s="98" t="b">
+        <f>AND(AH46&lt;T46,AG46&gt;0)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="I1:O1"/>
-    <mergeCell ref="J3:O3"/>
-    <mergeCell ref="J11:M11"/>
-    <mergeCell ref="N11:O11"/>
+  <mergeCells count="20">
+    <mergeCell ref="AM8:AT8"/>
+    <mergeCell ref="AU8:BB8"/>
+    <mergeCell ref="AM9:AT9"/>
+    <mergeCell ref="AU9:BB9"/>
     <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="AM11:AT11"/>
+    <mergeCell ref="AU11:BB11"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="AM3:BA3"/>
+    <mergeCell ref="AM6:AP6"/>
+    <mergeCell ref="AQ6:AT6"/>
+    <mergeCell ref="AU6:AX6"/>
+    <mergeCell ref="AY6:BB6"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="P1:W1"/>
+    <mergeCell ref="Y1:AA1"/>
+    <mergeCell ref="AC1:AE1"/>
+    <mergeCell ref="AG1:AJ1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/GasDist/Examples/Автотор V8.xlsx
+++ b/GasDist/Examples/Автотор V8.xlsx
@@ -18,7 +18,7 @@
     <sheet name="Автотор-энерго v.8" sheetId="5" r:id="rId4"/>
     <sheet name="Автотор-энерго v.8 (2)" sheetId="8" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" refMode="R1C1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -427,7 +427,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="46">
+  <borders count="40">
     <border>
       <left/>
       <right/>
@@ -754,11 +754,11 @@
     </border>
     <border>
       <left style="medium">
-        <color theme="4"/>
+        <color theme="3" tint="0.59999389629810485"/>
       </left>
       <right/>
       <top style="medium">
-        <color theme="4"/>
+        <color theme="3" tint="0.59999389629810485"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -767,7 +767,7 @@
       <left/>
       <right/>
       <top style="medium">
-        <color theme="4"/>
+        <color theme="3" tint="0.59999389629810485"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -775,17 +775,17 @@
     <border>
       <left/>
       <right style="medium">
-        <color theme="4"/>
+        <color theme="3" tint="0.59999389629810485"/>
       </right>
       <top style="medium">
-        <color theme="4"/>
+        <color theme="3" tint="0.59999389629810485"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color theme="4"/>
+        <color theme="3" tint="0.59999389629810485"/>
       </left>
       <right/>
       <top/>
@@ -795,15 +795,61 @@
     <border>
       <left/>
       <right style="medium">
-        <color theme="4"/>
+        <color theme="3" tint="0.59999389629810485"/>
       </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB3AC86"/>
+      </left>
+      <right style="medium">
+        <color theme="3" tint="0.59999389629810485"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB3AC86"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB3AC86"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
-        <color theme="4"/>
+        <color theme="3" tint="0.59999389629810485"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="3" tint="0.59999389629810485"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="3" tint="0.59999389629810485"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="3" tint="0.59999389629810485"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="3" tint="0.59999389629810485"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="3" tint="0.59999389629810485"/>
       </left>
       <right style="thin">
         <color rgb="FFB3AC86"/>
@@ -817,103 +863,38 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color theme="3" tint="0.59999389629810485"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-9.9948118533890809E-2"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-9.9948118533890809E-2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9948118533890809E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB3AC86"/>
+        <color theme="2" tint="-9.9948118533890809E-2"/>
       </left>
       <right style="medium">
-        <color theme="4"/>
+        <color theme="3" tint="0.59999389629810485"/>
       </right>
       <top style="thin">
-        <color rgb="FFB3AC86"/>
+        <color theme="2" tint="-9.9948118533890809E-2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB3AC86"/>
+        <color theme="2" tint="-9.9948118533890809E-2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color theme="4"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color theme="4"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="3"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color theme="3"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color theme="3"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color theme="3"/>
-      </right>
-      <top style="medium">
-        <color theme="3"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="3"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color theme="3"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="3"/>
+        <color theme="3" tint="0.59999389629810485"/>
       </left>
       <right style="thin">
         <color rgb="FFB3AC86"/>
@@ -921,9 +902,7 @@
       <top style="thin">
         <color rgb="FFB3AC86"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB3AC86"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -931,52 +910,19 @@
         <color rgb="FFB3AC86"/>
       </left>
       <right style="medium">
-        <color theme="3"/>
+        <color theme="3" tint="0.59999389629810485"/>
       </right>
       <top style="thin">
         <color rgb="FFB3AC86"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB3AC86"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="3"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="3"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="3"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color theme="3"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color theme="3"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="153">
+  <cellXfs count="166">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1184,52 +1130,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1275,9 +1178,6 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1302,6 +1202,97 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -5861,41 +5852,41 @@
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="129" t="s">
+      <c r="B1" s="100" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
-      <c r="E1" s="130"/>
-      <c r="F1" s="130"/>
-      <c r="G1" s="130"/>
-      <c r="H1" s="130"/>
-      <c r="I1" s="130"/>
-      <c r="J1" s="130"/>
-      <c r="K1" s="130"/>
-      <c r="L1" s="130"/>
-      <c r="M1" s="131"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="101"/>
+      <c r="I1" s="101"/>
+      <c r="J1" s="101"/>
+      <c r="K1" s="101"/>
+      <c r="L1" s="101"/>
+      <c r="M1" s="102"/>
       <c r="AS1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="AT1" s="135" t="s">
+      <c r="AT1" s="106" t="s">
         <v>43</v>
       </c>
-      <c r="AU1" s="135"/>
-      <c r="AV1" s="135"/>
-      <c r="AW1" s="135"/>
-      <c r="AX1" s="135"/>
-      <c r="AY1" s="135"/>
-      <c r="AZ1" s="135"/>
-      <c r="BA1" s="135"/>
-      <c r="BB1" s="135"/>
-      <c r="BC1" s="135"/>
-      <c r="BD1" s="135"/>
-      <c r="BE1" s="135"/>
-      <c r="BF1" s="135"/>
-      <c r="BG1" s="135"/>
-      <c r="BH1" s="135"/>
-      <c r="BI1" s="135"/>
+      <c r="AU1" s="106"/>
+      <c r="AV1" s="106"/>
+      <c r="AW1" s="106"/>
+      <c r="AX1" s="106"/>
+      <c r="AY1" s="106"/>
+      <c r="AZ1" s="106"/>
+      <c r="BA1" s="106"/>
+      <c r="BB1" s="106"/>
+      <c r="BC1" s="106"/>
+      <c r="BD1" s="106"/>
+      <c r="BE1" s="106"/>
+      <c r="BF1" s="106"/>
+      <c r="BG1" s="106"/>
+      <c r="BH1" s="106"/>
+      <c r="BI1" s="106"/>
       <c r="BJ1" s="49"/>
     </row>
     <row r="2" spans="1:68" x14ac:dyDescent="0.2">
@@ -6147,31 +6138,31 @@
       <c r="AS4" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="AT4" s="136" t="s">
+      <c r="AT4" s="107" t="s">
         <v>45</v>
       </c>
-      <c r="AU4" s="136"/>
-      <c r="AV4" s="136"/>
-      <c r="AW4" s="136"/>
-      <c r="AX4" s="136" t="s">
+      <c r="AU4" s="107"/>
+      <c r="AV4" s="107"/>
+      <c r="AW4" s="107"/>
+      <c r="AX4" s="107" t="s">
         <v>53</v>
       </c>
-      <c r="AY4" s="136"/>
-      <c r="AZ4" s="136"/>
-      <c r="BA4" s="136"/>
-      <c r="BB4" s="136"/>
-      <c r="BC4" s="136" t="s">
+      <c r="AY4" s="107"/>
+      <c r="AZ4" s="107"/>
+      <c r="BA4" s="107"/>
+      <c r="BB4" s="107"/>
+      <c r="BC4" s="107" t="s">
         <v>45</v>
       </c>
-      <c r="BD4" s="136"/>
-      <c r="BE4" s="136"/>
-      <c r="BF4" s="136"/>
-      <c r="BG4" s="136" t="s">
+      <c r="BD4" s="107"/>
+      <c r="BE4" s="107"/>
+      <c r="BF4" s="107"/>
+      <c r="BG4" s="107" t="s">
         <v>53</v>
       </c>
-      <c r="BH4" s="136"/>
-      <c r="BI4" s="136"/>
-      <c r="BJ4" s="136"/>
+      <c r="BH4" s="107"/>
+      <c r="BI4" s="107"/>
+      <c r="BJ4" s="107"/>
       <c r="BL4" s="18"/>
       <c r="BM4" s="18"/>
       <c r="BO4" s="18"/>
@@ -6353,27 +6344,27 @@
       <c r="AS6" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="AT6" s="137">
+      <c r="AT6" s="108">
         <v>3</v>
       </c>
-      <c r="AU6" s="137"/>
-      <c r="AV6" s="137"/>
-      <c r="AW6" s="137"/>
-      <c r="AX6" s="137"/>
-      <c r="AY6" s="137"/>
-      <c r="AZ6" s="137"/>
-      <c r="BA6" s="137"/>
-      <c r="BB6" s="137"/>
-      <c r="BC6" s="137">
+      <c r="AU6" s="108"/>
+      <c r="AV6" s="108"/>
+      <c r="AW6" s="108"/>
+      <c r="AX6" s="108"/>
+      <c r="AY6" s="108"/>
+      <c r="AZ6" s="108"/>
+      <c r="BA6" s="108"/>
+      <c r="BB6" s="108"/>
+      <c r="BC6" s="108">
         <v>4</v>
       </c>
-      <c r="BD6" s="137"/>
-      <c r="BE6" s="137"/>
-      <c r="BF6" s="137"/>
-      <c r="BG6" s="137"/>
-      <c r="BH6" s="137"/>
-      <c r="BI6" s="137"/>
-      <c r="BJ6" s="137"/>
+      <c r="BD6" s="108"/>
+      <c r="BE6" s="108"/>
+      <c r="BF6" s="108"/>
+      <c r="BG6" s="108"/>
+      <c r="BH6" s="108"/>
+      <c r="BI6" s="108"/>
+      <c r="BJ6" s="108"/>
       <c r="BL6" s="18"/>
       <c r="BM6" s="18"/>
       <c r="BO6" s="18"/>
@@ -6436,27 +6427,27 @@
       <c r="AS7" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="AT7" s="137">
+      <c r="AT7" s="108">
         <v>4</v>
       </c>
-      <c r="AU7" s="137"/>
-      <c r="AV7" s="137"/>
-      <c r="AW7" s="137"/>
-      <c r="AX7" s="137"/>
-      <c r="AY7" s="137"/>
-      <c r="AZ7" s="137"/>
-      <c r="BA7" s="137"/>
-      <c r="BB7" s="137"/>
-      <c r="BC7" s="137">
+      <c r="AU7" s="108"/>
+      <c r="AV7" s="108"/>
+      <c r="AW7" s="108"/>
+      <c r="AX7" s="108"/>
+      <c r="AY7" s="108"/>
+      <c r="AZ7" s="108"/>
+      <c r="BA7" s="108"/>
+      <c r="BB7" s="108"/>
+      <c r="BC7" s="108">
         <v>3</v>
       </c>
-      <c r="BD7" s="137"/>
-      <c r="BE7" s="137"/>
-      <c r="BF7" s="137"/>
-      <c r="BG7" s="137"/>
-      <c r="BH7" s="137"/>
-      <c r="BI7" s="137"/>
-      <c r="BJ7" s="137"/>
+      <c r="BD7" s="108"/>
+      <c r="BE7" s="108"/>
+      <c r="BF7" s="108"/>
+      <c r="BG7" s="108"/>
+      <c r="BH7" s="108"/>
+      <c r="BI7" s="108"/>
+      <c r="BJ7" s="108"/>
       <c r="BL7" s="18"/>
       <c r="BM7" s="18"/>
       <c r="BO7" s="18"/>
@@ -6567,48 +6558,48 @@
       <c r="A9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="132" t="s">
+      <c r="B9" s="103" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="133"/>
-      <c r="D9" s="133"/>
-      <c r="E9" s="133"/>
-      <c r="F9" s="133"/>
-      <c r="G9" s="134"/>
-      <c r="H9" s="132" t="s">
+      <c r="C9" s="104"/>
+      <c r="D9" s="104"/>
+      <c r="E9" s="104"/>
+      <c r="F9" s="104"/>
+      <c r="G9" s="105"/>
+      <c r="H9" s="103" t="s">
         <v>56</v>
       </c>
-      <c r="I9" s="133"/>
-      <c r="J9" s="133"/>
-      <c r="K9" s="133"/>
-      <c r="L9" s="133"/>
-      <c r="M9" s="134"/>
+      <c r="I9" s="104"/>
+      <c r="J9" s="104"/>
+      <c r="K9" s="104"/>
+      <c r="L9" s="104"/>
+      <c r="M9" s="105"/>
       <c r="O9" s="18"/>
       <c r="P9" s="18"/>
       <c r="AS9" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="AT9" s="136" t="s">
+      <c r="AT9" s="107" t="s">
         <v>48</v>
       </c>
-      <c r="AU9" s="136"/>
-      <c r="AV9" s="136"/>
-      <c r="AW9" s="136"/>
-      <c r="AX9" s="136"/>
-      <c r="AY9" s="136"/>
-      <c r="AZ9" s="136"/>
-      <c r="BA9" s="136"/>
-      <c r="BB9" s="136"/>
-      <c r="BC9" s="136" t="s">
+      <c r="AU9" s="107"/>
+      <c r="AV9" s="107"/>
+      <c r="AW9" s="107"/>
+      <c r="AX9" s="107"/>
+      <c r="AY9" s="107"/>
+      <c r="AZ9" s="107"/>
+      <c r="BA9" s="107"/>
+      <c r="BB9" s="107"/>
+      <c r="BC9" s="107" t="s">
         <v>56</v>
       </c>
-      <c r="BD9" s="136"/>
-      <c r="BE9" s="136"/>
-      <c r="BF9" s="136"/>
-      <c r="BG9" s="136"/>
-      <c r="BH9" s="136"/>
-      <c r="BI9" s="136"/>
-      <c r="BJ9" s="136"/>
+      <c r="BD9" s="107"/>
+      <c r="BE9" s="107"/>
+      <c r="BF9" s="107"/>
+      <c r="BG9" s="107"/>
+      <c r="BH9" s="107"/>
+      <c r="BI9" s="107"/>
+      <c r="BJ9" s="107"/>
       <c r="BL9" s="18"/>
       <c r="BM9" s="18"/>
       <c r="BO9" s="18"/>
@@ -13766,20 +13757,20 @@
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="138" t="s">
+      <c r="B1" s="109" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="139"/>
-      <c r="D1" s="139"/>
-      <c r="E1" s="139"/>
-      <c r="F1" s="139"/>
-      <c r="G1" s="139"/>
-      <c r="H1" s="139"/>
-      <c r="I1" s="139"/>
-      <c r="J1" s="139"/>
-      <c r="K1" s="139"/>
-      <c r="L1" s="139"/>
-      <c r="M1" s="140"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="110"/>
+      <c r="M1" s="111"/>
       <c r="N1"/>
       <c r="Q1"/>
       <c r="X1" s="28"/>
@@ -14252,22 +14243,22 @@
       <c r="A9" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="141" t="s">
+      <c r="B9" s="112" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="142"/>
-      <c r="D9" s="142"/>
-      <c r="E9" s="142"/>
-      <c r="F9" s="142"/>
-      <c r="G9" s="143"/>
-      <c r="H9" s="141" t="s">
+      <c r="C9" s="113"/>
+      <c r="D9" s="113"/>
+      <c r="E9" s="113"/>
+      <c r="F9" s="113"/>
+      <c r="G9" s="114"/>
+      <c r="H9" s="112" t="s">
         <v>56</v>
       </c>
-      <c r="I9" s="142"/>
-      <c r="J9" s="142"/>
-      <c r="K9" s="142"/>
-      <c r="L9" s="142"/>
-      <c r="M9" s="143"/>
+      <c r="I9" s="113"/>
+      <c r="J9" s="113"/>
+      <c r="K9" s="113"/>
+      <c r="L9" s="113"/>
+      <c r="M9" s="114"/>
       <c r="N9"/>
       <c r="O9" s="30"/>
       <c r="P9" s="30"/>
@@ -18098,49 +18089,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:60" x14ac:dyDescent="0.2">
-      <c r="A1" s="145" t="s">
+      <c r="A1" s="115" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="146"/>
-      <c r="C1" s="146"/>
-      <c r="D1" s="146"/>
-      <c r="E1" s="146"/>
-      <c r="F1" s="146"/>
-      <c r="G1" s="146"/>
-      <c r="H1" s="146"/>
-      <c r="I1" s="147"/>
-      <c r="K1" s="148" t="s">
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="117"/>
+      <c r="K1" s="118" t="s">
         <v>70</v>
       </c>
-      <c r="L1" s="149"/>
-      <c r="M1" s="149"/>
-      <c r="N1" s="150"/>
-      <c r="P1" s="148" t="s">
+      <c r="L1" s="119"/>
+      <c r="M1" s="119"/>
+      <c r="N1" s="120"/>
+      <c r="P1" s="118" t="s">
         <v>71</v>
       </c>
-      <c r="Q1" s="149"/>
-      <c r="R1" s="149"/>
-      <c r="S1" s="149"/>
-      <c r="T1" s="149"/>
-      <c r="U1" s="149"/>
-      <c r="V1" s="149"/>
-      <c r="W1" s="150"/>
-      <c r="Y1" s="148" t="s">
+      <c r="Q1" s="119"/>
+      <c r="R1" s="119"/>
+      <c r="S1" s="119"/>
+      <c r="T1" s="119"/>
+      <c r="U1" s="119"/>
+      <c r="V1" s="119"/>
+      <c r="W1" s="120"/>
+      <c r="Y1" s="118" t="s">
         <v>72</v>
       </c>
-      <c r="Z1" s="149"/>
-      <c r="AA1" s="150"/>
-      <c r="AC1" s="152" t="s">
+      <c r="Z1" s="119"/>
+      <c r="AA1" s="120"/>
+      <c r="AC1" s="122" t="s">
         <v>73</v>
       </c>
-      <c r="AD1" s="149"/>
-      <c r="AE1" s="150"/>
-      <c r="AG1" s="152" t="s">
+      <c r="AD1" s="119"/>
+      <c r="AE1" s="120"/>
+      <c r="AG1" s="122" t="s">
         <v>76</v>
       </c>
-      <c r="AH1" s="149"/>
-      <c r="AI1" s="149"/>
-      <c r="AJ1" s="150"/>
+      <c r="AH1" s="119"/>
+      <c r="AI1" s="119"/>
+      <c r="AJ1" s="120"/>
     </row>
     <row r="2" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A2" s="67"/>
@@ -18179,16 +18170,16 @@
       <c r="A3" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="135" t="s">
+      <c r="B3" s="106" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="135"/>
-      <c r="D3" s="135"/>
-      <c r="E3" s="135"/>
-      <c r="F3" s="135"/>
-      <c r="G3" s="135"/>
-      <c r="H3" s="135"/>
-      <c r="I3" s="151"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="106"/>
+      <c r="F3" s="106"/>
+      <c r="G3" s="106"/>
+      <c r="H3" s="106"/>
+      <c r="I3" s="121"/>
       <c r="K3" s="58"/>
       <c r="L3" s="18"/>
       <c r="M3" s="18"/>
@@ -18214,23 +18205,23 @@
       <c r="AL3" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="AM3" s="135" t="s">
+      <c r="AM3" s="106" t="s">
         <v>43</v>
       </c>
-      <c r="AN3" s="135"/>
-      <c r="AO3" s="135"/>
-      <c r="AP3" s="135"/>
-      <c r="AQ3" s="135"/>
-      <c r="AR3" s="135"/>
-      <c r="AS3" s="135"/>
-      <c r="AT3" s="135"/>
-      <c r="AU3" s="135"/>
-      <c r="AV3" s="135"/>
-      <c r="AW3" s="135"/>
-      <c r="AX3" s="135"/>
-      <c r="AY3" s="135"/>
-      <c r="AZ3" s="135"/>
-      <c r="BA3" s="135"/>
+      <c r="AN3" s="106"/>
+      <c r="AO3" s="106"/>
+      <c r="AP3" s="106"/>
+      <c r="AQ3" s="106"/>
+      <c r="AR3" s="106"/>
+      <c r="AS3" s="106"/>
+      <c r="AT3" s="106"/>
+      <c r="AU3" s="106"/>
+      <c r="AV3" s="106"/>
+      <c r="AW3" s="106"/>
+      <c r="AX3" s="106"/>
+      <c r="AY3" s="106"/>
+      <c r="AZ3" s="106"/>
+      <c r="BA3" s="106"/>
       <c r="BB3" s="49"/>
     </row>
     <row r="4" spans="1:60" x14ac:dyDescent="0.2">
@@ -18490,30 +18481,30 @@
       <c r="AL6" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="AM6" s="136" t="s">
+      <c r="AM6" s="107" t="s">
         <v>45</v>
       </c>
-      <c r="AN6" s="136"/>
-      <c r="AO6" s="136"/>
-      <c r="AP6" s="136"/>
-      <c r="AQ6" s="136" t="s">
+      <c r="AN6" s="107"/>
+      <c r="AO6" s="107"/>
+      <c r="AP6" s="107"/>
+      <c r="AQ6" s="107" t="s">
         <v>53</v>
       </c>
-      <c r="AR6" s="136"/>
-      <c r="AS6" s="136"/>
-      <c r="AT6" s="136"/>
-      <c r="AU6" s="136" t="s">
+      <c r="AR6" s="107"/>
+      <c r="AS6" s="107"/>
+      <c r="AT6" s="107"/>
+      <c r="AU6" s="107" t="s">
         <v>45</v>
       </c>
-      <c r="AV6" s="136"/>
-      <c r="AW6" s="136"/>
-      <c r="AX6" s="136"/>
-      <c r="AY6" s="136" t="s">
+      <c r="AV6" s="107"/>
+      <c r="AW6" s="107"/>
+      <c r="AX6" s="107"/>
+      <c r="AY6" s="107" t="s">
         <v>53</v>
       </c>
-      <c r="AZ6" s="136"/>
-      <c r="BA6" s="136"/>
-      <c r="BB6" s="136"/>
+      <c r="AZ6" s="107"/>
+      <c r="BA6" s="107"/>
+      <c r="BB6" s="107"/>
       <c r="BD6" s="18"/>
       <c r="BE6" s="18"/>
       <c r="BG6" s="18"/>
@@ -18694,26 +18685,26 @@
       <c r="AL8" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="AM8" s="137">
+      <c r="AM8" s="108">
         <v>3</v>
       </c>
-      <c r="AN8" s="137"/>
-      <c r="AO8" s="137"/>
-      <c r="AP8" s="137"/>
-      <c r="AQ8" s="137"/>
-      <c r="AR8" s="137"/>
-      <c r="AS8" s="137"/>
-      <c r="AT8" s="137"/>
-      <c r="AU8" s="137">
+      <c r="AN8" s="108"/>
+      <c r="AO8" s="108"/>
+      <c r="AP8" s="108"/>
+      <c r="AQ8" s="108"/>
+      <c r="AR8" s="108"/>
+      <c r="AS8" s="108"/>
+      <c r="AT8" s="108"/>
+      <c r="AU8" s="108">
         <v>4</v>
       </c>
-      <c r="AV8" s="137"/>
-      <c r="AW8" s="137"/>
-      <c r="AX8" s="137"/>
-      <c r="AY8" s="137"/>
-      <c r="AZ8" s="137"/>
-      <c r="BA8" s="137"/>
-      <c r="BB8" s="137"/>
+      <c r="AV8" s="108"/>
+      <c r="AW8" s="108"/>
+      <c r="AX8" s="108"/>
+      <c r="AY8" s="108"/>
+      <c r="AZ8" s="108"/>
+      <c r="BA8" s="108"/>
+      <c r="BB8" s="108"/>
       <c r="BD8" s="18"/>
       <c r="BE8" s="18"/>
       <c r="BG8" s="18"/>
@@ -18780,26 +18771,26 @@
       <c r="AL9" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="AM9" s="137">
+      <c r="AM9" s="108">
         <v>4</v>
       </c>
-      <c r="AN9" s="137"/>
-      <c r="AO9" s="137"/>
-      <c r="AP9" s="137"/>
-      <c r="AQ9" s="137"/>
-      <c r="AR9" s="137"/>
-      <c r="AS9" s="137"/>
-      <c r="AT9" s="137"/>
-      <c r="AU9" s="137">
+      <c r="AN9" s="108"/>
+      <c r="AO9" s="108"/>
+      <c r="AP9" s="108"/>
+      <c r="AQ9" s="108"/>
+      <c r="AR9" s="108"/>
+      <c r="AS9" s="108"/>
+      <c r="AT9" s="108"/>
+      <c r="AU9" s="108">
         <v>3</v>
       </c>
-      <c r="AV9" s="137"/>
-      <c r="AW9" s="137"/>
-      <c r="AX9" s="137"/>
-      <c r="AY9" s="137"/>
-      <c r="AZ9" s="137"/>
-      <c r="BA9" s="137"/>
-      <c r="BB9" s="137"/>
+      <c r="AV9" s="108"/>
+      <c r="AW9" s="108"/>
+      <c r="AX9" s="108"/>
+      <c r="AY9" s="108"/>
+      <c r="AZ9" s="108"/>
+      <c r="BA9" s="108"/>
+      <c r="BB9" s="108"/>
       <c r="BD9" s="18"/>
       <c r="BE9" s="18"/>
       <c r="BG9" s="18"/>
@@ -18915,18 +18906,18 @@
       <c r="A11" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="136" t="s">
+      <c r="B11" s="107" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="136"/>
-      <c r="D11" s="136"/>
-      <c r="E11" s="136"/>
-      <c r="F11" s="136" t="s">
+      <c r="C11" s="107"/>
+      <c r="D11" s="107"/>
+      <c r="E11" s="107"/>
+      <c r="F11" s="107" t="s">
         <v>56</v>
       </c>
-      <c r="G11" s="136"/>
-      <c r="H11" s="136"/>
-      <c r="I11" s="144"/>
+      <c r="G11" s="107"/>
+      <c r="H11" s="107"/>
+      <c r="I11" s="123"/>
       <c r="K11" s="58"/>
       <c r="L11" s="18"/>
       <c r="M11" s="18"/>
@@ -18952,26 +18943,26 @@
       <c r="AL11" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="AM11" s="136" t="s">
+      <c r="AM11" s="107" t="s">
         <v>48</v>
       </c>
-      <c r="AN11" s="136"/>
-      <c r="AO11" s="136"/>
-      <c r="AP11" s="136"/>
-      <c r="AQ11" s="136"/>
-      <c r="AR11" s="136"/>
-      <c r="AS11" s="136"/>
-      <c r="AT11" s="136"/>
-      <c r="AU11" s="136" t="s">
+      <c r="AN11" s="107"/>
+      <c r="AO11" s="107"/>
+      <c r="AP11" s="107"/>
+      <c r="AQ11" s="107"/>
+      <c r="AR11" s="107"/>
+      <c r="AS11" s="107"/>
+      <c r="AT11" s="107"/>
+      <c r="AU11" s="107" t="s">
         <v>56</v>
       </c>
-      <c r="AV11" s="136"/>
-      <c r="AW11" s="136"/>
-      <c r="AX11" s="136"/>
-      <c r="AY11" s="136"/>
-      <c r="AZ11" s="136"/>
-      <c r="BA11" s="136"/>
-      <c r="BB11" s="136"/>
+      <c r="AV11" s="107"/>
+      <c r="AW11" s="107"/>
+      <c r="AX11" s="107"/>
+      <c r="AY11" s="107"/>
+      <c r="AZ11" s="107"/>
+      <c r="BA11" s="107"/>
+      <c r="BB11" s="107"/>
       <c r="BD11" s="18"/>
       <c r="BE11" s="18"/>
       <c r="BG11" s="18"/>
@@ -25290,16 +25281,16 @@
       <c r="AJ46" s="96"/>
     </row>
     <row r="48" spans="1:60" ht="45" x14ac:dyDescent="0.2">
-      <c r="AP48" s="100" t="s">
+      <c r="AP48" s="99" t="s">
         <v>79</v>
       </c>
-      <c r="AT48" s="100" t="s">
+      <c r="AT48" s="99" t="s">
         <v>80</v>
       </c>
-      <c r="AX48" s="100" t="s">
+      <c r="AX48" s="99" t="s">
         <v>77</v>
       </c>
-      <c r="BB48" s="100" t="s">
+      <c r="BB48" s="99" t="s">
         <v>78</v>
       </c>
     </row>
@@ -25363,6 +25354,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="AM9:AT9"/>
+    <mergeCell ref="AU9:BB9"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="AM11:AT11"/>
+    <mergeCell ref="AU11:BB11"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="K1:N1"/>
     <mergeCell ref="P1:W1"/>
@@ -25377,12 +25374,6 @@
     <mergeCell ref="AC1:AE1"/>
     <mergeCell ref="AG1:AJ1"/>
     <mergeCell ref="AU8:BB8"/>
-    <mergeCell ref="AM9:AT9"/>
-    <mergeCell ref="AU9:BB9"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="AM11:AT11"/>
-    <mergeCell ref="AU11:BB11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -25394,8 +25385,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BO53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AP23" sqref="AP23"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="BJ15" sqref="BJ15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -25412,58 +25403,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A1" s="145" t="s">
+      <c r="A1" s="115" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="146"/>
-      <c r="C1" s="146"/>
-      <c r="D1" s="146"/>
-      <c r="E1" s="146"/>
-      <c r="F1" s="146"/>
-      <c r="G1" s="146"/>
-      <c r="H1" s="146"/>
-      <c r="I1" s="147"/>
-      <c r="K1" s="148" t="s">
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="117"/>
+      <c r="K1" s="118" t="s">
         <v>70</v>
       </c>
-      <c r="L1" s="149"/>
-      <c r="M1" s="149"/>
-      <c r="N1" s="150"/>
-      <c r="P1" s="148" t="s">
+      <c r="L1" s="119"/>
+      <c r="M1" s="119"/>
+      <c r="N1" s="120"/>
+      <c r="P1" s="118" t="s">
         <v>71</v>
       </c>
-      <c r="Q1" s="149"/>
-      <c r="R1" s="149"/>
-      <c r="S1" s="149"/>
-      <c r="T1" s="149"/>
-      <c r="U1" s="149"/>
-      <c r="V1" s="149"/>
-      <c r="W1" s="150"/>
-      <c r="AA1" s="101"/>
-      <c r="AB1" s="102"/>
-      <c r="AC1" s="102"/>
-      <c r="AD1" s="102"/>
-      <c r="AE1" s="102"/>
-      <c r="AF1" s="103"/>
-      <c r="AH1" s="148" t="s">
+      <c r="Q1" s="119"/>
+      <c r="R1" s="119"/>
+      <c r="S1" s="119"/>
+      <c r="T1" s="119"/>
+      <c r="U1" s="119"/>
+      <c r="V1" s="119"/>
+      <c r="W1" s="120"/>
+      <c r="AA1" s="136"/>
+      <c r="AB1" s="137"/>
+      <c r="AC1" s="137"/>
+      <c r="AD1" s="137"/>
+      <c r="AE1" s="137"/>
+      <c r="AF1" s="138"/>
+      <c r="AH1" s="118" t="s">
         <v>72</v>
       </c>
-      <c r="AI1" s="149"/>
-      <c r="AJ1" s="150"/>
-      <c r="AL1" s="117"/>
-      <c r="AM1" s="118"/>
-      <c r="AN1" s="119"/>
-      <c r="AQ1" s="152" t="s">
+      <c r="AI1" s="119"/>
+      <c r="AJ1" s="120"/>
+      <c r="AL1" s="136"/>
+      <c r="AM1" s="137"/>
+      <c r="AN1" s="138"/>
+      <c r="AQ1" s="124" t="s">
         <v>73</v>
       </c>
-      <c r="AR1" s="149"/>
-      <c r="AS1" s="150"/>
-      <c r="AU1" s="152" t="s">
+      <c r="AR1" s="125"/>
+      <c r="AS1" s="126"/>
+      <c r="AU1" s="124" t="s">
         <v>76</v>
       </c>
-      <c r="AV1" s="149"/>
-      <c r="AW1" s="149"/>
-      <c r="AX1" s="150"/>
+      <c r="AV1" s="125"/>
+      <c r="AW1" s="125"/>
+      <c r="AX1" s="126"/>
+      <c r="AZ1" s="136"/>
+      <c r="BA1" s="137"/>
+      <c r="BB1" s="137"/>
+      <c r="BC1" s="137"/>
+      <c r="BD1" s="137"/>
+      <c r="BE1" s="137"/>
+      <c r="BF1" s="137"/>
+      <c r="BG1" s="137"/>
+      <c r="BH1" s="137"/>
+      <c r="BI1" s="137"/>
+      <c r="BJ1" s="137"/>
+      <c r="BK1" s="137"/>
+      <c r="BL1" s="138"/>
+      <c r="BN1" s="136"/>
+      <c r="BO1" s="138"/>
     </row>
     <row r="2" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A2" s="67"/>
@@ -25487,40 +25493,55 @@
       <c r="U2" s="18"/>
       <c r="V2" s="18"/>
       <c r="W2" s="59"/>
-      <c r="AA2" s="104"/>
+      <c r="AA2" s="127"/>
       <c r="AB2" s="18"/>
       <c r="AC2" s="18"/>
       <c r="AD2" s="18"/>
       <c r="AE2" s="18"/>
-      <c r="AF2" s="105"/>
+      <c r="AF2" s="128"/>
       <c r="AH2" s="58"/>
       <c r="AI2" s="18"/>
       <c r="AJ2" s="59"/>
-      <c r="AL2" s="120"/>
+      <c r="AL2" s="127"/>
       <c r="AM2" s="18"/>
-      <c r="AN2" s="121"/>
-      <c r="AQ2" s="58"/>
+      <c r="AN2" s="128"/>
+      <c r="AQ2" s="127"/>
       <c r="AR2" s="18"/>
-      <c r="AS2" s="59"/>
-      <c r="AU2" s="58"/>
+      <c r="AS2" s="128"/>
+      <c r="AU2" s="127"/>
       <c r="AV2" s="18"/>
       <c r="AW2" s="18"/>
-      <c r="AX2" s="59"/>
+      <c r="AX2" s="128"/>
+      <c r="AZ2" s="127"/>
+      <c r="BA2" s="18"/>
+      <c r="BB2" s="18"/>
+      <c r="BC2" s="18"/>
+      <c r="BD2" s="18"/>
+      <c r="BE2" s="18"/>
+      <c r="BF2" s="18"/>
+      <c r="BG2" s="18"/>
+      <c r="BH2" s="18"/>
+      <c r="BI2" s="18"/>
+      <c r="BJ2" s="18"/>
+      <c r="BK2" s="18"/>
+      <c r="BL2" s="128"/>
+      <c r="BN2" s="127"/>
+      <c r="BO2" s="128"/>
     </row>
     <row r="3" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A3" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="135" t="s">
+      <c r="B3" s="106" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="135"/>
-      <c r="D3" s="135"/>
-      <c r="E3" s="135"/>
-      <c r="F3" s="135"/>
-      <c r="G3" s="135"/>
-      <c r="H3" s="135"/>
-      <c r="I3" s="151"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="106"/>
+      <c r="F3" s="106"/>
+      <c r="G3" s="106"/>
+      <c r="H3" s="106"/>
+      <c r="I3" s="121"/>
       <c r="K3" s="58"/>
       <c r="L3" s="18"/>
       <c r="M3" s="18"/>
@@ -25533,42 +25554,44 @@
       <c r="U3" s="18"/>
       <c r="V3" s="18"/>
       <c r="W3" s="59"/>
-      <c r="AA3" s="104"/>
+      <c r="AA3" s="127"/>
       <c r="AB3" s="18"/>
       <c r="AC3" s="18"/>
       <c r="AD3" s="18"/>
       <c r="AE3" s="18"/>
-      <c r="AF3" s="105"/>
+      <c r="AF3" s="128"/>
       <c r="AH3" s="58"/>
       <c r="AI3" s="18"/>
       <c r="AJ3" s="59"/>
-      <c r="AL3" s="120"/>
+      <c r="AL3" s="127"/>
       <c r="AM3" s="18"/>
-      <c r="AN3" s="121"/>
-      <c r="AQ3" s="58"/>
+      <c r="AN3" s="128"/>
+      <c r="AQ3" s="127"/>
       <c r="AR3" s="18"/>
-      <c r="AS3" s="59"/>
-      <c r="AU3" s="58"/>
+      <c r="AS3" s="128"/>
+      <c r="AU3" s="127"/>
       <c r="AV3" s="18"/>
       <c r="AW3" s="18"/>
-      <c r="AX3" s="59"/>
-      <c r="AZ3" s="48" t="s">
-        <v>0</v>
-      </c>
-      <c r="BA3" s="135" t="s">
+      <c r="AX3" s="128"/>
+      <c r="AZ3" s="149" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA3" s="106" t="s">
         <v>43</v>
       </c>
-      <c r="BB3" s="135"/>
-      <c r="BC3" s="135"/>
-      <c r="BD3" s="135"/>
-      <c r="BE3" s="135"/>
-      <c r="BF3" s="135"/>
-      <c r="BG3" s="135"/>
-      <c r="BH3" s="135"/>
-      <c r="BI3" s="135"/>
-      <c r="BJ3" s="135"/>
-      <c r="BK3" s="135"/>
-      <c r="BL3" s="99"/>
+      <c r="BB3" s="106"/>
+      <c r="BC3" s="106"/>
+      <c r="BD3" s="106"/>
+      <c r="BE3" s="106"/>
+      <c r="BF3" s="106"/>
+      <c r="BG3" s="106"/>
+      <c r="BH3" s="106"/>
+      <c r="BI3" s="106"/>
+      <c r="BJ3" s="106"/>
+      <c r="BK3" s="106"/>
+      <c r="BL3" s="150"/>
+      <c r="BN3" s="127"/>
+      <c r="BO3" s="128"/>
     </row>
     <row r="4" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A4" s="68" t="s">
@@ -25626,7 +25649,7 @@
       <c r="W4" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="AA4" s="106" t="s">
+      <c r="AA4" s="142" t="s">
         <v>44</v>
       </c>
       <c r="AB4" s="47" t="s">
@@ -25641,31 +25664,31 @@
       <c r="AE4" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="AF4" s="107" t="s">
+      <c r="AF4" s="143" t="s">
         <v>55</v>
       </c>
       <c r="AH4" s="58"/>
       <c r="AI4" s="18"/>
       <c r="AJ4" s="59"/>
-      <c r="AL4" s="120"/>
+      <c r="AL4" s="127"/>
       <c r="AM4" s="18"/>
-      <c r="AN4" s="121"/>
-      <c r="AQ4" s="58"/>
+      <c r="AN4" s="128"/>
+      <c r="AQ4" s="127"/>
       <c r="AR4" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AS4" s="60" t="s">
+      <c r="AS4" s="129" t="s">
         <v>55</v>
       </c>
-      <c r="AU4" s="73" t="s">
+      <c r="AU4" s="139" t="s">
         <v>44</v>
       </c>
       <c r="AV4" s="2" t="s">
         <v>55</v>
       </c>
       <c r="AW4" s="18"/>
-      <c r="AX4" s="59"/>
-      <c r="AZ4" s="48" t="s">
+      <c r="AX4" s="128"/>
+      <c r="AZ4" s="149" t="s">
         <v>1</v>
       </c>
       <c r="BA4" s="50" t="s">
@@ -25701,13 +25724,13 @@
       <c r="BK4" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="BL4" s="50" t="s">
+      <c r="BL4" s="151" t="s">
         <v>55</v>
       </c>
-      <c r="BN4" s="17" t="s">
+      <c r="BN4" s="160" t="s">
         <v>44</v>
       </c>
-      <c r="BO4" s="17" t="s">
+      <c r="BO4" s="161" t="s">
         <v>55</v>
       </c>
     </row>
@@ -25735,26 +25758,26 @@
       <c r="U5" s="18"/>
       <c r="V5" s="18"/>
       <c r="W5" s="59"/>
-      <c r="AA5" s="104"/>
+      <c r="AA5" s="127"/>
       <c r="AB5" s="18"/>
       <c r="AC5" s="18"/>
       <c r="AD5" s="18"/>
       <c r="AE5" s="18"/>
-      <c r="AF5" s="105"/>
+      <c r="AF5" s="128"/>
       <c r="AH5" s="58"/>
       <c r="AI5" s="18"/>
       <c r="AJ5" s="59"/>
-      <c r="AL5" s="120"/>
+      <c r="AL5" s="127"/>
       <c r="AM5" s="18"/>
-      <c r="AN5" s="121"/>
-      <c r="AQ5" s="58"/>
+      <c r="AN5" s="128"/>
+      <c r="AQ5" s="127"/>
       <c r="AR5" s="18"/>
-      <c r="AS5" s="59"/>
-      <c r="AU5" s="58"/>
+      <c r="AS5" s="128"/>
+      <c r="AU5" s="127"/>
       <c r="AV5" s="18"/>
       <c r="AW5" s="18"/>
-      <c r="AX5" s="59"/>
-      <c r="AZ5" s="48" t="s">
+      <c r="AX5" s="128"/>
+      <c r="AZ5" s="149" t="s">
         <v>2</v>
       </c>
       <c r="BA5" s="50"/>
@@ -25768,9 +25791,9 @@
       <c r="BI5" s="50"/>
       <c r="BJ5" s="50"/>
       <c r="BK5" s="50"/>
-      <c r="BL5" s="50"/>
-      <c r="BN5" s="18"/>
-      <c r="BO5" s="18"/>
+      <c r="BL5" s="151"/>
+      <c r="BN5" s="127"/>
+      <c r="BO5" s="128"/>
     </row>
     <row r="6" spans="1:67" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="68" t="s">
@@ -25820,50 +25843,50 @@
       <c r="U6" s="18"/>
       <c r="V6" s="18"/>
       <c r="W6" s="59"/>
-      <c r="AA6" s="104"/>
+      <c r="AA6" s="127"/>
       <c r="AB6" s="18"/>
       <c r="AC6" s="18"/>
       <c r="AD6" s="18"/>
       <c r="AE6" s="18"/>
-      <c r="AF6" s="105"/>
+      <c r="AF6" s="128"/>
       <c r="AH6" s="58"/>
       <c r="AI6" s="18"/>
       <c r="AJ6" s="59"/>
-      <c r="AL6" s="120"/>
+      <c r="AL6" s="127"/>
       <c r="AM6" s="18"/>
-      <c r="AN6" s="121"/>
-      <c r="AQ6" s="58"/>
+      <c r="AN6" s="128"/>
+      <c r="AQ6" s="127"/>
       <c r="AR6" s="18"/>
-      <c r="AS6" s="59"/>
-      <c r="AU6" s="58"/>
+      <c r="AS6" s="128"/>
+      <c r="AU6" s="127"/>
       <c r="AV6" s="18"/>
       <c r="AW6" s="18"/>
-      <c r="AX6" s="59"/>
-      <c r="AZ6" s="48" t="s">
+      <c r="AX6" s="128"/>
+      <c r="AZ6" s="149" t="s">
         <v>3</v>
       </c>
-      <c r="BA6" s="136" t="s">
+      <c r="BA6" s="107" t="s">
         <v>45</v>
       </c>
-      <c r="BB6" s="136"/>
-      <c r="BC6" s="136"/>
-      <c r="BD6" s="136" t="s">
+      <c r="BB6" s="107"/>
+      <c r="BC6" s="107"/>
+      <c r="BD6" s="107" t="s">
         <v>53</v>
       </c>
-      <c r="BE6" s="136"/>
-      <c r="BF6" s="136"/>
-      <c r="BG6" s="136" t="s">
+      <c r="BE6" s="107"/>
+      <c r="BF6" s="107"/>
+      <c r="BG6" s="107" t="s">
         <v>45</v>
       </c>
-      <c r="BH6" s="136"/>
-      <c r="BI6" s="136"/>
-      <c r="BJ6" s="136" t="s">
+      <c r="BH6" s="107"/>
+      <c r="BI6" s="107"/>
+      <c r="BJ6" s="107" t="s">
         <v>53</v>
       </c>
-      <c r="BK6" s="136"/>
-      <c r="BL6" s="136"/>
-      <c r="BN6" s="18"/>
-      <c r="BO6" s="18"/>
+      <c r="BK6" s="107"/>
+      <c r="BL6" s="152"/>
+      <c r="BN6" s="127"/>
+      <c r="BO6" s="128"/>
     </row>
     <row r="7" spans="1:67" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="68" t="s">
@@ -25913,26 +25936,26 @@
       <c r="U7" s="18"/>
       <c r="V7" s="18"/>
       <c r="W7" s="59"/>
-      <c r="AA7" s="104"/>
+      <c r="AA7" s="127"/>
       <c r="AB7" s="18"/>
       <c r="AC7" s="18"/>
       <c r="AD7" s="18"/>
       <c r="AE7" s="18"/>
-      <c r="AF7" s="105"/>
+      <c r="AF7" s="128"/>
       <c r="AH7" s="58"/>
       <c r="AI7" s="18"/>
       <c r="AJ7" s="59"/>
-      <c r="AL7" s="120"/>
+      <c r="AL7" s="127"/>
       <c r="AM7" s="18"/>
-      <c r="AN7" s="121"/>
-      <c r="AQ7" s="58"/>
+      <c r="AN7" s="128"/>
+      <c r="AQ7" s="127"/>
       <c r="AR7" s="18"/>
-      <c r="AS7" s="59"/>
-      <c r="AU7" s="58"/>
+      <c r="AS7" s="128"/>
+      <c r="AU7" s="127"/>
       <c r="AV7" s="18"/>
       <c r="AW7" s="18"/>
-      <c r="AX7" s="59"/>
-      <c r="AZ7" s="48" t="s">
+      <c r="AX7" s="128"/>
+      <c r="AZ7" s="149" t="s">
         <v>4</v>
       </c>
       <c r="BA7" s="50" t="s">
@@ -25968,11 +25991,11 @@
       <c r="BK7" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="BL7" s="50" t="s">
+      <c r="BL7" s="151" t="s">
         <v>54</v>
       </c>
-      <c r="BN7" s="18"/>
-      <c r="BO7" s="18"/>
+      <c r="BN7" s="127"/>
+      <c r="BO7" s="128"/>
     </row>
     <row r="8" spans="1:67" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A8" s="68" t="s">
@@ -26014,54 +26037,54 @@
       <c r="U8" s="18"/>
       <c r="V8" s="18"/>
       <c r="W8" s="59"/>
-      <c r="AA8" s="104"/>
+      <c r="AA8" s="127"/>
       <c r="AB8" s="18"/>
       <c r="AC8" s="18"/>
       <c r="AD8" s="18"/>
       <c r="AE8" s="18"/>
-      <c r="AF8" s="105"/>
+      <c r="AF8" s="128"/>
       <c r="AH8" s="58"/>
       <c r="AI8" s="18"/>
       <c r="AJ8" s="59"/>
-      <c r="AL8" s="120"/>
+      <c r="AL8" s="127"/>
       <c r="AM8" s="18"/>
-      <c r="AN8" s="121"/>
-      <c r="AQ8" s="58"/>
+      <c r="AN8" s="128"/>
+      <c r="AQ8" s="127"/>
       <c r="AR8" s="3">
         <v>3</v>
       </c>
-      <c r="AS8" s="91">
+      <c r="AS8" s="130">
         <v>4</v>
       </c>
-      <c r="AU8" s="94">
+      <c r="AU8" s="146">
         <v>3</v>
       </c>
       <c r="AV8" s="3">
         <v>4</v>
       </c>
       <c r="AW8" s="18"/>
-      <c r="AX8" s="59"/>
-      <c r="AZ8" s="48" t="s">
+      <c r="AX8" s="128"/>
+      <c r="AZ8" s="149" t="s">
         <v>5</v>
       </c>
-      <c r="BA8" s="137">
+      <c r="BA8" s="108">
         <v>3</v>
       </c>
-      <c r="BB8" s="137"/>
-      <c r="BC8" s="137"/>
-      <c r="BD8" s="137"/>
-      <c r="BE8" s="137"/>
-      <c r="BF8" s="137"/>
-      <c r="BG8" s="137">
+      <c r="BB8" s="108"/>
+      <c r="BC8" s="108"/>
+      <c r="BD8" s="108"/>
+      <c r="BE8" s="108"/>
+      <c r="BF8" s="108"/>
+      <c r="BG8" s="108">
         <v>4</v>
       </c>
-      <c r="BH8" s="137"/>
-      <c r="BI8" s="137"/>
-      <c r="BJ8" s="137"/>
-      <c r="BK8" s="137"/>
-      <c r="BL8" s="137"/>
-      <c r="BN8" s="18"/>
-      <c r="BO8" s="18"/>
+      <c r="BH8" s="108"/>
+      <c r="BI8" s="108"/>
+      <c r="BJ8" s="108"/>
+      <c r="BK8" s="108"/>
+      <c r="BL8" s="153"/>
+      <c r="BN8" s="127"/>
+      <c r="BO8" s="128"/>
     </row>
     <row r="9" spans="1:67" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A9" s="68" t="s">
@@ -26103,54 +26126,54 @@
       <c r="U9" s="18"/>
       <c r="V9" s="18"/>
       <c r="W9" s="59"/>
-      <c r="AA9" s="104"/>
+      <c r="AA9" s="127"/>
       <c r="AB9" s="18"/>
       <c r="AC9" s="18"/>
       <c r="AD9" s="18"/>
       <c r="AE9" s="18"/>
-      <c r="AF9" s="105"/>
+      <c r="AF9" s="128"/>
       <c r="AH9" s="58"/>
       <c r="AI9" s="18"/>
       <c r="AJ9" s="59"/>
-      <c r="AL9" s="120"/>
+      <c r="AL9" s="127"/>
       <c r="AM9" s="18"/>
-      <c r="AN9" s="121"/>
-      <c r="AQ9" s="58"/>
+      <c r="AN9" s="128"/>
+      <c r="AQ9" s="127"/>
       <c r="AR9" s="3">
         <v>4</v>
       </c>
-      <c r="AS9" s="91">
+      <c r="AS9" s="130">
         <v>3</v>
       </c>
-      <c r="AU9" s="94">
+      <c r="AU9" s="146">
         <v>4</v>
       </c>
       <c r="AV9" s="3">
         <v>3</v>
       </c>
       <c r="AW9" s="18"/>
-      <c r="AX9" s="59"/>
-      <c r="AZ9" s="48" t="s">
+      <c r="AX9" s="128"/>
+      <c r="AZ9" s="149" t="s">
         <v>6</v>
       </c>
-      <c r="BA9" s="137">
+      <c r="BA9" s="108">
         <v>4</v>
       </c>
-      <c r="BB9" s="137"/>
-      <c r="BC9" s="137"/>
-      <c r="BD9" s="137"/>
-      <c r="BE9" s="137"/>
-      <c r="BF9" s="137"/>
-      <c r="BG9" s="137">
+      <c r="BB9" s="108"/>
+      <c r="BC9" s="108"/>
+      <c r="BD9" s="108"/>
+      <c r="BE9" s="108"/>
+      <c r="BF9" s="108"/>
+      <c r="BG9" s="108">
         <v>3</v>
       </c>
-      <c r="BH9" s="137"/>
-      <c r="BI9" s="137"/>
-      <c r="BJ9" s="137"/>
-      <c r="BK9" s="137"/>
-      <c r="BL9" s="137"/>
-      <c r="BN9" s="18"/>
-      <c r="BO9" s="18"/>
+      <c r="BH9" s="108"/>
+      <c r="BI9" s="108"/>
+      <c r="BJ9" s="108"/>
+      <c r="BK9" s="108"/>
+      <c r="BL9" s="153"/>
+      <c r="BN9" s="127"/>
+      <c r="BO9" s="128"/>
     </row>
     <row r="10" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A10" s="68" t="s">
@@ -26192,26 +26215,26 @@
       <c r="U10" s="18"/>
       <c r="V10" s="18"/>
       <c r="W10" s="59"/>
-      <c r="AA10" s="104"/>
+      <c r="AA10" s="127"/>
       <c r="AB10" s="18"/>
       <c r="AC10" s="18"/>
       <c r="AD10" s="18"/>
       <c r="AE10" s="18"/>
-      <c r="AF10" s="105"/>
+      <c r="AF10" s="128"/>
       <c r="AH10" s="58"/>
       <c r="AI10" s="18"/>
       <c r="AJ10" s="59"/>
-      <c r="AL10" s="120"/>
+      <c r="AL10" s="127"/>
       <c r="AM10" s="18"/>
-      <c r="AN10" s="121"/>
-      <c r="AQ10" s="58"/>
+      <c r="AN10" s="128"/>
+      <c r="AQ10" s="127"/>
       <c r="AR10" s="18"/>
-      <c r="AS10" s="59"/>
-      <c r="AU10" s="58"/>
+      <c r="AS10" s="128"/>
+      <c r="AU10" s="127"/>
       <c r="AV10" s="18"/>
       <c r="AW10" s="18"/>
-      <c r="AX10" s="59"/>
-      <c r="AZ10" s="48" t="s">
+      <c r="AX10" s="128"/>
+      <c r="AZ10" s="149" t="s">
         <v>7</v>
       </c>
       <c r="BA10" s="50" t="s">
@@ -26247,28 +26270,28 @@
       <c r="BK10" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="BL10" s="50" t="s">
+      <c r="BL10" s="151" t="s">
         <v>47</v>
       </c>
-      <c r="BN10" s="18"/>
-      <c r="BO10" s="18"/>
+      <c r="BN10" s="127"/>
+      <c r="BO10" s="128"/>
     </row>
     <row r="11" spans="1:67" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="136" t="s">
+      <c r="B11" s="107" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="136"/>
-      <c r="D11" s="136"/>
-      <c r="E11" s="136"/>
-      <c r="F11" s="136" t="s">
+      <c r="C11" s="107"/>
+      <c r="D11" s="107"/>
+      <c r="E11" s="107"/>
+      <c r="F11" s="107" t="s">
         <v>56</v>
       </c>
-      <c r="G11" s="136"/>
-      <c r="H11" s="136"/>
-      <c r="I11" s="144"/>
+      <c r="G11" s="107"/>
+      <c r="H11" s="107"/>
+      <c r="I11" s="123"/>
       <c r="K11" s="58"/>
       <c r="L11" s="18"/>
       <c r="M11" s="18"/>
@@ -26281,46 +26304,46 @@
       <c r="U11" s="18"/>
       <c r="V11" s="18"/>
       <c r="W11" s="59"/>
-      <c r="AA11" s="104"/>
+      <c r="AA11" s="127"/>
       <c r="AB11" s="18"/>
       <c r="AC11" s="18"/>
       <c r="AD11" s="18"/>
       <c r="AE11" s="18"/>
-      <c r="AF11" s="105"/>
+      <c r="AF11" s="128"/>
       <c r="AH11" s="58"/>
       <c r="AI11" s="18"/>
       <c r="AJ11" s="59"/>
-      <c r="AL11" s="120"/>
+      <c r="AL11" s="127"/>
       <c r="AM11" s="18"/>
-      <c r="AN11" s="121"/>
-      <c r="AQ11" s="58"/>
+      <c r="AN11" s="128"/>
+      <c r="AQ11" s="127"/>
       <c r="AR11" s="18"/>
-      <c r="AS11" s="59"/>
-      <c r="AU11" s="58"/>
+      <c r="AS11" s="128"/>
+      <c r="AU11" s="127"/>
       <c r="AV11" s="18"/>
       <c r="AW11" s="18"/>
-      <c r="AX11" s="59"/>
-      <c r="AZ11" s="48" t="s">
+      <c r="AX11" s="128"/>
+      <c r="AZ11" s="149" t="s">
         <v>8</v>
       </c>
-      <c r="BA11" s="136" t="s">
+      <c r="BA11" s="107" t="s">
         <v>48</v>
       </c>
-      <c r="BB11" s="136"/>
-      <c r="BC11" s="136"/>
-      <c r="BD11" s="136"/>
-      <c r="BE11" s="136"/>
-      <c r="BF11" s="136"/>
-      <c r="BG11" s="136" t="s">
+      <c r="BB11" s="107"/>
+      <c r="BC11" s="107"/>
+      <c r="BD11" s="107"/>
+      <c r="BE11" s="107"/>
+      <c r="BF11" s="107"/>
+      <c r="BG11" s="107" t="s">
         <v>56</v>
       </c>
-      <c r="BH11" s="136"/>
-      <c r="BI11" s="136"/>
-      <c r="BJ11" s="136"/>
-      <c r="BK11" s="136"/>
-      <c r="BL11" s="136"/>
-      <c r="BN11" s="18"/>
-      <c r="BO11" s="18"/>
+      <c r="BH11" s="107"/>
+      <c r="BI11" s="107"/>
+      <c r="BJ11" s="107"/>
+      <c r="BK11" s="107"/>
+      <c r="BL11" s="152"/>
+      <c r="BN11" s="127"/>
+      <c r="BO11" s="128"/>
     </row>
     <row r="12" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A12" s="68" t="s">
@@ -26362,7 +26385,7 @@
       <c r="U12" s="89"/>
       <c r="V12" s="89"/>
       <c r="W12" s="90"/>
-      <c r="AA12" s="108">
+      <c r="AA12" s="144">
         <f>B12</f>
         <v>1</v>
       </c>
@@ -26373,21 +26396,21 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="AE12" s="89"/>
-      <c r="AF12" s="109"/>
+      <c r="AF12" s="145"/>
       <c r="AH12" s="58"/>
       <c r="AI12" s="18"/>
       <c r="AJ12" s="59"/>
-      <c r="AL12" s="120"/>
+      <c r="AL12" s="127"/>
       <c r="AM12" s="18"/>
-      <c r="AN12" s="121"/>
-      <c r="AQ12" s="58"/>
+      <c r="AN12" s="128"/>
+      <c r="AQ12" s="127"/>
       <c r="AR12" s="18"/>
-      <c r="AS12" s="59"/>
-      <c r="AU12" s="58"/>
+      <c r="AS12" s="128"/>
+      <c r="AU12" s="127"/>
       <c r="AV12" s="18"/>
       <c r="AW12" s="18"/>
-      <c r="AX12" s="59"/>
-      <c r="AZ12" s="48" t="s">
+      <c r="AX12" s="128"/>
+      <c r="AZ12" s="149" t="s">
         <v>9</v>
       </c>
       <c r="BA12" s="52">
@@ -26413,9 +26436,9 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="BK12" s="86"/>
-      <c r="BL12" s="86"/>
-      <c r="BN12" s="18"/>
-      <c r="BO12" s="18"/>
+      <c r="BL12" s="154"/>
+      <c r="BN12" s="127"/>
+      <c r="BO12" s="128"/>
     </row>
     <row r="13" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A13" s="68" t="s">
@@ -26484,7 +26507,7 @@
       <c r="Y13" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="AA13" s="110" t="s">
+      <c r="AA13" s="139" t="s">
         <v>49</v>
       </c>
       <c r="AB13" s="2" t="s">
@@ -26499,7 +26522,7 @@
       <c r="AE13" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="AF13" s="111" t="s">
+      <c r="AF13" s="129" t="s">
         <v>52</v>
       </c>
       <c r="AH13" s="73" t="s">
@@ -26511,32 +26534,32 @@
       <c r="AJ13" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="AL13" s="122" t="s">
+      <c r="AL13" s="139" t="s">
         <v>49</v>
       </c>
       <c r="AM13" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="AN13" s="123" t="s">
+      <c r="AN13" s="129" t="s">
         <v>52</v>
       </c>
       <c r="AO13" s="47"/>
-      <c r="AQ13" s="58"/>
+      <c r="AQ13" s="127"/>
       <c r="AR13" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="AS13" s="60" t="s">
+      <c r="AS13" s="129" t="s">
         <v>52</v>
       </c>
-      <c r="AU13" s="73" t="s">
+      <c r="AU13" s="139" t="s">
         <v>52</v>
       </c>
       <c r="AV13" s="2" t="s">
         <v>52</v>
       </c>
       <c r="AW13" s="18"/>
-      <c r="AX13" s="59"/>
-      <c r="AZ13" s="48" t="s">
+      <c r="AX13" s="128"/>
+      <c r="AZ13" s="149" t="s">
         <v>11</v>
       </c>
       <c r="BA13" s="50" t="s">
@@ -26572,13 +26595,13 @@
       <c r="BK13" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="BL13" s="50" t="s">
+      <c r="BL13" s="151" t="s">
         <v>67</v>
       </c>
-      <c r="BN13" s="19" t="s">
+      <c r="BN13" s="162" t="s">
         <v>68</v>
       </c>
-      <c r="BO13" s="19" t="s">
+      <c r="BO13" s="163" t="s">
         <v>68</v>
       </c>
     </row>
@@ -26663,7 +26686,7 @@
         <v>-3.0000000000000027E-3</v>
       </c>
       <c r="Z14" s="11"/>
-      <c r="AA14" s="112">
+      <c r="AA14" s="140">
         <f>MAX((P14-M14)+Y14,0)</f>
         <v>13.997</v>
       </c>
@@ -26683,7 +26706,7 @@
         <f>U14</f>
         <v>3.117</v>
       </c>
-      <c r="AF14" s="113">
+      <c r="AF14" s="132">
         <f>V14</f>
         <v>5.0339999999999998</v>
       </c>
@@ -26699,7 +26722,7 @@
         <f>SUMIFS($P14:$W14,$P$13:$W$13,AJ$13)</f>
         <v>19.937000000000001</v>
       </c>
-      <c r="AL14" s="124">
+      <c r="AL14" s="140">
         <f>SUMIFS($AA14:$AF14,$AA$13:$AF$13,AL$13)</f>
         <v>16.831</v>
       </c>
@@ -26707,7 +26730,7 @@
         <f>SUMIFS($AA14:$AF14,$AA$13:$AF$13,AM$13)</f>
         <v>17.114000000000001</v>
       </c>
-      <c r="AN14" s="125">
+      <c r="AN14" s="132">
         <f>SUMIFS($AA14:$AF14,$AA$13:$AF$13,AN$13)</f>
         <v>19.033999999999999</v>
       </c>
@@ -26716,7 +26739,7 @@
         <f>IF(AN14&gt;AM14,"2.1",IF(AN14&gt;AL14,"2.2","2.3"))</f>
         <v>2.1</v>
       </c>
-      <c r="AQ14" s="92" t="str">
+      <c r="AQ14" s="131" t="str">
         <f>IF(AJ14&gt;AI14,"2.1",IF(AJ14&gt;AH14,"2.2","2.3"))</f>
         <v>2.1</v>
       </c>
@@ -26724,11 +26747,11 @@
         <f>AB14</f>
         <v>13.997</v>
       </c>
-      <c r="AS14" s="65">
+      <c r="AS14" s="132">
         <f>AN14-AR14</f>
         <v>5.036999999999999</v>
       </c>
-      <c r="AU14" s="82">
+      <c r="AU14" s="140">
         <f>IF(AR14&lt;AA14,AR14+MIN(AB14-AR14,$AA$46-$AR$46,$AS$46-$AD$46,AS14),AR14)</f>
         <v>13.997</v>
       </c>
@@ -26740,11 +26763,11 @@
         <f>AR46+(AU14-AR14)</f>
         <v>304.66499999999991</v>
       </c>
-      <c r="AX14" s="65">
+      <c r="AX14" s="132">
         <f>AS46-(AU14-AR14)</f>
         <v>113.43599999999999</v>
       </c>
-      <c r="AZ14" s="53">
+      <c r="AZ14" s="155">
         <v>43556</v>
       </c>
       <c r="BA14" s="54">
@@ -26785,15 +26808,15 @@
         <f>BJ14*$BJ$12</f>
         <v>3.1174000000000004</v>
       </c>
-      <c r="BL14" s="54">
+      <c r="BL14" s="156">
         <f>AV14</f>
         <v>5.036999999999999</v>
       </c>
-      <c r="BN14" s="20">
+      <c r="BN14" s="140">
         <f t="shared" ref="BN14:BN44" si="6">MAX(SUMIFS($BA14:$BL14,$BA$13:$BL$13,"Факт2",$BA$4:$BL$4,BN$4) - SUMIFS($BA14:$BL14,$BA$13:$BL$13,"План кор.",$BA$4:$BL$4,BN$4),0)</f>
         <v>0</v>
       </c>
-      <c r="BO14" s="20">
+      <c r="BO14" s="132">
         <f>ROUND(MAX(SUMIFS($BA14:$BL14,$BA$13:$BL$13,"Факт2",$BA$4:$BL$4,BO$4) - SUMIFS($BA14:$BL14,$BA$13:$BL$13,"План кор.",$BA$4:$BL$4,BO$4),0),3)</f>
         <v>1.92</v>
       </c>
@@ -26879,7 +26902,7 @@
         <v>6.3000000000000056E-2</v>
       </c>
       <c r="Z15" s="11"/>
-      <c r="AA15" s="112">
+      <c r="AA15" s="140">
         <f t="shared" ref="AA15:AA45" si="12">MAX((P15-M15)+Y15,0)</f>
         <v>14.063000000000001</v>
       </c>
@@ -26899,7 +26922,7 @@
         <f t="shared" ref="AE15:AE44" si="16">U15</f>
         <v>3.1160000000000001</v>
       </c>
-      <c r="AF15" s="113">
+      <c r="AF15" s="132">
         <f t="shared" ref="AF15:AF45" si="17">V15</f>
         <v>3.4740000000000002</v>
       </c>
@@ -26915,7 +26938,7 @@
         <f t="shared" si="18"/>
         <v>18.311</v>
       </c>
-      <c r="AL15" s="124">
+      <c r="AL15" s="140">
         <f t="shared" ref="AL15:AN45" si="19">SUMIFS($AA15:$AF15,$AA$13:$AF$13,AL$13)</f>
         <v>16.896000000000001</v>
       </c>
@@ -26923,7 +26946,7 @@
         <f t="shared" si="19"/>
         <v>17.179000000000002</v>
       </c>
-      <c r="AN15" s="125">
+      <c r="AN15" s="132">
         <f t="shared" si="19"/>
         <v>17.474</v>
       </c>
@@ -26932,7 +26955,7 @@
         <f t="shared" ref="AP15:AP43" si="20">IF(AN15&gt;AM15,"2.1",IF(AN15&gt;AL15,"2.2","2.3"))</f>
         <v>2.1</v>
       </c>
-      <c r="AQ15" s="92" t="str">
+      <c r="AQ15" s="131" t="str">
         <f t="shared" ref="AQ15:AQ43" si="21">IF(AJ15&gt;AI15,"2.1",IF(AJ15&gt;AH15,"2.2","2.3"))</f>
         <v>2.1</v>
       </c>
@@ -26940,11 +26963,11 @@
         <f>AB15</f>
         <v>14.063000000000001</v>
       </c>
-      <c r="AS15" s="65">
+      <c r="AS15" s="132">
         <f>AN15-AR15</f>
         <v>3.4109999999999996</v>
       </c>
-      <c r="AU15" s="82">
+      <c r="AU15" s="140">
         <f>IF(AR15&lt;AA15,AR15+MIN(AB15-AR15,$AA$46-AW14,AX14-$AD$46,AS15),AR15)</f>
         <v>14.063000000000001</v>
       </c>
@@ -26956,11 +26979,11 @@
         <f>AW14+(AU15-AR15)</f>
         <v>304.66499999999991</v>
       </c>
-      <c r="AX15" s="65">
+      <c r="AX15" s="132">
         <f>AX14-(AU15-AR15)</f>
         <v>113.43599999999999</v>
       </c>
-      <c r="AZ15" s="53">
+      <c r="AZ15" s="155">
         <v>43557</v>
       </c>
       <c r="BA15" s="54">
@@ -27001,15 +27024,15 @@
         <f t="shared" ref="BK15:BK43" si="25">BJ15*$BJ$12</f>
         <v>3.1163000000000003</v>
       </c>
-      <c r="BL15" s="54">
+      <c r="BL15" s="156">
         <f t="shared" ref="BL15:BL43" si="26">AV15</f>
         <v>3.4109999999999996</v>
       </c>
-      <c r="BN15" s="20">
+      <c r="BN15" s="140">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="BO15" s="20">
+      <c r="BO15" s="132">
         <f t="shared" ref="BO15:BO44" si="27">ROUND(MAX(SUMIFS($BA15:$BL15,$BA$13:$BL$13,"Факт2",$BA$4:$BL$4,BO$4) - SUMIFS($BA15:$BL15,$BA$13:$BL$13,"План кор.",$BA$4:$BL$4,BO$4),0),3)</f>
         <v>0.29499999999999998</v>
       </c>
@@ -27095,7 +27118,7 @@
         <v>0.17300000000000004</v>
       </c>
       <c r="Z16" s="11"/>
-      <c r="AA16" s="112">
+      <c r="AA16" s="140">
         <f t="shared" si="12"/>
         <v>14.173</v>
       </c>
@@ -27115,7 +27138,7 @@
         <f t="shared" si="16"/>
         <v>3.117</v>
       </c>
-      <c r="AF16" s="113">
+      <c r="AF16" s="132">
         <f t="shared" si="17"/>
         <v>2.8340000000000001</v>
       </c>
@@ -27131,7 +27154,7 @@
         <f t="shared" si="18"/>
         <v>16.350999999999999</v>
       </c>
-      <c r="AL16" s="124">
+      <c r="AL16" s="140">
         <f t="shared" si="19"/>
         <v>17.007000000000001</v>
       </c>
@@ -27139,7 +27162,7 @@
         <f t="shared" si="19"/>
         <v>17.29</v>
       </c>
-      <c r="AN16" s="125">
+      <c r="AN16" s="132">
         <f t="shared" si="19"/>
         <v>15.623999999999999</v>
       </c>
@@ -27148,7 +27171,7 @@
         <f t="shared" si="20"/>
         <v>2.3</v>
       </c>
-      <c r="AQ16" s="92" t="str">
+      <c r="AQ16" s="131" t="str">
         <f t="shared" si="21"/>
         <v>2.3</v>
       </c>
@@ -27156,11 +27179,11 @@
         <f>AN16-AS16</f>
         <v>12.79</v>
       </c>
-      <c r="AS16" s="65">
+      <c r="AS16" s="132">
         <f>MIN(AN16,T16)</f>
         <v>2.8340000000000001</v>
       </c>
-      <c r="AU16" s="82">
+      <c r="AU16" s="140">
         <f t="shared" ref="AU16:AU43" si="28">IF(AR16&lt;AA16,AR16+MIN(AB16-AR16,$AA$46-AW15,AX15-$AD$46,AS16),AR16)</f>
         <v>14.173</v>
       </c>
@@ -27172,11 +27195,11 @@
         <f t="shared" ref="AW16:AW43" si="30">AW15+(AU16-AR16)</f>
         <v>306.04799999999989</v>
       </c>
-      <c r="AX16" s="65">
+      <c r="AX16" s="132">
         <f t="shared" ref="AX16:AX43" si="31">AX15-(AU16-AR16)</f>
         <v>112.053</v>
       </c>
-      <c r="AZ16" s="53">
+      <c r="AZ16" s="155">
         <v>43558</v>
       </c>
       <c r="BA16" s="54">
@@ -27217,15 +27240,15 @@
         <f t="shared" si="25"/>
         <v>3.1174000000000004</v>
       </c>
-      <c r="BL16" s="54">
+      <c r="BL16" s="156">
         <f t="shared" si="26"/>
         <v>1.4509999999999992</v>
       </c>
-      <c r="BN16" s="20">
+      <c r="BN16" s="140">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="BO16" s="20">
+      <c r="BO16" s="132">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
@@ -27311,7 +27334,7 @@
         <v>0.28100000000000003</v>
       </c>
       <c r="Z17" s="11"/>
-      <c r="AA17" s="112">
+      <c r="AA17" s="140">
         <f t="shared" si="12"/>
         <v>14.281000000000001</v>
       </c>
@@ -27331,7 +27354,7 @@
         <f t="shared" si="16"/>
         <v>3.1160000000000001</v>
       </c>
-      <c r="AF17" s="113">
+      <c r="AF17" s="132">
         <f t="shared" si="17"/>
         <v>2.8330000000000002</v>
       </c>
@@ -27347,7 +27370,7 @@
         <f t="shared" si="18"/>
         <v>15.475</v>
       </c>
-      <c r="AL17" s="124">
+      <c r="AL17" s="140">
         <f t="shared" si="19"/>
         <v>17.114000000000001</v>
       </c>
@@ -27355,7 +27378,7 @@
         <f t="shared" si="19"/>
         <v>17.397000000000002</v>
       </c>
-      <c r="AN17" s="125">
+      <c r="AN17" s="132">
         <f t="shared" si="19"/>
         <v>14.856</v>
       </c>
@@ -27364,7 +27387,7 @@
         <f t="shared" si="20"/>
         <v>2.3</v>
       </c>
-      <c r="AQ17" s="92" t="str">
+      <c r="AQ17" s="131" t="str">
         <f t="shared" si="21"/>
         <v>2.3</v>
       </c>
@@ -27372,11 +27395,11 @@
         <f t="shared" ref="AR17:AR21" si="32">AN17-AS17</f>
         <v>12.023</v>
       </c>
-      <c r="AS17" s="65">
+      <c r="AS17" s="132">
         <f t="shared" ref="AS17:AS21" si="33">MIN(AN17,T17)</f>
         <v>2.8330000000000002</v>
       </c>
-      <c r="AU17" s="82">
+      <c r="AU17" s="140">
         <f t="shared" si="28"/>
         <v>14.281000000000001</v>
       </c>
@@ -27388,11 +27411,11 @@
         <f t="shared" si="30"/>
         <v>308.30599999999987</v>
       </c>
-      <c r="AX17" s="65">
+      <c r="AX17" s="132">
         <f t="shared" si="31"/>
         <v>109.795</v>
       </c>
-      <c r="AZ17" s="53">
+      <c r="AZ17" s="155">
         <v>43559</v>
       </c>
       <c r="BA17" s="54">
@@ -27433,15 +27456,15 @@
         <f t="shared" si="25"/>
         <v>3.1163000000000003</v>
       </c>
-      <c r="BL17" s="54">
+      <c r="BL17" s="156">
         <f t="shared" si="26"/>
         <v>0.57499999999999929</v>
       </c>
-      <c r="BN17" s="20">
+      <c r="BN17" s="140">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="BO17" s="20">
+      <c r="BO17" s="132">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
@@ -27527,7 +27550,7 @@
         <v>3.6000000000000032E-2</v>
       </c>
       <c r="Z18" s="11"/>
-      <c r="AA18" s="112">
+      <c r="AA18" s="140">
         <f t="shared" si="12"/>
         <v>14.036</v>
       </c>
@@ -27547,7 +27570,7 @@
         <f t="shared" si="16"/>
         <v>3.117</v>
       </c>
-      <c r="AF18" s="113">
+      <c r="AF18" s="132">
         <f t="shared" si="17"/>
         <v>2.8340000000000001</v>
       </c>
@@ -27563,7 +27586,7 @@
         <f t="shared" si="18"/>
         <v>14.922000000000001</v>
       </c>
-      <c r="AL18" s="124">
+      <c r="AL18" s="140">
         <f t="shared" si="19"/>
         <v>16.87</v>
       </c>
@@ -27571,7 +27594,7 @@
         <f t="shared" si="19"/>
         <v>17.152999999999999</v>
       </c>
-      <c r="AN18" s="125">
+      <c r="AN18" s="132">
         <f t="shared" si="19"/>
         <v>14.058</v>
       </c>
@@ -27580,7 +27603,7 @@
         <f t="shared" si="20"/>
         <v>2.3</v>
       </c>
-      <c r="AQ18" s="92" t="str">
+      <c r="AQ18" s="131" t="str">
         <f t="shared" si="21"/>
         <v>2.3</v>
       </c>
@@ -27588,11 +27611,11 @@
         <f t="shared" si="32"/>
         <v>11.224</v>
       </c>
-      <c r="AS18" s="65">
+      <c r="AS18" s="132">
         <f t="shared" si="33"/>
         <v>2.8340000000000001</v>
       </c>
-      <c r="AU18" s="82">
+      <c r="AU18" s="140">
         <f t="shared" si="28"/>
         <v>14.036</v>
       </c>
@@ -27604,11 +27627,11 @@
         <f t="shared" si="30"/>
         <v>311.11799999999988</v>
       </c>
-      <c r="AX18" s="65">
+      <c r="AX18" s="132">
         <f t="shared" si="31"/>
         <v>106.983</v>
       </c>
-      <c r="AZ18" s="53">
+      <c r="AZ18" s="155">
         <v>43560</v>
       </c>
       <c r="BA18" s="54">
@@ -27649,15 +27672,15 @@
         <f t="shared" si="25"/>
         <v>3.1174000000000004</v>
       </c>
-      <c r="BL18" s="54">
+      <c r="BL18" s="156">
         <f t="shared" si="26"/>
         <v>2.2000000000000686E-2</v>
       </c>
-      <c r="BN18" s="20">
+      <c r="BN18" s="140">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="BO18" s="20">
+      <c r="BO18" s="132">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
@@ -27743,7 +27766,7 @@
         <v>0.432</v>
       </c>
       <c r="Z19" s="11"/>
-      <c r="AA19" s="112">
+      <c r="AA19" s="140">
         <f t="shared" si="12"/>
         <v>14.432</v>
       </c>
@@ -27763,7 +27786,7 @@
         <f t="shared" si="16"/>
         <v>3.1160000000000001</v>
       </c>
-      <c r="AF19" s="113">
+      <c r="AF19" s="132">
         <f t="shared" si="17"/>
         <v>2.8330000000000002</v>
       </c>
@@ -27779,7 +27802,7 @@
         <f t="shared" si="18"/>
         <v>14.420999999999999</v>
       </c>
-      <c r="AL19" s="124">
+      <c r="AL19" s="140">
         <f t="shared" si="19"/>
         <v>17.265000000000001</v>
       </c>
@@ -27787,7 +27810,7 @@
         <f t="shared" si="19"/>
         <v>17.548000000000002</v>
       </c>
-      <c r="AN19" s="125">
+      <c r="AN19" s="132">
         <f t="shared" si="19"/>
         <v>13.952999999999999</v>
       </c>
@@ -27796,7 +27819,7 @@
         <f t="shared" si="20"/>
         <v>2.3</v>
       </c>
-      <c r="AQ19" s="92" t="str">
+      <c r="AQ19" s="131" t="str">
         <f t="shared" si="21"/>
         <v>2.3</v>
       </c>
@@ -27804,11 +27827,11 @@
         <f t="shared" si="32"/>
         <v>11.12</v>
       </c>
-      <c r="AS19" s="65">
+      <c r="AS19" s="132">
         <f t="shared" si="33"/>
         <v>2.8330000000000002</v>
       </c>
-      <c r="AU19" s="82">
+      <c r="AU19" s="140">
         <f t="shared" si="28"/>
         <v>13.952999999999999</v>
       </c>
@@ -27820,11 +27843,11 @@
         <f t="shared" si="30"/>
         <v>313.95099999999991</v>
       </c>
-      <c r="AX19" s="65">
+      <c r="AX19" s="132">
         <f t="shared" si="31"/>
         <v>104.15</v>
       </c>
-      <c r="AZ19" s="53">
+      <c r="AZ19" s="155">
         <v>43561</v>
       </c>
       <c r="BA19" s="54">
@@ -27865,15 +27888,15 @@
         <f t="shared" si="25"/>
         <v>3.1163000000000003</v>
       </c>
-      <c r="BL19" s="54">
+      <c r="BL19" s="156">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="BN19" s="20">
+      <c r="BN19" s="140">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="BO19" s="20">
+      <c r="BO19" s="132">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
@@ -27959,7 +27982,7 @@
         <v>0.46800000000000003</v>
       </c>
       <c r="Z20" s="11"/>
-      <c r="AA20" s="112">
+      <c r="AA20" s="140">
         <f t="shared" si="12"/>
         <v>14.468</v>
       </c>
@@ -27979,7 +28002,7 @@
         <f t="shared" si="16"/>
         <v>3.117</v>
       </c>
-      <c r="AF20" s="113">
+      <c r="AF20" s="132">
         <f t="shared" si="17"/>
         <v>2.8340000000000001</v>
       </c>
@@ -27995,7 +28018,7 @@
         <f t="shared" si="18"/>
         <v>13.941000000000001</v>
       </c>
-      <c r="AL20" s="124">
+      <c r="AL20" s="140">
         <f t="shared" si="19"/>
         <v>17.302</v>
       </c>
@@ -28003,7 +28026,7 @@
         <f t="shared" si="19"/>
         <v>17.585000000000001</v>
       </c>
-      <c r="AN20" s="125">
+      <c r="AN20" s="132">
         <f t="shared" si="19"/>
         <v>13.509</v>
       </c>
@@ -28012,7 +28035,7 @@
         <f t="shared" si="20"/>
         <v>2.3</v>
       </c>
-      <c r="AQ20" s="92" t="str">
+      <c r="AQ20" s="131" t="str">
         <f t="shared" si="21"/>
         <v>2.3</v>
       </c>
@@ -28020,11 +28043,11 @@
         <f t="shared" si="32"/>
         <v>10.675000000000001</v>
       </c>
-      <c r="AS20" s="65">
+      <c r="AS20" s="132">
         <f t="shared" si="33"/>
         <v>2.8340000000000001</v>
       </c>
-      <c r="AU20" s="82">
+      <c r="AU20" s="140">
         <f t="shared" si="28"/>
         <v>13.509</v>
       </c>
@@ -28036,11 +28059,11 @@
         <f t="shared" si="30"/>
         <v>316.78499999999991</v>
       </c>
-      <c r="AX20" s="65">
+      <c r="AX20" s="132">
         <f t="shared" si="31"/>
         <v>101.316</v>
       </c>
-      <c r="AZ20" s="53">
+      <c r="AZ20" s="155">
         <v>43562</v>
       </c>
       <c r="BA20" s="54">
@@ -28081,15 +28104,15 @@
         <f t="shared" si="25"/>
         <v>3.1174000000000004</v>
       </c>
-      <c r="BL20" s="54">
+      <c r="BL20" s="156">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="BN20" s="20">
+      <c r="BN20" s="140">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="BO20" s="20">
+      <c r="BO20" s="132">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
@@ -28175,7 +28198,7 @@
         <v>0.15500000000000003</v>
       </c>
       <c r="Z21" s="11"/>
-      <c r="AA21" s="112">
+      <c r="AA21" s="140">
         <f t="shared" si="12"/>
         <v>14.154999999999999</v>
       </c>
@@ -28195,7 +28218,7 @@
         <f t="shared" si="16"/>
         <v>3.1160000000000001</v>
       </c>
-      <c r="AF21" s="113">
+      <c r="AF21" s="132">
         <f t="shared" si="17"/>
         <v>2.8330000000000002</v>
       </c>
@@ -28211,7 +28234,7 @@
         <f t="shared" si="18"/>
         <v>17.061999999999998</v>
       </c>
-      <c r="AL21" s="124">
+      <c r="AL21" s="140">
         <f t="shared" si="19"/>
         <v>16.988</v>
       </c>
@@ -28219,7 +28242,7 @@
         <f t="shared" si="19"/>
         <v>17.271000000000001</v>
       </c>
-      <c r="AN21" s="125">
+      <c r="AN21" s="132">
         <f t="shared" si="19"/>
         <v>16.317</v>
       </c>
@@ -28228,7 +28251,7 @@
         <f t="shared" si="20"/>
         <v>2.3</v>
       </c>
-      <c r="AQ21" s="92" t="str">
+      <c r="AQ21" s="131" t="str">
         <f t="shared" si="21"/>
         <v>2.3</v>
       </c>
@@ -28236,11 +28259,11 @@
         <f t="shared" si="32"/>
         <v>13.484</v>
       </c>
-      <c r="AS21" s="65">
+      <c r="AS21" s="132">
         <f t="shared" si="33"/>
         <v>2.8330000000000002</v>
       </c>
-      <c r="AU21" s="82">
+      <c r="AU21" s="140">
         <f t="shared" si="28"/>
         <v>14.154999999999999</v>
       </c>
@@ -28252,11 +28275,11 @@
         <f t="shared" si="30"/>
         <v>317.4559999999999</v>
       </c>
-      <c r="AX21" s="65">
+      <c r="AX21" s="132">
         <f t="shared" si="31"/>
         <v>100.64500000000001</v>
       </c>
-      <c r="AZ21" s="53">
+      <c r="AZ21" s="155">
         <v>43563</v>
       </c>
       <c r="BA21" s="54">
@@ -28297,15 +28320,15 @@
         <f t="shared" si="25"/>
         <v>3.1163000000000003</v>
       </c>
-      <c r="BL21" s="54">
+      <c r="BL21" s="156">
         <f t="shared" si="26"/>
         <v>2.1620000000000008</v>
       </c>
-      <c r="BN21" s="20">
+      <c r="BN21" s="140">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="BO21" s="20">
+      <c r="BO21" s="132">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
@@ -28391,7 +28414,7 @@
         <v>-9.000000000000008E-3</v>
       </c>
       <c r="Z22" s="11"/>
-      <c r="AA22" s="112">
+      <c r="AA22" s="140">
         <f t="shared" si="12"/>
         <v>13.991</v>
       </c>
@@ -28411,7 +28434,7 @@
         <f t="shared" si="16"/>
         <v>3.117</v>
       </c>
-      <c r="AF22" s="113">
+      <c r="AF22" s="132">
         <f t="shared" si="17"/>
         <v>4.5620000000000003</v>
       </c>
@@ -28427,7 +28450,7 @@
         <f t="shared" si="18"/>
         <v>19.471</v>
       </c>
-      <c r="AL22" s="124">
+      <c r="AL22" s="140">
         <f t="shared" si="19"/>
         <v>16.824999999999999</v>
       </c>
@@ -28435,7 +28458,7 @@
         <f t="shared" si="19"/>
         <v>17.108000000000001</v>
       </c>
-      <c r="AN22" s="125">
+      <c r="AN22" s="132">
         <f t="shared" si="19"/>
         <v>18.562000000000001</v>
       </c>
@@ -28444,7 +28467,7 @@
         <f t="shared" si="20"/>
         <v>2.1</v>
       </c>
-      <c r="AQ22" s="92" t="str">
+      <c r="AQ22" s="131" t="str">
         <f t="shared" si="21"/>
         <v>2.1</v>
       </c>
@@ -28452,11 +28475,11 @@
         <f>AB22</f>
         <v>13.991</v>
       </c>
-      <c r="AS22" s="65">
+      <c r="AS22" s="132">
         <f>AN22-AR22</f>
         <v>4.5710000000000015</v>
       </c>
-      <c r="AU22" s="82">
+      <c r="AU22" s="140">
         <f t="shared" si="28"/>
         <v>13.991</v>
       </c>
@@ -28468,11 +28491,11 @@
         <f t="shared" si="30"/>
         <v>317.4559999999999</v>
       </c>
-      <c r="AX22" s="65">
+      <c r="AX22" s="132">
         <f t="shared" si="31"/>
         <v>100.64500000000001</v>
       </c>
-      <c r="AZ22" s="53">
+      <c r="AZ22" s="155">
         <v>43564</v>
       </c>
       <c r="BA22" s="54">
@@ -28513,15 +28536,15 @@
         <f t="shared" si="25"/>
         <v>3.1174000000000004</v>
       </c>
-      <c r="BL22" s="54">
+      <c r="BL22" s="156">
         <f t="shared" si="26"/>
         <v>4.5710000000000015</v>
       </c>
-      <c r="BN22" s="20">
+      <c r="BN22" s="140">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="BO22" s="20">
+      <c r="BO22" s="132">
         <f t="shared" si="27"/>
         <v>1.454</v>
       </c>
@@ -28607,7 +28630,7 @@
         <v>7.6000000000000068E-2</v>
       </c>
       <c r="Z23" s="11"/>
-      <c r="AA23" s="112">
+      <c r="AA23" s="140">
         <f t="shared" si="12"/>
         <v>14.076000000000001</v>
       </c>
@@ -28627,7 +28650,7 @@
         <f t="shared" si="16"/>
         <v>3.1160000000000001</v>
       </c>
-      <c r="AF23" s="113">
+      <c r="AF23" s="132">
         <f t="shared" si="17"/>
         <v>5.5709999999999997</v>
       </c>
@@ -28643,7 +28666,7 @@
         <f t="shared" si="18"/>
         <v>20.395</v>
       </c>
-      <c r="AL23" s="124">
+      <c r="AL23" s="140">
         <f t="shared" si="19"/>
         <v>16.908999999999999</v>
       </c>
@@ -28651,7 +28674,7 @@
         <f t="shared" si="19"/>
         <v>17.192</v>
       </c>
-      <c r="AN23" s="125">
+      <c r="AN23" s="132">
         <f t="shared" si="19"/>
         <v>19.570999999999998</v>
       </c>
@@ -28660,7 +28683,7 @@
         <f t="shared" si="20"/>
         <v>2.1</v>
       </c>
-      <c r="AQ23" s="92" t="str">
+      <c r="AQ23" s="131" t="str">
         <f t="shared" si="21"/>
         <v>2.1</v>
       </c>
@@ -28668,11 +28691,11 @@
         <f>AB23</f>
         <v>14.076000000000001</v>
       </c>
-      <c r="AS23" s="65">
+      <c r="AS23" s="132">
         <f>AN23-AR23</f>
         <v>5.4949999999999974</v>
       </c>
-      <c r="AU23" s="82">
+      <c r="AU23" s="140">
         <f t="shared" si="28"/>
         <v>14.076000000000001</v>
       </c>
@@ -28684,11 +28707,11 @@
         <f t="shared" si="30"/>
         <v>317.4559999999999</v>
       </c>
-      <c r="AX23" s="65">
+      <c r="AX23" s="132">
         <f t="shared" si="31"/>
         <v>100.64500000000001</v>
       </c>
-      <c r="AZ23" s="53">
+      <c r="AZ23" s="155">
         <v>43565</v>
       </c>
       <c r="BA23" s="54">
@@ -28729,15 +28752,15 @@
         <f t="shared" si="25"/>
         <v>3.1163000000000003</v>
       </c>
-      <c r="BL23" s="54">
+      <c r="BL23" s="156">
         <f t="shared" si="26"/>
         <v>5.4949999999999974</v>
       </c>
-      <c r="BN23" s="20">
+      <c r="BN23" s="140">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="BO23" s="20">
+      <c r="BO23" s="132">
         <f t="shared" si="27"/>
         <v>2.379</v>
       </c>
@@ -28823,7 +28846,7 @@
         <v>-4.1999999999999926E-2</v>
       </c>
       <c r="Z24" s="11"/>
-      <c r="AA24" s="112">
+      <c r="AA24" s="140">
         <f t="shared" si="12"/>
         <v>12.958</v>
       </c>
@@ -28843,7 +28866,7 @@
         <f t="shared" si="16"/>
         <v>3.117</v>
       </c>
-      <c r="AF24" s="113">
+      <c r="AF24" s="132">
         <f t="shared" si="17"/>
         <v>7.4530000000000003</v>
       </c>
@@ -28859,7 +28882,7 @@
         <f t="shared" si="18"/>
         <v>21.295000000000002</v>
       </c>
-      <c r="AL24" s="124">
+      <c r="AL24" s="140">
         <f t="shared" si="19"/>
         <v>15.792</v>
       </c>
@@ -28867,7 +28890,7 @@
         <f t="shared" si="19"/>
         <v>16.074999999999999</v>
       </c>
-      <c r="AN24" s="125">
+      <c r="AN24" s="132">
         <f t="shared" si="19"/>
         <v>20.452999999999999</v>
       </c>
@@ -28876,7 +28899,7 @@
         <f t="shared" si="20"/>
         <v>2.1</v>
       </c>
-      <c r="AQ24" s="92" t="str">
+      <c r="AQ24" s="131" t="str">
         <f t="shared" si="21"/>
         <v>2.1</v>
       </c>
@@ -28884,11 +28907,11 @@
         <f t="shared" ref="AR24:AR31" si="34">AB24</f>
         <v>12.958</v>
       </c>
-      <c r="AS24" s="65">
+      <c r="AS24" s="132">
         <f t="shared" ref="AS24:AS31" si="35">AN24-AR24</f>
         <v>7.4949999999999992</v>
       </c>
-      <c r="AU24" s="82">
+      <c r="AU24" s="140">
         <f t="shared" si="28"/>
         <v>12.958</v>
       </c>
@@ -28900,11 +28923,11 @@
         <f t="shared" si="30"/>
         <v>317.4559999999999</v>
       </c>
-      <c r="AX24" s="65">
+      <c r="AX24" s="132">
         <f t="shared" si="31"/>
         <v>100.64500000000001</v>
       </c>
-      <c r="AZ24" s="53">
+      <c r="AZ24" s="155">
         <v>43566</v>
       </c>
       <c r="BA24" s="54">
@@ -28945,15 +28968,15 @@
         <f t="shared" si="25"/>
         <v>3.1174000000000004</v>
       </c>
-      <c r="BL24" s="54">
+      <c r="BL24" s="156">
         <f t="shared" si="26"/>
         <v>7.4949999999999992</v>
       </c>
-      <c r="BN24" s="20">
+      <c r="BN24" s="140">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="BO24" s="20">
+      <c r="BO24" s="132">
         <f t="shared" si="27"/>
         <v>4.3780000000000001</v>
       </c>
@@ -29039,7 +29062,7 @@
         <v>0.24</v>
       </c>
       <c r="Z25" s="11"/>
-      <c r="AA25" s="112">
+      <c r="AA25" s="140">
         <f t="shared" si="12"/>
         <v>13.24</v>
       </c>
@@ -29059,7 +29082,7 @@
         <f t="shared" si="16"/>
         <v>3.1160000000000001</v>
       </c>
-      <c r="AF25" s="113">
+      <c r="AF25" s="132">
         <f t="shared" si="17"/>
         <v>8.0470000000000006</v>
       </c>
@@ -29075,7 +29098,7 @@
         <f t="shared" si="18"/>
         <v>21.606999999999999</v>
       </c>
-      <c r="AL25" s="124">
+      <c r="AL25" s="140">
         <f t="shared" si="19"/>
         <v>16.073</v>
       </c>
@@ -29083,7 +29106,7 @@
         <f t="shared" si="19"/>
         <v>16.356000000000002</v>
       </c>
-      <c r="AN25" s="125">
+      <c r="AN25" s="132">
         <f t="shared" si="19"/>
         <v>21.047000000000001</v>
       </c>
@@ -29092,7 +29115,7 @@
         <f t="shared" si="20"/>
         <v>2.1</v>
       </c>
-      <c r="AQ25" s="92" t="str">
+      <c r="AQ25" s="131" t="str">
         <f t="shared" si="21"/>
         <v>2.1</v>
       </c>
@@ -29100,11 +29123,11 @@
         <f t="shared" si="34"/>
         <v>13.24</v>
       </c>
-      <c r="AS25" s="65">
+      <c r="AS25" s="132">
         <f t="shared" si="35"/>
         <v>7.8070000000000004</v>
       </c>
-      <c r="AU25" s="82">
+      <c r="AU25" s="140">
         <f t="shared" si="28"/>
         <v>13.24</v>
       </c>
@@ -29116,11 +29139,11 @@
         <f t="shared" si="30"/>
         <v>317.4559999999999</v>
       </c>
-      <c r="AX25" s="65">
+      <c r="AX25" s="132">
         <f t="shared" si="31"/>
         <v>100.64500000000001</v>
       </c>
-      <c r="AZ25" s="53">
+      <c r="AZ25" s="155">
         <v>43567</v>
       </c>
       <c r="BA25" s="54">
@@ -29161,15 +29184,15 @@
         <f t="shared" si="25"/>
         <v>3.1163000000000003</v>
       </c>
-      <c r="BL25" s="54">
+      <c r="BL25" s="156">
         <f t="shared" si="26"/>
         <v>7.8070000000000004</v>
       </c>
-      <c r="BN25" s="20">
+      <c r="BN25" s="140">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="BO25" s="20">
+      <c r="BO25" s="132">
         <f t="shared" si="27"/>
         <v>4.6909999999999998</v>
       </c>
@@ -29255,7 +29278,7 @@
         <v>-7.4999999999999956E-2</v>
       </c>
       <c r="Z26" s="11"/>
-      <c r="AA26" s="112">
+      <c r="AA26" s="140">
         <f t="shared" si="12"/>
         <v>12.925000000000001</v>
       </c>
@@ -29275,7 +29298,7 @@
         <f t="shared" si="16"/>
         <v>3.117</v>
       </c>
-      <c r="AF26" s="113">
+      <c r="AF26" s="132">
         <f t="shared" si="17"/>
         <v>6.5650000000000004</v>
       </c>
@@ -29291,7 +29314,7 @@
         <f t="shared" si="18"/>
         <v>20.440000000000001</v>
       </c>
-      <c r="AL26" s="124">
+      <c r="AL26" s="140">
         <f t="shared" si="19"/>
         <v>15.759</v>
       </c>
@@ -29299,7 +29322,7 @@
         <f t="shared" si="19"/>
         <v>16.042000000000002</v>
       </c>
-      <c r="AN26" s="125">
+      <c r="AN26" s="132">
         <f t="shared" si="19"/>
         <v>19.565000000000001</v>
       </c>
@@ -29308,7 +29331,7 @@
         <f t="shared" si="20"/>
         <v>2.1</v>
       </c>
-      <c r="AQ26" s="92" t="str">
+      <c r="AQ26" s="131" t="str">
         <f t="shared" si="21"/>
         <v>2.1</v>
       </c>
@@ -29316,11 +29339,11 @@
         <f t="shared" si="34"/>
         <v>12.925000000000001</v>
       </c>
-      <c r="AS26" s="65">
+      <c r="AS26" s="132">
         <f t="shared" si="35"/>
         <v>6.6400000000000006</v>
       </c>
-      <c r="AU26" s="82">
+      <c r="AU26" s="140">
         <f t="shared" si="28"/>
         <v>12.925000000000001</v>
       </c>
@@ -29332,11 +29355,11 @@
         <f t="shared" si="30"/>
         <v>317.4559999999999</v>
       </c>
-      <c r="AX26" s="65">
+      <c r="AX26" s="132">
         <f t="shared" si="31"/>
         <v>100.64500000000001</v>
       </c>
-      <c r="AZ26" s="53">
+      <c r="AZ26" s="155">
         <v>43568</v>
       </c>
       <c r="BA26" s="54">
@@ -29377,15 +29400,15 @@
         <f t="shared" si="25"/>
         <v>3.1174000000000004</v>
       </c>
-      <c r="BL26" s="54">
+      <c r="BL26" s="156">
         <f t="shared" si="26"/>
         <v>6.6400000000000006</v>
       </c>
-      <c r="BN26" s="20">
+      <c r="BN26" s="140">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="BO26" s="20">
+      <c r="BO26" s="132">
         <f t="shared" si="27"/>
         <v>3.5230000000000001</v>
       </c>
@@ -29471,7 +29494,7 @@
         <v>6.5000000000000058E-2</v>
       </c>
       <c r="Z27" s="11"/>
-      <c r="AA27" s="112">
+      <c r="AA27" s="140">
         <f t="shared" si="12"/>
         <v>13.065</v>
       </c>
@@ -29491,7 +29514,7 @@
         <f t="shared" si="16"/>
         <v>3.1160000000000001</v>
       </c>
-      <c r="AF27" s="113">
+      <c r="AF27" s="132">
         <f t="shared" si="17"/>
         <v>4.9690000000000003</v>
       </c>
@@ -29507,7 +29530,7 @@
         <f t="shared" si="18"/>
         <v>18.704000000000001</v>
       </c>
-      <c r="AL27" s="124">
+      <c r="AL27" s="140">
         <f t="shared" si="19"/>
         <v>15.898</v>
       </c>
@@ -29515,7 +29538,7 @@
         <f t="shared" si="19"/>
         <v>16.181000000000001</v>
       </c>
-      <c r="AN27" s="125">
+      <c r="AN27" s="132">
         <f t="shared" si="19"/>
         <v>17.969000000000001</v>
       </c>
@@ -29524,7 +29547,7 @@
         <f t="shared" si="20"/>
         <v>2.1</v>
       </c>
-      <c r="AQ27" s="92" t="str">
+      <c r="AQ27" s="131" t="str">
         <f t="shared" si="21"/>
         <v>2.1</v>
       </c>
@@ -29532,11 +29555,11 @@
         <f t="shared" si="34"/>
         <v>13.065</v>
       </c>
-      <c r="AS27" s="65">
+      <c r="AS27" s="132">
         <f t="shared" si="35"/>
         <v>4.9040000000000017</v>
       </c>
-      <c r="AU27" s="82">
+      <c r="AU27" s="140">
         <f t="shared" si="28"/>
         <v>13.065</v>
       </c>
@@ -29548,11 +29571,11 @@
         <f t="shared" si="30"/>
         <v>317.4559999999999</v>
       </c>
-      <c r="AX27" s="65">
+      <c r="AX27" s="132">
         <f t="shared" si="31"/>
         <v>100.64500000000001</v>
       </c>
-      <c r="AZ27" s="53">
+      <c r="AZ27" s="155">
         <v>43569</v>
       </c>
       <c r="BA27" s="54">
@@ -29593,15 +29616,15 @@
         <f t="shared" si="25"/>
         <v>3.1163000000000003</v>
       </c>
-      <c r="BL27" s="54">
+      <c r="BL27" s="156">
         <f t="shared" si="26"/>
         <v>4.9040000000000017</v>
       </c>
-      <c r="BN27" s="20">
+      <c r="BN27" s="140">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="BO27" s="20">
+      <c r="BO27" s="132">
         <f t="shared" si="27"/>
         <v>1.788</v>
       </c>
@@ -29687,7 +29710,7 @@
         <v>-5.0000000000000044E-3</v>
       </c>
       <c r="Z28" s="11"/>
-      <c r="AA28" s="112">
+      <c r="AA28" s="140">
         <f t="shared" si="12"/>
         <v>12.994999999999999</v>
       </c>
@@ -29707,7 +29730,7 @@
         <f t="shared" si="16"/>
         <v>3.117</v>
       </c>
-      <c r="AF28" s="113">
+      <c r="AF28" s="132">
         <f t="shared" si="17"/>
         <v>4.875</v>
       </c>
@@ -29723,7 +29746,7 @@
         <f t="shared" si="18"/>
         <v>18.68</v>
       </c>
-      <c r="AL28" s="124">
+      <c r="AL28" s="140">
         <f t="shared" si="19"/>
         <v>15.828999999999999</v>
       </c>
@@ -29731,7 +29754,7 @@
         <f t="shared" si="19"/>
         <v>16.111999999999998</v>
       </c>
-      <c r="AN28" s="125">
+      <c r="AN28" s="132">
         <f t="shared" si="19"/>
         <v>17.875</v>
       </c>
@@ -29740,7 +29763,7 @@
         <f t="shared" si="20"/>
         <v>2.1</v>
       </c>
-      <c r="AQ28" s="92" t="str">
+      <c r="AQ28" s="131" t="str">
         <f t="shared" si="21"/>
         <v>2.1</v>
       </c>
@@ -29748,11 +29771,11 @@
         <f t="shared" si="34"/>
         <v>12.994999999999999</v>
       </c>
-      <c r="AS28" s="65">
+      <c r="AS28" s="132">
         <f t="shared" si="35"/>
         <v>4.8800000000000008</v>
       </c>
-      <c r="AU28" s="82">
+      <c r="AU28" s="140">
         <f t="shared" si="28"/>
         <v>12.994999999999999</v>
       </c>
@@ -29764,11 +29787,11 @@
         <f t="shared" si="30"/>
         <v>317.4559999999999</v>
       </c>
-      <c r="AX28" s="65">
+      <c r="AX28" s="132">
         <f t="shared" si="31"/>
         <v>100.64500000000001</v>
       </c>
-      <c r="AZ28" s="53">
+      <c r="AZ28" s="155">
         <v>43570</v>
       </c>
       <c r="BA28" s="54">
@@ -29809,15 +29832,15 @@
         <f t="shared" si="25"/>
         <v>3.1174000000000004</v>
       </c>
-      <c r="BL28" s="54">
+      <c r="BL28" s="156">
         <f t="shared" si="26"/>
         <v>4.8800000000000008</v>
       </c>
-      <c r="BN28" s="20">
+      <c r="BN28" s="140">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="BO28" s="20">
+      <c r="BO28" s="132">
         <f t="shared" si="27"/>
         <v>1.7629999999999999</v>
       </c>
@@ -29903,7 +29926,7 @@
         <v>0.24099999999999994</v>
       </c>
       <c r="Z29" s="11"/>
-      <c r="AA29" s="112">
+      <c r="AA29" s="140">
         <f t="shared" si="12"/>
         <v>13.241</v>
       </c>
@@ -29923,7 +29946,7 @@
         <f t="shared" si="16"/>
         <v>3.1160000000000001</v>
       </c>
-      <c r="AF29" s="113">
+      <c r="AF29" s="132">
         <f t="shared" si="17"/>
         <v>4.7750000000000004</v>
       </c>
@@ -29939,7 +29962,7 @@
         <f t="shared" si="18"/>
         <v>18.234000000000002</v>
       </c>
-      <c r="AL29" s="124">
+      <c r="AL29" s="140">
         <f t="shared" si="19"/>
         <v>16.073999999999998</v>
       </c>
@@ -29947,7 +29970,7 @@
         <f t="shared" si="19"/>
         <v>16.356999999999999</v>
       </c>
-      <c r="AN29" s="125">
+      <c r="AN29" s="132">
         <f t="shared" si="19"/>
         <v>17.774999999999999</v>
       </c>
@@ -29956,7 +29979,7 @@
         <f t="shared" si="20"/>
         <v>2.1</v>
       </c>
-      <c r="AQ29" s="92" t="str">
+      <c r="AQ29" s="131" t="str">
         <f t="shared" si="21"/>
         <v>2.1</v>
       </c>
@@ -29964,11 +29987,11 @@
         <f t="shared" si="34"/>
         <v>13.241</v>
       </c>
-      <c r="AS29" s="65">
+      <c r="AS29" s="132">
         <f t="shared" si="35"/>
         <v>4.5339999999999989</v>
       </c>
-      <c r="AU29" s="82">
+      <c r="AU29" s="140">
         <f t="shared" si="28"/>
         <v>13.241</v>
       </c>
@@ -29980,11 +30003,11 @@
         <f t="shared" si="30"/>
         <v>317.4559999999999</v>
       </c>
-      <c r="AX29" s="65">
+      <c r="AX29" s="132">
         <f t="shared" si="31"/>
         <v>100.64500000000001</v>
       </c>
-      <c r="AZ29" s="53">
+      <c r="AZ29" s="155">
         <v>43571</v>
       </c>
       <c r="BA29" s="54">
@@ -30025,15 +30048,15 @@
         <f t="shared" si="25"/>
         <v>3.1163000000000003</v>
       </c>
-      <c r="BL29" s="54">
+      <c r="BL29" s="156">
         <f t="shared" si="26"/>
         <v>4.5339999999999989</v>
       </c>
-      <c r="BN29" s="20">
+      <c r="BN29" s="140">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="BO29" s="20">
+      <c r="BO29" s="132">
         <f t="shared" si="27"/>
         <v>1.4179999999999999</v>
       </c>
@@ -30119,7 +30142,7 @@
         <v>8.5999999999999965E-2</v>
       </c>
       <c r="Z30" s="11"/>
-      <c r="AA30" s="112">
+      <c r="AA30" s="140">
         <f t="shared" si="12"/>
         <v>13.086</v>
       </c>
@@ -30139,7 +30162,7 @@
         <f t="shared" si="16"/>
         <v>3.117</v>
       </c>
-      <c r="AF30" s="113">
+      <c r="AF30" s="132">
         <f t="shared" si="17"/>
         <v>2.8340000000000001</v>
       </c>
@@ -30155,7 +30178,7 @@
         <f t="shared" si="18"/>
         <v>15.548</v>
       </c>
-      <c r="AL30" s="124">
+      <c r="AL30" s="140">
         <f t="shared" si="19"/>
         <v>15.92</v>
       </c>
@@ -30163,7 +30186,7 @@
         <f t="shared" si="19"/>
         <v>16.202999999999999</v>
       </c>
-      <c r="AN30" s="125">
+      <c r="AN30" s="132">
         <f t="shared" si="19"/>
         <v>14.933999999999999</v>
       </c>
@@ -30172,7 +30195,7 @@
         <f t="shared" si="20"/>
         <v>2.3</v>
       </c>
-      <c r="AQ30" s="92" t="str">
+      <c r="AQ30" s="131" t="str">
         <f t="shared" si="21"/>
         <v>2.3</v>
       </c>
@@ -30180,11 +30203,11 @@
         <f t="shared" ref="AR30" si="36">AN30-AS30</f>
         <v>12.1</v>
       </c>
-      <c r="AS30" s="65">
+      <c r="AS30" s="132">
         <f t="shared" ref="AS30" si="37">MIN(AN30,T30)</f>
         <v>2.8340000000000001</v>
       </c>
-      <c r="AU30" s="82">
+      <c r="AU30" s="140">
         <f t="shared" si="28"/>
         <v>13.086</v>
       </c>
@@ -30196,11 +30219,11 @@
         <f t="shared" si="30"/>
         <v>318.44199999999989</v>
       </c>
-      <c r="AX30" s="65">
+      <c r="AX30" s="132">
         <f t="shared" si="31"/>
         <v>99.659000000000006</v>
       </c>
-      <c r="AZ30" s="53">
+      <c r="AZ30" s="155">
         <v>43572</v>
       </c>
       <c r="BA30" s="54">
@@ -30241,15 +30264,15 @@
         <f t="shared" si="25"/>
         <v>3.1174000000000004</v>
       </c>
-      <c r="BL30" s="54">
+      <c r="BL30" s="156">
         <f t="shared" si="26"/>
         <v>1.8479999999999994</v>
       </c>
-      <c r="BN30" s="20">
+      <c r="BN30" s="140">
         <f t="shared" si="6"/>
         <v>1.7763568394002505E-15</v>
       </c>
-      <c r="BO30" s="20">
+      <c r="BO30" s="132">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
@@ -30335,7 +30358,7 @@
         <v>0.24999999999999994</v>
       </c>
       <c r="Z31" s="11"/>
-      <c r="AA31" s="112">
+      <c r="AA31" s="140">
         <f t="shared" si="12"/>
         <v>13.25</v>
       </c>
@@ -30355,7 +30378,7 @@
         <f t="shared" si="16"/>
         <v>3.1160000000000001</v>
       </c>
-      <c r="AF31" s="113">
+      <c r="AF31" s="132">
         <f t="shared" si="17"/>
         <v>5.08</v>
       </c>
@@ -30371,7 +30394,7 @@
         <f t="shared" si="18"/>
         <v>18.53</v>
       </c>
-      <c r="AL31" s="124">
+      <c r="AL31" s="140">
         <f t="shared" si="19"/>
         <v>16.082999999999998</v>
       </c>
@@ -30379,7 +30402,7 @@
         <f t="shared" si="19"/>
         <v>16.366</v>
       </c>
-      <c r="AN31" s="125">
+      <c r="AN31" s="132">
         <f t="shared" si="19"/>
         <v>18.079999999999998</v>
       </c>
@@ -30388,7 +30411,7 @@
         <f t="shared" si="20"/>
         <v>2.1</v>
       </c>
-      <c r="AQ31" s="92" t="str">
+      <c r="AQ31" s="131" t="str">
         <f t="shared" si="21"/>
         <v>2.1</v>
       </c>
@@ -30396,11 +30419,11 @@
         <f t="shared" si="34"/>
         <v>13.25</v>
       </c>
-      <c r="AS31" s="65">
+      <c r="AS31" s="132">
         <f t="shared" si="35"/>
         <v>4.8299999999999983</v>
       </c>
-      <c r="AU31" s="82">
+      <c r="AU31" s="140">
         <f t="shared" si="28"/>
         <v>13.25</v>
       </c>
@@ -30412,11 +30435,11 @@
         <f t="shared" si="30"/>
         <v>318.44199999999989</v>
       </c>
-      <c r="AX31" s="65">
+      <c r="AX31" s="132">
         <f t="shared" si="31"/>
         <v>99.659000000000006</v>
       </c>
-      <c r="AZ31" s="53">
+      <c r="AZ31" s="155">
         <v>43573</v>
       </c>
       <c r="BA31" s="54">
@@ -30457,15 +30480,15 @@
         <f t="shared" si="25"/>
         <v>3.1163000000000003</v>
       </c>
-      <c r="BL31" s="54">
+      <c r="BL31" s="156">
         <f t="shared" si="26"/>
         <v>4.8299999999999983</v>
       </c>
-      <c r="BN31" s="20">
+      <c r="BN31" s="140">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="BO31" s="20">
+      <c r="BO31" s="132">
         <f t="shared" si="27"/>
         <v>1.714</v>
       </c>
@@ -30551,7 +30574,7 @@
         <v>0.20299999999999996</v>
       </c>
       <c r="Z32" s="11"/>
-      <c r="AA32" s="112">
+      <c r="AA32" s="140">
         <f t="shared" si="12"/>
         <v>13.202999999999999</v>
       </c>
@@ -30571,7 +30594,7 @@
         <f t="shared" si="16"/>
         <v>3.117</v>
       </c>
-      <c r="AF32" s="113">
+      <c r="AF32" s="132">
         <f t="shared" si="17"/>
         <v>2.8340000000000001</v>
       </c>
@@ -30587,7 +30610,7 @@
         <f t="shared" si="18"/>
         <v>12.770999999999999</v>
       </c>
-      <c r="AL32" s="124">
+      <c r="AL32" s="140">
         <f t="shared" si="19"/>
         <v>16.036999999999999</v>
       </c>
@@ -30595,7 +30618,7 @@
         <f t="shared" si="19"/>
         <v>16.32</v>
       </c>
-      <c r="AN32" s="125">
+      <c r="AN32" s="132">
         <f t="shared" si="19"/>
         <v>12.273999999999999</v>
       </c>
@@ -30604,7 +30627,7 @@
         <f t="shared" si="20"/>
         <v>2.3</v>
       </c>
-      <c r="AQ32" s="92" t="str">
+      <c r="AQ32" s="131" t="str">
         <f t="shared" si="21"/>
         <v>2.3</v>
       </c>
@@ -30612,11 +30635,11 @@
         <f t="shared" ref="AR32:AR43" si="38">AN32-AS32</f>
         <v>9.44</v>
       </c>
-      <c r="AS32" s="65">
+      <c r="AS32" s="132">
         <f t="shared" ref="AS32:AS43" si="39">MIN(AN32,T32)</f>
         <v>2.8340000000000001</v>
       </c>
-      <c r="AU32" s="82">
+      <c r="AU32" s="140">
         <f t="shared" si="28"/>
         <v>12.273999999999999</v>
       </c>
@@ -30628,11 +30651,11 @@
         <f t="shared" si="30"/>
         <v>321.2759999999999</v>
       </c>
-      <c r="AX32" s="65">
+      <c r="AX32" s="132">
         <f t="shared" si="31"/>
         <v>96.825000000000003</v>
       </c>
-      <c r="AZ32" s="53">
+      <c r="AZ32" s="155">
         <v>43574</v>
       </c>
       <c r="BA32" s="54">
@@ -30673,15 +30696,15 @@
         <f t="shared" si="25"/>
         <v>3.1174000000000004</v>
       </c>
-      <c r="BL32" s="54">
+      <c r="BL32" s="156">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="BN32" s="20">
+      <c r="BN32" s="140">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="BO32" s="20">
+      <c r="BO32" s="132">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
@@ -30767,7 +30790,7 @@
         <v>0.31399999999999995</v>
       </c>
       <c r="Z33" s="11"/>
-      <c r="AA33" s="112">
+      <c r="AA33" s="140">
         <f t="shared" si="12"/>
         <v>13.314</v>
       </c>
@@ -30787,7 +30810,7 @@
         <f t="shared" si="16"/>
         <v>3.1160000000000001</v>
       </c>
-      <c r="AF33" s="113">
+      <c r="AF33" s="132">
         <f t="shared" si="17"/>
         <v>2.8330000000000002</v>
       </c>
@@ -30803,7 +30826,7 @@
         <f t="shared" si="18"/>
         <v>13.302999999999999</v>
       </c>
-      <c r="AL33" s="124">
+      <c r="AL33" s="140">
         <f t="shared" si="19"/>
         <v>16.146999999999998</v>
       </c>
@@ -30811,7 +30834,7 @@
         <f t="shared" si="19"/>
         <v>16.43</v>
       </c>
-      <c r="AN33" s="125">
+      <c r="AN33" s="132">
         <f t="shared" si="19"/>
         <v>12.917</v>
       </c>
@@ -30820,7 +30843,7 @@
         <f t="shared" si="20"/>
         <v>2.3</v>
       </c>
-      <c r="AQ33" s="92" t="str">
+      <c r="AQ33" s="131" t="str">
         <f t="shared" si="21"/>
         <v>2.3</v>
       </c>
@@ -30828,11 +30851,11 @@
         <f t="shared" si="38"/>
         <v>10.084</v>
       </c>
-      <c r="AS33" s="65">
+      <c r="AS33" s="132">
         <f t="shared" si="39"/>
         <v>2.8330000000000002</v>
       </c>
-      <c r="AU33" s="82">
+      <c r="AU33" s="140">
         <f t="shared" si="28"/>
         <v>12.917</v>
       </c>
@@ -30844,11 +30867,11 @@
         <f t="shared" si="30"/>
         <v>324.10899999999992</v>
       </c>
-      <c r="AX33" s="65">
+      <c r="AX33" s="132">
         <f t="shared" si="31"/>
         <v>93.992000000000004</v>
       </c>
-      <c r="AZ33" s="53">
+      <c r="AZ33" s="155">
         <v>43575</v>
       </c>
       <c r="BA33" s="54">
@@ -30889,15 +30912,15 @@
         <f t="shared" si="25"/>
         <v>3.1163000000000003</v>
       </c>
-      <c r="BL33" s="54">
+      <c r="BL33" s="156">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="BN33" s="20">
+      <c r="BN33" s="140">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="BO33" s="20">
+      <c r="BO33" s="132">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
@@ -30983,7 +31006,7 @@
         <v>-4.7000000000000042E-2</v>
       </c>
       <c r="Z34" s="11"/>
-      <c r="AA34" s="112">
+      <c r="AA34" s="140">
         <f t="shared" si="12"/>
         <v>10.952999999999999</v>
       </c>
@@ -31003,7 +31026,7 @@
         <f t="shared" si="16"/>
         <v>3.1160000000000001</v>
       </c>
-      <c r="AF34" s="113">
+      <c r="AF34" s="132">
         <f t="shared" si="17"/>
         <v>2.8330000000000002</v>
       </c>
@@ -31019,7 +31042,7 @@
         <f t="shared" si="18"/>
         <v>13.158000000000001</v>
       </c>
-      <c r="AL34" s="124">
+      <c r="AL34" s="140">
         <f t="shared" si="19"/>
         <v>13.786</v>
       </c>
@@ -31027,7 +31050,7 @@
         <f t="shared" si="19"/>
         <v>14.068999999999999</v>
       </c>
-      <c r="AN34" s="125">
+      <c r="AN34" s="132">
         <f t="shared" si="19"/>
         <v>12.611000000000001</v>
       </c>
@@ -31036,7 +31059,7 @@
         <f t="shared" si="20"/>
         <v>2.3</v>
       </c>
-      <c r="AQ34" s="92" t="str">
+      <c r="AQ34" s="131" t="str">
         <f t="shared" si="21"/>
         <v>2.3</v>
       </c>
@@ -31044,11 +31067,11 @@
         <f t="shared" si="38"/>
         <v>9.7780000000000005</v>
       </c>
-      <c r="AS34" s="65">
+      <c r="AS34" s="132">
         <f t="shared" si="39"/>
         <v>2.8330000000000002</v>
       </c>
-      <c r="AU34" s="82">
+      <c r="AU34" s="140">
         <f t="shared" si="28"/>
         <v>10.952999999999999</v>
       </c>
@@ -31060,11 +31083,11 @@
         <f t="shared" si="30"/>
         <v>325.28399999999993</v>
       </c>
-      <c r="AX34" s="65">
+      <c r="AX34" s="132">
         <f t="shared" si="31"/>
         <v>92.817000000000007</v>
       </c>
-      <c r="AZ34" s="53">
+      <c r="AZ34" s="155">
         <v>43576</v>
       </c>
       <c r="BA34" s="54">
@@ -31105,15 +31128,15 @@
         <f t="shared" si="25"/>
         <v>3.1163000000000003</v>
       </c>
-      <c r="BL34" s="54">
+      <c r="BL34" s="156">
         <f t="shared" si="26"/>
         <v>1.6580000000000013</v>
       </c>
-      <c r="BN34" s="20">
+      <c r="BN34" s="140">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="BO34" s="20">
+      <c r="BO34" s="132">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
@@ -31199,7 +31222,7 @@
         <v>1.3000000000000012E-2</v>
       </c>
       <c r="Z35" s="11"/>
-      <c r="AA35" s="112">
+      <c r="AA35" s="140">
         <f t="shared" si="12"/>
         <v>11.013</v>
       </c>
@@ -31219,7 +31242,7 @@
         <f t="shared" si="16"/>
         <v>3.1160000000000001</v>
       </c>
-      <c r="AF35" s="113">
+      <c r="AF35" s="132">
         <f t="shared" si="17"/>
         <v>2.8330000000000002</v>
       </c>
@@ -31235,7 +31258,7 @@
         <f t="shared" si="18"/>
         <v>11.655000000000001</v>
       </c>
-      <c r="AL35" s="124">
+      <c r="AL35" s="140">
         <f t="shared" si="19"/>
         <v>13.846</v>
       </c>
@@ -31243,7 +31266,7 @@
         <f t="shared" si="19"/>
         <v>14.129</v>
       </c>
-      <c r="AN35" s="125">
+      <c r="AN35" s="132">
         <f t="shared" si="19"/>
         <v>11.168000000000001</v>
       </c>
@@ -31252,7 +31275,7 @@
         <f t="shared" si="20"/>
         <v>2.3</v>
       </c>
-      <c r="AQ35" s="92" t="str">
+      <c r="AQ35" s="131" t="str">
         <f t="shared" si="21"/>
         <v>2.3</v>
       </c>
@@ -31260,11 +31283,11 @@
         <f t="shared" si="38"/>
         <v>8.3350000000000009</v>
       </c>
-      <c r="AS35" s="65">
+      <c r="AS35" s="132">
         <f t="shared" si="39"/>
         <v>2.8330000000000002</v>
       </c>
-      <c r="AU35" s="82">
+      <c r="AU35" s="140">
         <f t="shared" si="28"/>
         <v>11.013</v>
       </c>
@@ -31276,11 +31299,11 @@
         <f t="shared" si="30"/>
         <v>327.96199999999993</v>
       </c>
-      <c r="AX35" s="65">
+      <c r="AX35" s="132">
         <f t="shared" si="31"/>
         <v>90.13900000000001</v>
       </c>
-      <c r="AZ35" s="53">
+      <c r="AZ35" s="155">
         <v>43577</v>
       </c>
       <c r="BA35" s="54">
@@ -31321,15 +31344,15 @@
         <f t="shared" si="25"/>
         <v>3.1163000000000003</v>
       </c>
-      <c r="BL35" s="54">
+      <c r="BL35" s="156">
         <f t="shared" si="26"/>
         <v>0.15500000000000114</v>
       </c>
-      <c r="BN35" s="20">
+      <c r="BN35" s="140">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="BO35" s="20">
+      <c r="BO35" s="132">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
@@ -31415,7 +31438,7 @@
         <v>3.4999999999999976E-2</v>
       </c>
       <c r="Z36" s="11"/>
-      <c r="AA36" s="112">
+      <c r="AA36" s="140">
         <f t="shared" si="12"/>
         <v>11.035</v>
       </c>
@@ -31435,7 +31458,7 @@
         <f t="shared" si="16"/>
         <v>3.1160000000000001</v>
       </c>
-      <c r="AF36" s="113">
+      <c r="AF36" s="132">
         <f t="shared" si="17"/>
         <v>2.8330000000000002</v>
       </c>
@@ -31451,7 +31474,7 @@
         <f t="shared" si="18"/>
         <v>10.398</v>
       </c>
-      <c r="AL36" s="124">
+      <c r="AL36" s="140">
         <f t="shared" si="19"/>
         <v>13.868</v>
       </c>
@@ -31459,7 +31482,7 @@
         <f t="shared" si="19"/>
         <v>14.151</v>
       </c>
-      <c r="AN36" s="125">
+      <c r="AN36" s="132">
         <f t="shared" si="19"/>
         <v>9.9329999999999998</v>
       </c>
@@ -31468,7 +31491,7 @@
         <f t="shared" si="20"/>
         <v>2.3</v>
       </c>
-      <c r="AQ36" s="92" t="str">
+      <c r="AQ36" s="131" t="str">
         <f t="shared" si="21"/>
         <v>2.3</v>
       </c>
@@ -31476,11 +31499,11 @@
         <f t="shared" si="38"/>
         <v>7.1</v>
       </c>
-      <c r="AS36" s="65">
+      <c r="AS36" s="132">
         <f t="shared" si="39"/>
         <v>2.8330000000000002</v>
       </c>
-      <c r="AU36" s="82">
+      <c r="AU36" s="140">
         <f t="shared" si="28"/>
         <v>9.9329999999999998</v>
       </c>
@@ -31492,11 +31515,11 @@
         <f t="shared" si="30"/>
         <v>330.79499999999996</v>
       </c>
-      <c r="AX36" s="65">
+      <c r="AX36" s="132">
         <f t="shared" si="31"/>
         <v>87.306000000000012</v>
       </c>
-      <c r="AZ36" s="53">
+      <c r="AZ36" s="155">
         <v>43578</v>
       </c>
       <c r="BA36" s="54">
@@ -31537,15 +31560,15 @@
         <f t="shared" si="25"/>
         <v>3.1163000000000003</v>
       </c>
-      <c r="BL36" s="54">
+      <c r="BL36" s="156">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="BN36" s="20">
+      <c r="BN36" s="140">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="BO36" s="20">
+      <c r="BO36" s="132">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
@@ -31631,7 +31654,7 @@
         <v>0.19700000000000001</v>
       </c>
       <c r="Z37" s="11"/>
-      <c r="AA37" s="112">
+      <c r="AA37" s="140">
         <f t="shared" si="12"/>
         <v>11.196999999999999</v>
       </c>
@@ -31651,7 +31674,7 @@
         <f t="shared" si="16"/>
         <v>3.1160000000000001</v>
       </c>
-      <c r="AF37" s="113">
+      <c r="AF37" s="132">
         <f t="shared" si="17"/>
         <v>2.8330000000000002</v>
       </c>
@@ -31667,7 +31690,7 @@
         <f t="shared" si="18"/>
         <v>11.798000000000002</v>
       </c>
-      <c r="AL37" s="124">
+      <c r="AL37" s="140">
         <f t="shared" si="19"/>
         <v>14.03</v>
       </c>
@@ -31675,7 +31698,7 @@
         <f t="shared" si="19"/>
         <v>14.312999999999999</v>
       </c>
-      <c r="AN37" s="125">
+      <c r="AN37" s="132">
         <f t="shared" si="19"/>
         <v>11.495000000000001</v>
       </c>
@@ -31684,7 +31707,7 @@
         <f t="shared" si="20"/>
         <v>2.3</v>
       </c>
-      <c r="AQ37" s="92" t="str">
+      <c r="AQ37" s="131" t="str">
         <f t="shared" si="21"/>
         <v>2.3</v>
       </c>
@@ -31692,11 +31715,11 @@
         <f t="shared" si="38"/>
         <v>8.6620000000000008</v>
       </c>
-      <c r="AS37" s="65">
+      <c r="AS37" s="132">
         <f t="shared" si="39"/>
         <v>2.8330000000000002</v>
       </c>
-      <c r="AU37" s="82">
+      <c r="AU37" s="140">
         <f t="shared" si="28"/>
         <v>10.968000000000012</v>
       </c>
@@ -31708,11 +31731,11 @@
         <f t="shared" si="30"/>
         <v>333.101</v>
       </c>
-      <c r="AX37" s="65">
+      <c r="AX37" s="132">
         <f t="shared" si="31"/>
         <v>85</v>
       </c>
-      <c r="AZ37" s="53">
+      <c r="AZ37" s="155">
         <v>43579</v>
       </c>
       <c r="BA37" s="54">
@@ -31753,15 +31776,15 @@
         <f t="shared" si="25"/>
         <v>3.1163000000000003</v>
       </c>
-      <c r="BL37" s="54">
+      <c r="BL37" s="156">
         <f t="shared" si="26"/>
         <v>0.52699999999998859</v>
       </c>
-      <c r="BN37" s="20">
+      <c r="BN37" s="140">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="BO37" s="20">
+      <c r="BO37" s="132">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
@@ -31847,7 +31870,7 @@
         <v>0.35399999999999998</v>
       </c>
       <c r="Z38" s="11"/>
-      <c r="AA38" s="112">
+      <c r="AA38" s="140">
         <f t="shared" si="12"/>
         <v>11.353999999999999</v>
       </c>
@@ -31867,7 +31890,7 @@
         <f t="shared" si="16"/>
         <v>3.1160000000000001</v>
       </c>
-      <c r="AF38" s="113">
+      <c r="AF38" s="132">
         <f t="shared" si="17"/>
         <v>2.8330000000000002</v>
       </c>
@@ -31883,7 +31906,7 @@
         <f t="shared" si="18"/>
         <v>5.617</v>
       </c>
-      <c r="AL38" s="124">
+      <c r="AL38" s="140">
         <f t="shared" si="19"/>
         <v>14.186999999999999</v>
       </c>
@@ -31891,7 +31914,7 @@
         <f t="shared" si="19"/>
         <v>14.469999999999999</v>
       </c>
-      <c r="AN38" s="125">
+      <c r="AN38" s="132">
         <f t="shared" si="19"/>
         <v>5.4710000000000001</v>
       </c>
@@ -31900,7 +31923,7 @@
         <f t="shared" si="20"/>
         <v>2.3</v>
       </c>
-      <c r="AQ38" s="92" t="str">
+      <c r="AQ38" s="131" t="str">
         <f t="shared" si="21"/>
         <v>2.3</v>
       </c>
@@ -31908,11 +31931,11 @@
         <f t="shared" si="38"/>
         <v>2.6379999999999999</v>
       </c>
-      <c r="AS38" s="65">
+      <c r="AS38" s="132">
         <f t="shared" si="39"/>
         <v>2.8330000000000002</v>
       </c>
-      <c r="AU38" s="82">
+      <c r="AU38" s="140">
         <f t="shared" si="28"/>
         <v>2.6379999999999999</v>
       </c>
@@ -31924,11 +31947,11 @@
         <f t="shared" si="30"/>
         <v>333.101</v>
       </c>
-      <c r="AX38" s="65">
+      <c r="AX38" s="132">
         <f t="shared" si="31"/>
         <v>85</v>
       </c>
-      <c r="AZ38" s="53">
+      <c r="AZ38" s="155">
         <v>43580</v>
       </c>
       <c r="BA38" s="54">
@@ -31969,15 +31992,15 @@
         <f t="shared" si="25"/>
         <v>3.1163000000000003</v>
       </c>
-      <c r="BL38" s="54">
+      <c r="BL38" s="156">
         <f t="shared" si="26"/>
         <v>2.8330000000000002</v>
       </c>
-      <c r="BN38" s="20">
+      <c r="BN38" s="140">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="BO38" s="20">
+      <c r="BO38" s="132">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
@@ -32063,7 +32086,7 @@
         <v>0.5</v>
       </c>
       <c r="Z39" s="11"/>
-      <c r="AA39" s="112">
+      <c r="AA39" s="140">
         <f t="shared" si="12"/>
         <v>11.5</v>
       </c>
@@ -32083,7 +32106,7 @@
         <f t="shared" si="16"/>
         <v>3.1160000000000001</v>
       </c>
-      <c r="AF39" s="113">
+      <c r="AF39" s="132">
         <f t="shared" si="17"/>
         <v>2.8330000000000002</v>
       </c>
@@ -32099,7 +32122,7 @@
         <f t="shared" si="18"/>
         <v>6.9750000000000005</v>
       </c>
-      <c r="AL39" s="124">
+      <c r="AL39" s="140">
         <f t="shared" si="19"/>
         <v>14.333</v>
       </c>
@@ -32107,7 +32130,7 @@
         <f t="shared" si="19"/>
         <v>14.616</v>
       </c>
-      <c r="AN39" s="125">
+      <c r="AN39" s="132">
         <f t="shared" si="19"/>
         <v>6.9750000000000005</v>
       </c>
@@ -32116,7 +32139,7 @@
         <f t="shared" si="20"/>
         <v>2.3</v>
       </c>
-      <c r="AQ39" s="92" t="str">
+      <c r="AQ39" s="131" t="str">
         <f t="shared" si="21"/>
         <v>2.3</v>
       </c>
@@ -32124,11 +32147,11 @@
         <f t="shared" si="38"/>
         <v>4.1420000000000003</v>
       </c>
-      <c r="AS39" s="65">
+      <c r="AS39" s="132">
         <f t="shared" si="39"/>
         <v>2.8330000000000002</v>
       </c>
-      <c r="AU39" s="82">
+      <c r="AU39" s="140">
         <f t="shared" si="28"/>
         <v>4.1420000000000003</v>
       </c>
@@ -32140,11 +32163,11 @@
         <f t="shared" si="30"/>
         <v>333.101</v>
       </c>
-      <c r="AX39" s="65">
+      <c r="AX39" s="132">
         <f t="shared" si="31"/>
         <v>85</v>
       </c>
-      <c r="AZ39" s="53">
+      <c r="AZ39" s="155">
         <v>43581</v>
       </c>
       <c r="BA39" s="54">
@@ -32185,15 +32208,15 @@
         <f t="shared" si="25"/>
         <v>3.1163000000000003</v>
       </c>
-      <c r="BL39" s="54">
+      <c r="BL39" s="156">
         <f t="shared" si="26"/>
         <v>2.8330000000000002</v>
       </c>
-      <c r="BN39" s="20">
+      <c r="BN39" s="140">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="BO39" s="20">
+      <c r="BO39" s="132">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
@@ -32279,7 +32302,7 @@
         <v>0.5</v>
       </c>
       <c r="Z40" s="11"/>
-      <c r="AA40" s="112">
+      <c r="AA40" s="140">
         <f t="shared" si="12"/>
         <v>11.5</v>
       </c>
@@ -32299,7 +32322,7 @@
         <f t="shared" si="16"/>
         <v>3.1160000000000001</v>
       </c>
-      <c r="AF40" s="113">
+      <c r="AF40" s="132">
         <f t="shared" si="17"/>
         <v>2.8330000000000002</v>
       </c>
@@ -32315,7 +32338,7 @@
         <f t="shared" si="18"/>
         <v>5.673</v>
       </c>
-      <c r="AL40" s="124">
+      <c r="AL40" s="140">
         <f t="shared" si="19"/>
         <v>14.333</v>
       </c>
@@ -32323,7 +32346,7 @@
         <f t="shared" si="19"/>
         <v>14.616</v>
       </c>
-      <c r="AN40" s="125">
+      <c r="AN40" s="132">
         <f t="shared" si="19"/>
         <v>5.673</v>
       </c>
@@ -32332,7 +32355,7 @@
         <f t="shared" si="20"/>
         <v>2.3</v>
       </c>
-      <c r="AQ40" s="92" t="str">
+      <c r="AQ40" s="131" t="str">
         <f t="shared" si="21"/>
         <v>2.3</v>
       </c>
@@ -32340,11 +32363,11 @@
         <f t="shared" si="38"/>
         <v>2.84</v>
       </c>
-      <c r="AS40" s="65">
+      <c r="AS40" s="132">
         <f t="shared" si="39"/>
         <v>2.8330000000000002</v>
       </c>
-      <c r="AU40" s="82">
+      <c r="AU40" s="140">
         <f t="shared" si="28"/>
         <v>2.84</v>
       </c>
@@ -32356,11 +32379,11 @@
         <f t="shared" si="30"/>
         <v>333.101</v>
       </c>
-      <c r="AX40" s="65">
+      <c r="AX40" s="132">
         <f t="shared" si="31"/>
         <v>85</v>
       </c>
-      <c r="AZ40" s="53">
+      <c r="AZ40" s="155">
         <v>43582</v>
       </c>
       <c r="BA40" s="54">
@@ -32401,15 +32424,15 @@
         <f t="shared" si="25"/>
         <v>3.1163000000000003</v>
       </c>
-      <c r="BL40" s="54">
+      <c r="BL40" s="156">
         <f t="shared" si="26"/>
         <v>2.8330000000000002</v>
       </c>
-      <c r="BN40" s="20">
+      <c r="BN40" s="140">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="BO40" s="20">
+      <c r="BO40" s="132">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
@@ -32495,7 +32518,7 @@
         <v>0</v>
       </c>
       <c r="Z41" s="11"/>
-      <c r="AA41" s="112">
+      <c r="AA41" s="140">
         <f t="shared" si="12"/>
         <v>11</v>
       </c>
@@ -32515,7 +32538,7 @@
         <f t="shared" si="16"/>
         <v>3.1160000000000001</v>
       </c>
-      <c r="AF41" s="113">
+      <c r="AF41" s="132">
         <f t="shared" si="17"/>
         <v>2.8330000000000002</v>
       </c>
@@ -32531,7 +32554,7 @@
         <f t="shared" si="18"/>
         <v>6.6050000000000004</v>
       </c>
-      <c r="AL41" s="124">
+      <c r="AL41" s="140">
         <f t="shared" si="19"/>
         <v>13.833</v>
       </c>
@@ -32539,7 +32562,7 @@
         <f t="shared" si="19"/>
         <v>14.116</v>
       </c>
-      <c r="AN41" s="125">
+      <c r="AN41" s="132">
         <f t="shared" si="19"/>
         <v>6.6050000000000004</v>
       </c>
@@ -32548,7 +32571,7 @@
         <f t="shared" si="20"/>
         <v>2.3</v>
       </c>
-      <c r="AQ41" s="92" t="str">
+      <c r="AQ41" s="131" t="str">
         <f t="shared" si="21"/>
         <v>2.3</v>
       </c>
@@ -32556,11 +32579,11 @@
         <f t="shared" si="38"/>
         <v>3.7720000000000002</v>
       </c>
-      <c r="AS41" s="65">
+      <c r="AS41" s="132">
         <f t="shared" si="39"/>
         <v>2.8330000000000002</v>
       </c>
-      <c r="AU41" s="82">
+      <c r="AU41" s="140">
         <f t="shared" si="28"/>
         <v>3.7720000000000002</v>
       </c>
@@ -32572,11 +32595,11 @@
         <f t="shared" si="30"/>
         <v>333.101</v>
       </c>
-      <c r="AX41" s="65">
+      <c r="AX41" s="132">
         <f t="shared" si="31"/>
         <v>85</v>
       </c>
-      <c r="AZ41" s="53">
+      <c r="AZ41" s="155">
         <v>43583</v>
       </c>
       <c r="BA41" s="54">
@@ -32617,15 +32640,15 @@
         <f t="shared" si="25"/>
         <v>3.1163000000000003</v>
       </c>
-      <c r="BL41" s="54">
+      <c r="BL41" s="156">
         <f t="shared" si="26"/>
         <v>2.8330000000000002</v>
       </c>
-      <c r="BN41" s="20">
+      <c r="BN41" s="140">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="BO41" s="20">
+      <c r="BO41" s="132">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
@@ -32711,7 +32734,7 @@
         <v>0</v>
       </c>
       <c r="Z42" s="11"/>
-      <c r="AA42" s="112">
+      <c r="AA42" s="140">
         <f t="shared" si="12"/>
         <v>11</v>
       </c>
@@ -32731,7 +32754,7 @@
         <f t="shared" si="16"/>
         <v>3.1160000000000001</v>
       </c>
-      <c r="AF42" s="113">
+      <c r="AF42" s="132">
         <f t="shared" si="17"/>
         <v>2.8330000000000002</v>
       </c>
@@ -32747,7 +32770,7 @@
         <f t="shared" si="18"/>
         <v>6.7780000000000005</v>
       </c>
-      <c r="AL42" s="124">
+      <c r="AL42" s="140">
         <f t="shared" si="19"/>
         <v>13.833</v>
       </c>
@@ -32755,7 +32778,7 @@
         <f t="shared" si="19"/>
         <v>14.116</v>
       </c>
-      <c r="AN42" s="125">
+      <c r="AN42" s="132">
         <f t="shared" si="19"/>
         <v>6.7780000000000005</v>
       </c>
@@ -32764,7 +32787,7 @@
         <f t="shared" si="20"/>
         <v>2.3</v>
       </c>
-      <c r="AQ42" s="92" t="str">
+      <c r="AQ42" s="131" t="str">
         <f t="shared" si="21"/>
         <v>2.3</v>
       </c>
@@ -32772,11 +32795,11 @@
         <f t="shared" si="38"/>
         <v>3.9450000000000003</v>
       </c>
-      <c r="AS42" s="65">
+      <c r="AS42" s="132">
         <f t="shared" si="39"/>
         <v>2.8330000000000002</v>
       </c>
-      <c r="AU42" s="82">
+      <c r="AU42" s="140">
         <f t="shared" si="28"/>
         <v>3.9450000000000003</v>
       </c>
@@ -32788,11 +32811,11 @@
         <f t="shared" si="30"/>
         <v>333.101</v>
       </c>
-      <c r="AX42" s="65">
+      <c r="AX42" s="132">
         <f t="shared" si="31"/>
         <v>85</v>
       </c>
-      <c r="AZ42" s="53">
+      <c r="AZ42" s="155">
         <v>43584</v>
       </c>
       <c r="BA42" s="54">
@@ -32833,15 +32856,15 @@
         <f t="shared" si="25"/>
         <v>3.1163000000000003</v>
       </c>
-      <c r="BL42" s="54">
+      <c r="BL42" s="156">
         <f t="shared" si="26"/>
         <v>2.8330000000000002</v>
       </c>
-      <c r="BN42" s="20">
+      <c r="BN42" s="140">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="BO42" s="20">
+      <c r="BO42" s="132">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
@@ -32927,7 +32950,7 @@
         <v>0</v>
       </c>
       <c r="Z43" s="11"/>
-      <c r="AA43" s="112">
+      <c r="AA43" s="140">
         <f t="shared" si="12"/>
         <v>11</v>
       </c>
@@ -32947,7 +32970,7 @@
         <f t="shared" si="16"/>
         <v>3.1160000000000001</v>
       </c>
-      <c r="AF43" s="113">
+      <c r="AF43" s="132">
         <f t="shared" si="17"/>
         <v>2.8330000000000002</v>
       </c>
@@ -32963,7 +32986,7 @@
         <f t="shared" si="18"/>
         <v>5.5449999999999999</v>
       </c>
-      <c r="AL43" s="124">
+      <c r="AL43" s="140">
         <f t="shared" si="19"/>
         <v>13.833</v>
       </c>
@@ -32971,7 +32994,7 @@
         <f t="shared" si="19"/>
         <v>14.116</v>
       </c>
-      <c r="AN43" s="125">
+      <c r="AN43" s="132">
         <f t="shared" si="19"/>
         <v>5.5449999999999999</v>
       </c>
@@ -32980,7 +33003,7 @@
         <f t="shared" si="20"/>
         <v>2.3</v>
       </c>
-      <c r="AQ43" s="92" t="str">
+      <c r="AQ43" s="131" t="str">
         <f t="shared" si="21"/>
         <v>2.3</v>
       </c>
@@ -32988,11 +33011,11 @@
         <f t="shared" si="38"/>
         <v>2.7119999999999997</v>
       </c>
-      <c r="AS43" s="65">
+      <c r="AS43" s="132">
         <f t="shared" si="39"/>
         <v>2.8330000000000002</v>
       </c>
-      <c r="AU43" s="82">
+      <c r="AU43" s="140">
         <f t="shared" si="28"/>
         <v>2.7119999999999997</v>
       </c>
@@ -33004,11 +33027,11 @@
         <f t="shared" si="30"/>
         <v>333.101</v>
       </c>
-      <c r="AX43" s="65">
+      <c r="AX43" s="132">
         <f t="shared" si="31"/>
         <v>85</v>
       </c>
-      <c r="AZ43" s="53">
+      <c r="AZ43" s="155">
         <v>43585</v>
       </c>
       <c r="BA43" s="54">
@@ -33049,15 +33072,15 @@
         <f t="shared" si="25"/>
         <v>3.1163000000000003</v>
       </c>
-      <c r="BL43" s="54">
+      <c r="BL43" s="156">
         <f t="shared" si="26"/>
         <v>2.8330000000000002</v>
       </c>
-      <c r="BN43" s="20">
+      <c r="BN43" s="140">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="BO43" s="20">
+      <c r="BO43" s="132">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
@@ -33125,7 +33148,7 @@
         <v>0</v>
       </c>
       <c r="Z44" s="11"/>
-      <c r="AA44" s="112">
+      <c r="AA44" s="140">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
@@ -33145,7 +33168,7 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AF44" s="113">
+      <c r="AF44" s="132">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
@@ -33161,7 +33184,7 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AL44" s="124">
+      <c r="AL44" s="140">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
@@ -33169,19 +33192,19 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AN44" s="125">
+      <c r="AN44" s="132">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AO44" s="20"/>
-      <c r="AQ44" s="92"/>
+      <c r="AQ44" s="131"/>
       <c r="AR44" s="18"/>
-      <c r="AS44" s="59"/>
-      <c r="AU44" s="58"/>
+      <c r="AS44" s="128"/>
+      <c r="AU44" s="127"/>
       <c r="AV44" s="18"/>
       <c r="AW44" s="18"/>
-      <c r="AX44" s="59"/>
-      <c r="AZ44" s="48"/>
+      <c r="AX44" s="128"/>
+      <c r="AZ44" s="149"/>
       <c r="BA44" s="55"/>
       <c r="BB44" s="55"/>
       <c r="BC44" s="55"/>
@@ -33193,12 +33216,12 @@
       <c r="BI44" s="55"/>
       <c r="BJ44" s="55"/>
       <c r="BK44" s="55"/>
-      <c r="BL44" s="55"/>
-      <c r="BN44" s="20">
+      <c r="BL44" s="157"/>
+      <c r="BN44" s="140">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="BO44" s="20">
+      <c r="BO44" s="132">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
@@ -33278,7 +33301,7 @@
         <v>4.501000000000003</v>
       </c>
       <c r="Z45" s="11"/>
-      <c r="AA45" s="112">
+      <c r="AA45" s="140">
         <f t="shared" si="12"/>
         <v>384.50099999999998</v>
       </c>
@@ -33292,7 +33315,7 @@
         <v>85</v>
       </c>
       <c r="AE45" s="20"/>
-      <c r="AF45" s="113">
+      <c r="AF45" s="132">
         <f t="shared" si="17"/>
         <v>114.23700000000001</v>
       </c>
@@ -33305,24 +33328,24 @@
         <f t="shared" si="18"/>
         <v>433.59999999999997</v>
       </c>
-      <c r="AL45" s="124">
+      <c r="AL45" s="140">
         <f t="shared" si="19"/>
         <v>469.50099999999998</v>
       </c>
       <c r="AM45" s="20"/>
-      <c r="AN45" s="125">
+      <c r="AN45" s="132">
         <f t="shared" si="19"/>
         <v>418.10099999999994</v>
       </c>
       <c r="AO45" s="20"/>
-      <c r="AQ45" s="58"/>
+      <c r="AQ45" s="127"/>
       <c r="AR45" s="18"/>
-      <c r="AS45" s="59"/>
-      <c r="AU45" s="58"/>
+      <c r="AS45" s="128"/>
+      <c r="AU45" s="127"/>
       <c r="AV45" s="18"/>
       <c r="AW45" s="18"/>
-      <c r="AX45" s="59"/>
-      <c r="AZ45" s="56"/>
+      <c r="AX45" s="128"/>
+      <c r="AZ45" s="158"/>
       <c r="BA45" s="57">
         <f>SUM(BA14:BA44)</f>
         <v>20.000000000000004</v>
@@ -33367,15 +33390,15 @@
         <f t="shared" si="41"/>
         <v>93.499999999999986</v>
       </c>
-      <c r="BL45" s="57">
+      <c r="BL45" s="159">
         <f t="shared" si="41"/>
         <v>84.999999999999986</v>
       </c>
-      <c r="BN45" s="21">
+      <c r="BN45" s="164">
         <f t="shared" ref="BN45:BO45" si="42">SUM(BN14:BN44)</f>
         <v>1.7763568394002505E-15</v>
       </c>
-      <c r="BO45" s="21">
+      <c r="BO45" s="165">
         <f t="shared" si="42"/>
         <v>25.323</v>
       </c>
@@ -33423,21 +33446,21 @@
         <f t="shared" si="44"/>
         <v>26.123999999999999</v>
       </c>
-      <c r="AA46" s="114">
+      <c r="AA46" s="141">
         <f>SUM(AA14:AA44)</f>
         <v>384.50099999999998</v>
       </c>
-      <c r="AB46" s="115"/>
-      <c r="AC46" s="115">
+      <c r="AB46" s="134"/>
+      <c r="AC46" s="134">
         <f t="shared" ref="AC46:AD46" si="45">SUM(AC14:AC44)</f>
         <v>303.86399999999992</v>
       </c>
-      <c r="AD46" s="115">
+      <c r="AD46" s="134">
         <f t="shared" si="45"/>
         <v>85</v>
       </c>
-      <c r="AE46" s="115"/>
-      <c r="AF46" s="116">
+      <c r="AE46" s="134"/>
+      <c r="AF46" s="135">
         <f t="shared" ref="AF46" si="46">SUM(AF14:AF44)</f>
         <v>114.23700000000001</v>
       </c>
@@ -33450,48 +33473,63 @@
         <f t="shared" ref="AJ46" si="47">SUM(AJ14:AJ44)</f>
         <v>433.60000000000014</v>
       </c>
-      <c r="AL46" s="126">
+      <c r="AL46" s="141">
         <f>SUM(AL14:AL44)</f>
         <v>469.50100000000015</v>
       </c>
-      <c r="AM46" s="127"/>
-      <c r="AN46" s="128">
+      <c r="AM46" s="134"/>
+      <c r="AN46" s="135">
         <f t="shared" ref="AN46" si="48">SUM(AN14:AN44)</f>
         <v>418.101</v>
       </c>
       <c r="AO46" s="21"/>
-      <c r="AQ46" s="93"/>
-      <c r="AR46" s="62">
+      <c r="AQ46" s="133"/>
+      <c r="AR46" s="134">
         <f>SUM(AR14:AR44)</f>
         <v>304.66499999999991</v>
       </c>
-      <c r="AS46" s="63">
+      <c r="AS46" s="135">
         <f>SUM(AS14:AS44)</f>
         <v>113.43599999999999</v>
       </c>
       <c r="AT46" s="12"/>
-      <c r="AU46" s="85">
+      <c r="AU46" s="141">
         <f t="shared" ref="AU46:AV46" si="49">SUM(AU14:AU44)</f>
         <v>333.10099999999989</v>
       </c>
-      <c r="AV46" s="62">
+      <c r="AV46" s="134">
         <f t="shared" si="49"/>
         <v>84.999999999999986</v>
       </c>
-      <c r="AW46" s="95"/>
-      <c r="AX46" s="96"/>
+      <c r="AW46" s="147"/>
+      <c r="AX46" s="148"/>
+      <c r="AZ46" s="133"/>
+      <c r="BA46" s="147"/>
+      <c r="BB46" s="147"/>
+      <c r="BC46" s="147"/>
+      <c r="BD46" s="147"/>
+      <c r="BE46" s="147"/>
+      <c r="BF46" s="147"/>
+      <c r="BG46" s="147"/>
+      <c r="BH46" s="147"/>
+      <c r="BI46" s="147"/>
+      <c r="BJ46" s="147"/>
+      <c r="BK46" s="147"/>
+      <c r="BL46" s="148"/>
+      <c r="BN46" s="133"/>
+      <c r="BO46" s="148"/>
     </row>
     <row r="48" spans="1:67" ht="45" x14ac:dyDescent="0.2">
-      <c r="BC48" s="100" t="s">
+      <c r="BC48" s="99" t="s">
         <v>79</v>
       </c>
-      <c r="BF48" s="100" t="s">
+      <c r="BF48" s="99" t="s">
         <v>80</v>
       </c>
-      <c r="BI48" s="100" t="s">
+      <c r="BI48" s="99" t="s">
         <v>77</v>
       </c>
-      <c r="BL48" s="100" t="s">
+      <c r="BL48" s="99" t="s">
         <v>78</v>
       </c>
     </row>
@@ -33555,6 +33593,18 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="AU1:AX1"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="P1:W1"/>
+    <mergeCell ref="AH1:AJ1"/>
+    <mergeCell ref="AQ1:AS1"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="BA3:BK3"/>
+    <mergeCell ref="BA6:BC6"/>
+    <mergeCell ref="BD6:BF6"/>
+    <mergeCell ref="BG6:BI6"/>
+    <mergeCell ref="BJ6:BL6"/>
     <mergeCell ref="BA8:BF8"/>
     <mergeCell ref="BG8:BL8"/>
     <mergeCell ref="BA9:BF9"/>
@@ -33563,18 +33613,6 @@
     <mergeCell ref="F11:I11"/>
     <mergeCell ref="BA11:BF11"/>
     <mergeCell ref="BG11:BL11"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="BA3:BK3"/>
-    <mergeCell ref="BA6:BC6"/>
-    <mergeCell ref="BD6:BF6"/>
-    <mergeCell ref="BG6:BI6"/>
-    <mergeCell ref="BJ6:BL6"/>
-    <mergeCell ref="AU1:AX1"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="P1:W1"/>
-    <mergeCell ref="AH1:AJ1"/>
-    <mergeCell ref="AQ1:AS1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
